--- a/input_data/prices_WID/infl_xrates_wid_wb.xlsx
+++ b/input_data/prices_WID/infl_xrates_wid_wb.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11255" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15112" uniqueCount="776">
   <si>
     <t>countrycode</t>
   </si>
@@ -1591,6 +1591,633 @@
   </si>
   <si>
     <t>xppp_eur</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>BOL</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>GTM</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>PRY</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>countrycode</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>defl_xxxx</t>
+  </si>
+  <si>
+    <t>xppp_eur</t>
+  </si>
+  <si>
+    <t>countrycode</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>defl_2023</t>
+  </si>
+  <si>
+    <t>xppp_eur</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>cpi_2023</t>
+  </si>
+  <si>
+    <t>countrycode</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>defl_2023</t>
+  </si>
+  <si>
+    <t>xppp_eur</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>cpi_2023</t>
+  </si>
+  <si>
+    <t>countrycode</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>defl_2023</t>
+  </si>
+  <si>
+    <t>xppp_eur</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>cpi_2023</t>
+  </si>
+  <si>
+    <t>countrycode</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>defl_2023</t>
+  </si>
+  <si>
+    <t>xppp_eur</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>cpi_2023</t>
+  </si>
+  <si>
+    <t>countrycode</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>defl_2023</t>
+  </si>
+  <si>
+    <t>xppp_eur</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>cpi_2023</t>
+  </si>
+  <si>
+    <t>countrycode</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>defl_2023</t>
+  </si>
+  <si>
+    <t>xppp_eur</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>cpi_2023</t>
   </si>
   <si>
     <t>country</t>
@@ -1762,27 +2389,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>526</v>
+        <v>735</v>
       </c>
       <c r="B1" t="s">
-        <v>545</v>
+        <v>754</v>
       </c>
       <c r="C1" t="s">
-        <v>564</v>
+        <v>773</v>
       </c>
       <c r="D1" t="s">
-        <v>565</v>
+        <v>774</v>
       </c>
       <c r="E1" t="s">
-        <v>566</v>
+        <v>775</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>527</v>
+        <v>736</v>
       </c>
       <c r="B2" t="s">
-        <v>546</v>
+        <v>755</v>
       </c>
       <c r="C2">
         <v>2000</v>
@@ -1796,10 +2423,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>527</v>
+        <v>736</v>
       </c>
       <c r="B3" t="s">
-        <v>546</v>
+        <v>755</v>
       </c>
       <c r="C3">
         <v>2001</v>
@@ -1813,10 +2440,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>527</v>
+        <v>736</v>
       </c>
       <c r="B4" t="s">
-        <v>546</v>
+        <v>755</v>
       </c>
       <c r="C4">
         <v>2002</v>
@@ -1830,10 +2457,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>527</v>
+        <v>736</v>
       </c>
       <c r="B5" t="s">
-        <v>546</v>
+        <v>755</v>
       </c>
       <c r="C5">
         <v>2003</v>
@@ -1847,10 +2474,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>527</v>
+        <v>736</v>
       </c>
       <c r="B6" t="s">
-        <v>546</v>
+        <v>755</v>
       </c>
       <c r="C6">
         <v>2004</v>
@@ -1864,10 +2491,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>527</v>
+        <v>736</v>
       </c>
       <c r="B7" t="s">
-        <v>546</v>
+        <v>755</v>
       </c>
       <c r="C7">
         <v>2005</v>
@@ -1881,10 +2508,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>527</v>
+        <v>736</v>
       </c>
       <c r="B8" t="s">
-        <v>546</v>
+        <v>755</v>
       </c>
       <c r="C8">
         <v>2006</v>
@@ -1898,10 +2525,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>527</v>
+        <v>736</v>
       </c>
       <c r="B9" t="s">
-        <v>546</v>
+        <v>755</v>
       </c>
       <c r="C9">
         <v>2007</v>
@@ -1915,10 +2542,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>527</v>
+        <v>736</v>
       </c>
       <c r="B10" t="s">
-        <v>546</v>
+        <v>755</v>
       </c>
       <c r="C10">
         <v>2008</v>
@@ -1932,10 +2559,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>527</v>
+        <v>736</v>
       </c>
       <c r="B11" t="s">
-        <v>546</v>
+        <v>755</v>
       </c>
       <c r="C11">
         <v>2009</v>
@@ -1949,10 +2576,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>527</v>
+        <v>736</v>
       </c>
       <c r="B12" t="s">
-        <v>546</v>
+        <v>755</v>
       </c>
       <c r="C12">
         <v>2010</v>
@@ -1966,10 +2593,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>527</v>
+        <v>736</v>
       </c>
       <c r="B13" t="s">
-        <v>546</v>
+        <v>755</v>
       </c>
       <c r="C13">
         <v>2011</v>
@@ -1983,10 +2610,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>527</v>
+        <v>736</v>
       </c>
       <c r="B14" t="s">
-        <v>546</v>
+        <v>755</v>
       </c>
       <c r="C14">
         <v>2012</v>
@@ -2000,10 +2627,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>527</v>
+        <v>736</v>
       </c>
       <c r="B15" t="s">
-        <v>546</v>
+        <v>755</v>
       </c>
       <c r="C15">
         <v>2013</v>
@@ -2017,10 +2644,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>527</v>
+        <v>736</v>
       </c>
       <c r="B16" t="s">
-        <v>546</v>
+        <v>755</v>
       </c>
       <c r="C16">
         <v>2014</v>
@@ -2034,10 +2661,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>527</v>
+        <v>736</v>
       </c>
       <c r="B17" t="s">
-        <v>546</v>
+        <v>755</v>
       </c>
       <c r="C17">
         <v>2015</v>
@@ -2051,10 +2678,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>527</v>
+        <v>736</v>
       </c>
       <c r="B18" t="s">
-        <v>546</v>
+        <v>755</v>
       </c>
       <c r="C18">
         <v>2016</v>
@@ -2068,10 +2695,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>527</v>
+        <v>736</v>
       </c>
       <c r="B19" t="s">
-        <v>546</v>
+        <v>755</v>
       </c>
       <c r="C19">
         <v>2017</v>
@@ -2085,10 +2712,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>527</v>
+        <v>736</v>
       </c>
       <c r="B20" t="s">
-        <v>546</v>
+        <v>755</v>
       </c>
       <c r="C20">
         <v>2018</v>
@@ -2102,10 +2729,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>527</v>
+        <v>736</v>
       </c>
       <c r="B21" t="s">
-        <v>546</v>
+        <v>755</v>
       </c>
       <c r="C21">
         <v>2019</v>
@@ -2119,10 +2746,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>527</v>
+        <v>736</v>
       </c>
       <c r="B22" t="s">
-        <v>546</v>
+        <v>755</v>
       </c>
       <c r="C22">
         <v>2020</v>
@@ -2136,10 +2763,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>527</v>
+        <v>736</v>
       </c>
       <c r="B23" t="s">
-        <v>546</v>
+        <v>755</v>
       </c>
       <c r="C23">
         <v>2021</v>
@@ -2153,10 +2780,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>527</v>
+        <v>736</v>
       </c>
       <c r="B24" t="s">
-        <v>546</v>
+        <v>755</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -2170,10 +2797,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>527</v>
+        <v>736</v>
       </c>
       <c r="B25" t="s">
-        <v>546</v>
+        <v>755</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -2187,10 +2814,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>527</v>
+        <v>736</v>
       </c>
       <c r="B26" t="s">
-        <v>546</v>
+        <v>755</v>
       </c>
       <c r="C26">
         <v>2024</v>
@@ -2204,10 +2831,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>528</v>
+        <v>737</v>
       </c>
       <c r="B27" t="s">
-        <v>547</v>
+        <v>756</v>
       </c>
       <c r="C27">
         <v>2000</v>
@@ -2221,10 +2848,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>528</v>
+        <v>737</v>
       </c>
       <c r="B28" t="s">
-        <v>547</v>
+        <v>756</v>
       </c>
       <c r="C28">
         <v>2001</v>
@@ -2238,10 +2865,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>528</v>
+        <v>737</v>
       </c>
       <c r="B29" t="s">
-        <v>547</v>
+        <v>756</v>
       </c>
       <c r="C29">
         <v>2002</v>
@@ -2255,10 +2882,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>528</v>
+        <v>737</v>
       </c>
       <c r="B30" t="s">
-        <v>547</v>
+        <v>756</v>
       </c>
       <c r="C30">
         <v>2003</v>
@@ -2272,10 +2899,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>528</v>
+        <v>737</v>
       </c>
       <c r="B31" t="s">
-        <v>547</v>
+        <v>756</v>
       </c>
       <c r="C31">
         <v>2004</v>
@@ -2289,10 +2916,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>528</v>
+        <v>737</v>
       </c>
       <c r="B32" t="s">
-        <v>547</v>
+        <v>756</v>
       </c>
       <c r="C32">
         <v>2005</v>
@@ -2306,10 +2933,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>528</v>
+        <v>737</v>
       </c>
       <c r="B33" t="s">
-        <v>547</v>
+        <v>756</v>
       </c>
       <c r="C33">
         <v>2006</v>
@@ -2323,10 +2950,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>528</v>
+        <v>737</v>
       </c>
       <c r="B34" t="s">
-        <v>547</v>
+        <v>756</v>
       </c>
       <c r="C34">
         <v>2007</v>
@@ -2340,10 +2967,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>528</v>
+        <v>737</v>
       </c>
       <c r="B35" t="s">
-        <v>547</v>
+        <v>756</v>
       </c>
       <c r="C35">
         <v>2008</v>
@@ -2357,10 +2984,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>528</v>
+        <v>737</v>
       </c>
       <c r="B36" t="s">
-        <v>547</v>
+        <v>756</v>
       </c>
       <c r="C36">
         <v>2009</v>
@@ -2374,10 +3001,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>528</v>
+        <v>737</v>
       </c>
       <c r="B37" t="s">
-        <v>547</v>
+        <v>756</v>
       </c>
       <c r="C37">
         <v>2010</v>
@@ -2391,10 +3018,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>528</v>
+        <v>737</v>
       </c>
       <c r="B38" t="s">
-        <v>547</v>
+        <v>756</v>
       </c>
       <c r="C38">
         <v>2011</v>
@@ -2408,10 +3035,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>528</v>
+        <v>737</v>
       </c>
       <c r="B39" t="s">
-        <v>547</v>
+        <v>756</v>
       </c>
       <c r="C39">
         <v>2012</v>
@@ -2425,10 +3052,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>528</v>
+        <v>737</v>
       </c>
       <c r="B40" t="s">
-        <v>547</v>
+        <v>756</v>
       </c>
       <c r="C40">
         <v>2013</v>
@@ -2442,10 +3069,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>528</v>
+        <v>737</v>
       </c>
       <c r="B41" t="s">
-        <v>547</v>
+        <v>756</v>
       </c>
       <c r="C41">
         <v>2014</v>
@@ -2459,10 +3086,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>528</v>
+        <v>737</v>
       </c>
       <c r="B42" t="s">
-        <v>547</v>
+        <v>756</v>
       </c>
       <c r="C42">
         <v>2015</v>
@@ -2476,10 +3103,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>528</v>
+        <v>737</v>
       </c>
       <c r="B43" t="s">
-        <v>547</v>
+        <v>756</v>
       </c>
       <c r="C43">
         <v>2016</v>
@@ -2493,10 +3120,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>528</v>
+        <v>737</v>
       </c>
       <c r="B44" t="s">
-        <v>547</v>
+        <v>756</v>
       </c>
       <c r="C44">
         <v>2017</v>
@@ -2510,10 +3137,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>528</v>
+        <v>737</v>
       </c>
       <c r="B45" t="s">
-        <v>547</v>
+        <v>756</v>
       </c>
       <c r="C45">
         <v>2018</v>
@@ -2527,10 +3154,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>528</v>
+        <v>737</v>
       </c>
       <c r="B46" t="s">
-        <v>547</v>
+        <v>756</v>
       </c>
       <c r="C46">
         <v>2019</v>
@@ -2544,10 +3171,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>528</v>
+        <v>737</v>
       </c>
       <c r="B47" t="s">
-        <v>547</v>
+        <v>756</v>
       </c>
       <c r="C47">
         <v>2020</v>
@@ -2561,10 +3188,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>528</v>
+        <v>737</v>
       </c>
       <c r="B48" t="s">
-        <v>547</v>
+        <v>756</v>
       </c>
       <c r="C48">
         <v>2021</v>
@@ -2578,10 +3205,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>528</v>
+        <v>737</v>
       </c>
       <c r="B49" t="s">
-        <v>547</v>
+        <v>756</v>
       </c>
       <c r="C49">
         <v>2022</v>
@@ -2595,10 +3222,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>528</v>
+        <v>737</v>
       </c>
       <c r="B50" t="s">
-        <v>547</v>
+        <v>756</v>
       </c>
       <c r="C50">
         <v>2023</v>
@@ -2612,10 +3239,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>528</v>
+        <v>737</v>
       </c>
       <c r="B51" t="s">
-        <v>547</v>
+        <v>756</v>
       </c>
       <c r="C51">
         <v>2024</v>
@@ -2629,10 +3256,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>529</v>
+        <v>738</v>
       </c>
       <c r="B52" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="C52">
         <v>2000</v>
@@ -2646,10 +3273,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>529</v>
+        <v>738</v>
       </c>
       <c r="B53" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="C53">
         <v>2001</v>
@@ -2663,10 +3290,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>529</v>
+        <v>738</v>
       </c>
       <c r="B54" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="C54">
         <v>2002</v>
@@ -2680,10 +3307,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>529</v>
+        <v>738</v>
       </c>
       <c r="B55" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="C55">
         <v>2003</v>
@@ -2697,10 +3324,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>529</v>
+        <v>738</v>
       </c>
       <c r="B56" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="C56">
         <v>2004</v>
@@ -2714,10 +3341,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>529</v>
+        <v>738</v>
       </c>
       <c r="B57" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="C57">
         <v>2005</v>
@@ -2731,10 +3358,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>529</v>
+        <v>738</v>
       </c>
       <c r="B58" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="C58">
         <v>2006</v>
@@ -2748,10 +3375,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>529</v>
+        <v>738</v>
       </c>
       <c r="B59" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="C59">
         <v>2007</v>
@@ -2765,10 +3392,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>529</v>
+        <v>738</v>
       </c>
       <c r="B60" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="C60">
         <v>2008</v>
@@ -2782,10 +3409,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>529</v>
+        <v>738</v>
       </c>
       <c r="B61" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="C61">
         <v>2009</v>
@@ -2799,10 +3426,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>529</v>
+        <v>738</v>
       </c>
       <c r="B62" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="C62">
         <v>2010</v>
@@ -2816,10 +3443,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>529</v>
+        <v>738</v>
       </c>
       <c r="B63" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="C63">
         <v>2011</v>
@@ -2833,10 +3460,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>529</v>
+        <v>738</v>
       </c>
       <c r="B64" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="C64">
         <v>2012</v>
@@ -2850,10 +3477,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>529</v>
+        <v>738</v>
       </c>
       <c r="B65" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="C65">
         <v>2013</v>
@@ -2867,10 +3494,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>529</v>
+        <v>738</v>
       </c>
       <c r="B66" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="C66">
         <v>2014</v>
@@ -2884,10 +3511,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>529</v>
+        <v>738</v>
       </c>
       <c r="B67" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="C67">
         <v>2015</v>
@@ -2901,10 +3528,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>529</v>
+        <v>738</v>
       </c>
       <c r="B68" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="C68">
         <v>2016</v>
@@ -2918,10 +3545,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>529</v>
+        <v>738</v>
       </c>
       <c r="B69" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="C69">
         <v>2017</v>
@@ -2935,10 +3562,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>529</v>
+        <v>738</v>
       </c>
       <c r="B70" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="C70">
         <v>2018</v>
@@ -2952,10 +3579,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>529</v>
+        <v>738</v>
       </c>
       <c r="B71" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="C71">
         <v>2019</v>
@@ -2969,10 +3596,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>529</v>
+        <v>738</v>
       </c>
       <c r="B72" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="C72">
         <v>2020</v>
@@ -2986,10 +3613,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>529</v>
+        <v>738</v>
       </c>
       <c r="B73" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="C73">
         <v>2021</v>
@@ -3003,10 +3630,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>529</v>
+        <v>738</v>
       </c>
       <c r="B74" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="C74">
         <v>2022</v>
@@ -3020,10 +3647,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>529</v>
+        <v>738</v>
       </c>
       <c r="B75" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="C75">
         <v>2023</v>
@@ -3037,10 +3664,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>529</v>
+        <v>738</v>
       </c>
       <c r="B76" t="s">
-        <v>548</v>
+        <v>757</v>
       </c>
       <c r="C76">
         <v>2024</v>
@@ -3054,10 +3681,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>530</v>
+        <v>739</v>
       </c>
       <c r="B77" t="s">
-        <v>549</v>
+        <v>758</v>
       </c>
       <c r="C77">
         <v>2000</v>
@@ -3071,10 +3698,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>530</v>
+        <v>739</v>
       </c>
       <c r="B78" t="s">
-        <v>549</v>
+        <v>758</v>
       </c>
       <c r="C78">
         <v>2001</v>
@@ -3088,10 +3715,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>530</v>
+        <v>739</v>
       </c>
       <c r="B79" t="s">
-        <v>549</v>
+        <v>758</v>
       </c>
       <c r="C79">
         <v>2002</v>
@@ -3105,10 +3732,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>530</v>
+        <v>739</v>
       </c>
       <c r="B80" t="s">
-        <v>549</v>
+        <v>758</v>
       </c>
       <c r="C80">
         <v>2003</v>
@@ -3122,10 +3749,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>530</v>
+        <v>739</v>
       </c>
       <c r="B81" t="s">
-        <v>549</v>
+        <v>758</v>
       </c>
       <c r="C81">
         <v>2004</v>
@@ -3139,10 +3766,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>530</v>
+        <v>739</v>
       </c>
       <c r="B82" t="s">
-        <v>549</v>
+        <v>758</v>
       </c>
       <c r="C82">
         <v>2005</v>
@@ -3156,10 +3783,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>530</v>
+        <v>739</v>
       </c>
       <c r="B83" t="s">
-        <v>549</v>
+        <v>758</v>
       </c>
       <c r="C83">
         <v>2006</v>
@@ -3173,10 +3800,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>530</v>
+        <v>739</v>
       </c>
       <c r="B84" t="s">
-        <v>549</v>
+        <v>758</v>
       </c>
       <c r="C84">
         <v>2007</v>
@@ -3190,10 +3817,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>530</v>
+        <v>739</v>
       </c>
       <c r="B85" t="s">
-        <v>549</v>
+        <v>758</v>
       </c>
       <c r="C85">
         <v>2008</v>
@@ -3207,10 +3834,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>530</v>
+        <v>739</v>
       </c>
       <c r="B86" t="s">
-        <v>549</v>
+        <v>758</v>
       </c>
       <c r="C86">
         <v>2009</v>
@@ -3224,10 +3851,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>530</v>
+        <v>739</v>
       </c>
       <c r="B87" t="s">
-        <v>549</v>
+        <v>758</v>
       </c>
       <c r="C87">
         <v>2010</v>
@@ -3241,10 +3868,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>530</v>
+        <v>739</v>
       </c>
       <c r="B88" t="s">
-        <v>549</v>
+        <v>758</v>
       </c>
       <c r="C88">
         <v>2011</v>
@@ -3258,10 +3885,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>530</v>
+        <v>739</v>
       </c>
       <c r="B89" t="s">
-        <v>549</v>
+        <v>758</v>
       </c>
       <c r="C89">
         <v>2012</v>
@@ -3275,10 +3902,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>530</v>
+        <v>739</v>
       </c>
       <c r="B90" t="s">
-        <v>549</v>
+        <v>758</v>
       </c>
       <c r="C90">
         <v>2013</v>
@@ -3292,10 +3919,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>530</v>
+        <v>739</v>
       </c>
       <c r="B91" t="s">
-        <v>549</v>
+        <v>758</v>
       </c>
       <c r="C91">
         <v>2014</v>
@@ -3309,10 +3936,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>530</v>
+        <v>739</v>
       </c>
       <c r="B92" t="s">
-        <v>549</v>
+        <v>758</v>
       </c>
       <c r="C92">
         <v>2015</v>
@@ -3326,10 +3953,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>530</v>
+        <v>739</v>
       </c>
       <c r="B93" t="s">
-        <v>549</v>
+        <v>758</v>
       </c>
       <c r="C93">
         <v>2016</v>
@@ -3343,10 +3970,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>530</v>
+        <v>739</v>
       </c>
       <c r="B94" t="s">
-        <v>549</v>
+        <v>758</v>
       </c>
       <c r="C94">
         <v>2017</v>
@@ -3360,10 +3987,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>530</v>
+        <v>739</v>
       </c>
       <c r="B95" t="s">
-        <v>549</v>
+        <v>758</v>
       </c>
       <c r="C95">
         <v>2018</v>
@@ -3377,10 +4004,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>530</v>
+        <v>739</v>
       </c>
       <c r="B96" t="s">
-        <v>549</v>
+        <v>758</v>
       </c>
       <c r="C96">
         <v>2019</v>
@@ -3394,10 +4021,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>530</v>
+        <v>739</v>
       </c>
       <c r="B97" t="s">
-        <v>549</v>
+        <v>758</v>
       </c>
       <c r="C97">
         <v>2020</v>
@@ -3411,10 +4038,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>530</v>
+        <v>739</v>
       </c>
       <c r="B98" t="s">
-        <v>549</v>
+        <v>758</v>
       </c>
       <c r="C98">
         <v>2021</v>
@@ -3428,10 +4055,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>530</v>
+        <v>739</v>
       </c>
       <c r="B99" t="s">
-        <v>549</v>
+        <v>758</v>
       </c>
       <c r="C99">
         <v>2022</v>
@@ -3445,10 +4072,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>530</v>
+        <v>739</v>
       </c>
       <c r="B100" t="s">
-        <v>549</v>
+        <v>758</v>
       </c>
       <c r="C100">
         <v>2023</v>
@@ -3462,10 +4089,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>530</v>
+        <v>739</v>
       </c>
       <c r="B101" t="s">
-        <v>549</v>
+        <v>758</v>
       </c>
       <c r="C101">
         <v>2024</v>
@@ -3479,10 +4106,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>531</v>
+        <v>740</v>
       </c>
       <c r="B102" t="s">
-        <v>550</v>
+        <v>759</v>
       </c>
       <c r="C102">
         <v>2000</v>
@@ -3496,10 +4123,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>531</v>
+        <v>740</v>
       </c>
       <c r="B103" t="s">
-        <v>550</v>
+        <v>759</v>
       </c>
       <c r="C103">
         <v>2001</v>
@@ -3513,10 +4140,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>531</v>
+        <v>740</v>
       </c>
       <c r="B104" t="s">
-        <v>550</v>
+        <v>759</v>
       </c>
       <c r="C104">
         <v>2002</v>
@@ -3530,10 +4157,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>531</v>
+        <v>740</v>
       </c>
       <c r="B105" t="s">
-        <v>550</v>
+        <v>759</v>
       </c>
       <c r="C105">
         <v>2003</v>
@@ -3547,10 +4174,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>531</v>
+        <v>740</v>
       </c>
       <c r="B106" t="s">
-        <v>550</v>
+        <v>759</v>
       </c>
       <c r="C106">
         <v>2004</v>
@@ -3564,10 +4191,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>531</v>
+        <v>740</v>
       </c>
       <c r="B107" t="s">
-        <v>550</v>
+        <v>759</v>
       </c>
       <c r="C107">
         <v>2005</v>
@@ -3581,10 +4208,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>531</v>
+        <v>740</v>
       </c>
       <c r="B108" t="s">
-        <v>550</v>
+        <v>759</v>
       </c>
       <c r="C108">
         <v>2006</v>
@@ -3598,10 +4225,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>531</v>
+        <v>740</v>
       </c>
       <c r="B109" t="s">
-        <v>550</v>
+        <v>759</v>
       </c>
       <c r="C109">
         <v>2007</v>
@@ -3615,10 +4242,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>531</v>
+        <v>740</v>
       </c>
       <c r="B110" t="s">
-        <v>550</v>
+        <v>759</v>
       </c>
       <c r="C110">
         <v>2008</v>
@@ -3632,10 +4259,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>531</v>
+        <v>740</v>
       </c>
       <c r="B111" t="s">
-        <v>550</v>
+        <v>759</v>
       </c>
       <c r="C111">
         <v>2009</v>
@@ -3649,10 +4276,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>531</v>
+        <v>740</v>
       </c>
       <c r="B112" t="s">
-        <v>550</v>
+        <v>759</v>
       </c>
       <c r="C112">
         <v>2010</v>
@@ -3666,10 +4293,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>531</v>
+        <v>740</v>
       </c>
       <c r="B113" t="s">
-        <v>550</v>
+        <v>759</v>
       </c>
       <c r="C113">
         <v>2011</v>
@@ -3683,10 +4310,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>531</v>
+        <v>740</v>
       </c>
       <c r="B114" t="s">
-        <v>550</v>
+        <v>759</v>
       </c>
       <c r="C114">
         <v>2012</v>
@@ -3700,10 +4327,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>531</v>
+        <v>740</v>
       </c>
       <c r="B115" t="s">
-        <v>550</v>
+        <v>759</v>
       </c>
       <c r="C115">
         <v>2013</v>
@@ -3717,10 +4344,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>531</v>
+        <v>740</v>
       </c>
       <c r="B116" t="s">
-        <v>550</v>
+        <v>759</v>
       </c>
       <c r="C116">
         <v>2014</v>
@@ -3734,10 +4361,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>531</v>
+        <v>740</v>
       </c>
       <c r="B117" t="s">
-        <v>550</v>
+        <v>759</v>
       </c>
       <c r="C117">
         <v>2015</v>
@@ -3751,10 +4378,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>531</v>
+        <v>740</v>
       </c>
       <c r="B118" t="s">
-        <v>550</v>
+        <v>759</v>
       </c>
       <c r="C118">
         <v>2016</v>
@@ -3768,10 +4395,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>531</v>
+        <v>740</v>
       </c>
       <c r="B119" t="s">
-        <v>550</v>
+        <v>759</v>
       </c>
       <c r="C119">
         <v>2017</v>
@@ -3785,10 +4412,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>531</v>
+        <v>740</v>
       </c>
       <c r="B120" t="s">
-        <v>550</v>
+        <v>759</v>
       </c>
       <c r="C120">
         <v>2018</v>
@@ -3802,10 +4429,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>531</v>
+        <v>740</v>
       </c>
       <c r="B121" t="s">
-        <v>550</v>
+        <v>759</v>
       </c>
       <c r="C121">
         <v>2019</v>
@@ -3819,10 +4446,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>531</v>
+        <v>740</v>
       </c>
       <c r="B122" t="s">
-        <v>550</v>
+        <v>759</v>
       </c>
       <c r="C122">
         <v>2020</v>
@@ -3836,10 +4463,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>531</v>
+        <v>740</v>
       </c>
       <c r="B123" t="s">
-        <v>550</v>
+        <v>759</v>
       </c>
       <c r="C123">
         <v>2021</v>
@@ -3853,10 +4480,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>531</v>
+        <v>740</v>
       </c>
       <c r="B124" t="s">
-        <v>550</v>
+        <v>759</v>
       </c>
       <c r="C124">
         <v>2022</v>
@@ -3870,10 +4497,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>531</v>
+        <v>740</v>
       </c>
       <c r="B125" t="s">
-        <v>550</v>
+        <v>759</v>
       </c>
       <c r="C125">
         <v>2023</v>
@@ -3887,10 +4514,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>531</v>
+        <v>740</v>
       </c>
       <c r="B126" t="s">
-        <v>550</v>
+        <v>759</v>
       </c>
       <c r="C126">
         <v>2024</v>
@@ -3904,10 +4531,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>532</v>
+        <v>741</v>
       </c>
       <c r="B127" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="C127">
         <v>2000</v>
@@ -3921,10 +4548,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>532</v>
+        <v>741</v>
       </c>
       <c r="B128" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="C128">
         <v>2001</v>
@@ -3938,10 +4565,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>532</v>
+        <v>741</v>
       </c>
       <c r="B129" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="C129">
         <v>2002</v>
@@ -3955,10 +4582,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>532</v>
+        <v>741</v>
       </c>
       <c r="B130" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="C130">
         <v>2003</v>
@@ -3972,10 +4599,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>532</v>
+        <v>741</v>
       </c>
       <c r="B131" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="C131">
         <v>2004</v>
@@ -3989,10 +4616,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>532</v>
+        <v>741</v>
       </c>
       <c r="B132" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="C132">
         <v>2005</v>
@@ -4006,10 +4633,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>532</v>
+        <v>741</v>
       </c>
       <c r="B133" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="C133">
         <v>2006</v>
@@ -4023,10 +4650,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>532</v>
+        <v>741</v>
       </c>
       <c r="B134" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="C134">
         <v>2007</v>
@@ -4040,10 +4667,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>532</v>
+        <v>741</v>
       </c>
       <c r="B135" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="C135">
         <v>2008</v>
@@ -4057,10 +4684,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>532</v>
+        <v>741</v>
       </c>
       <c r="B136" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="C136">
         <v>2009</v>
@@ -4074,10 +4701,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>532</v>
+        <v>741</v>
       </c>
       <c r="B137" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="C137">
         <v>2010</v>
@@ -4091,10 +4718,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>532</v>
+        <v>741</v>
       </c>
       <c r="B138" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="C138">
         <v>2011</v>
@@ -4108,10 +4735,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>532</v>
+        <v>741</v>
       </c>
       <c r="B139" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="C139">
         <v>2012</v>
@@ -4125,10 +4752,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>532</v>
+        <v>741</v>
       </c>
       <c r="B140" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="C140">
         <v>2013</v>
@@ -4142,10 +4769,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>532</v>
+        <v>741</v>
       </c>
       <c r="B141" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="C141">
         <v>2014</v>
@@ -4159,10 +4786,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>532</v>
+        <v>741</v>
       </c>
       <c r="B142" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="C142">
         <v>2015</v>
@@ -4176,10 +4803,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>532</v>
+        <v>741</v>
       </c>
       <c r="B143" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="C143">
         <v>2016</v>
@@ -4193,10 +4820,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>532</v>
+        <v>741</v>
       </c>
       <c r="B144" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="C144">
         <v>2017</v>
@@ -4210,10 +4837,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>532</v>
+        <v>741</v>
       </c>
       <c r="B145" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="C145">
         <v>2018</v>
@@ -4227,10 +4854,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>532</v>
+        <v>741</v>
       </c>
       <c r="B146" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="C146">
         <v>2019</v>
@@ -4244,10 +4871,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>532</v>
+        <v>741</v>
       </c>
       <c r="B147" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="C147">
         <v>2020</v>
@@ -4261,10 +4888,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>532</v>
+        <v>741</v>
       </c>
       <c r="B148" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="C148">
         <v>2021</v>
@@ -4278,10 +4905,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>532</v>
+        <v>741</v>
       </c>
       <c r="B149" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="C149">
         <v>2022</v>
@@ -4295,10 +4922,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>532</v>
+        <v>741</v>
       </c>
       <c r="B150" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="C150">
         <v>2023</v>
@@ -4312,10 +4939,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>532</v>
+        <v>741</v>
       </c>
       <c r="B151" t="s">
-        <v>551</v>
+        <v>760</v>
       </c>
       <c r="C151">
         <v>2024</v>
@@ -4329,10 +4956,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>533</v>
+        <v>742</v>
       </c>
       <c r="B152" t="s">
-        <v>552</v>
+        <v>761</v>
       </c>
       <c r="C152">
         <v>2000</v>
@@ -4346,10 +4973,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>533</v>
+        <v>742</v>
       </c>
       <c r="B153" t="s">
-        <v>552</v>
+        <v>761</v>
       </c>
       <c r="C153">
         <v>2001</v>
@@ -4363,10 +4990,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>533</v>
+        <v>742</v>
       </c>
       <c r="B154" t="s">
-        <v>552</v>
+        <v>761</v>
       </c>
       <c r="C154">
         <v>2002</v>
@@ -4380,10 +5007,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>533</v>
+        <v>742</v>
       </c>
       <c r="B155" t="s">
-        <v>552</v>
+        <v>761</v>
       </c>
       <c r="C155">
         <v>2003</v>
@@ -4397,10 +5024,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>533</v>
+        <v>742</v>
       </c>
       <c r="B156" t="s">
-        <v>552</v>
+        <v>761</v>
       </c>
       <c r="C156">
         <v>2004</v>
@@ -4414,10 +5041,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>533</v>
+        <v>742</v>
       </c>
       <c r="B157" t="s">
-        <v>552</v>
+        <v>761</v>
       </c>
       <c r="C157">
         <v>2005</v>
@@ -4431,10 +5058,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>533</v>
+        <v>742</v>
       </c>
       <c r="B158" t="s">
-        <v>552</v>
+        <v>761</v>
       </c>
       <c r="C158">
         <v>2006</v>
@@ -4448,10 +5075,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>533</v>
+        <v>742</v>
       </c>
       <c r="B159" t="s">
-        <v>552</v>
+        <v>761</v>
       </c>
       <c r="C159">
         <v>2007</v>
@@ -4465,10 +5092,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>533</v>
+        <v>742</v>
       </c>
       <c r="B160" t="s">
-        <v>552</v>
+        <v>761</v>
       </c>
       <c r="C160">
         <v>2008</v>
@@ -4482,10 +5109,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>533</v>
+        <v>742</v>
       </c>
       <c r="B161" t="s">
-        <v>552</v>
+        <v>761</v>
       </c>
       <c r="C161">
         <v>2009</v>
@@ -4499,10 +5126,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>533</v>
+        <v>742</v>
       </c>
       <c r="B162" t="s">
-        <v>552</v>
+        <v>761</v>
       </c>
       <c r="C162">
         <v>2010</v>
@@ -4516,10 +5143,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>533</v>
+        <v>742</v>
       </c>
       <c r="B163" t="s">
-        <v>552</v>
+        <v>761</v>
       </c>
       <c r="C163">
         <v>2011</v>
@@ -4533,10 +5160,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>533</v>
+        <v>742</v>
       </c>
       <c r="B164" t="s">
-        <v>552</v>
+        <v>761</v>
       </c>
       <c r="C164">
         <v>2012</v>
@@ -4550,10 +5177,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>533</v>
+        <v>742</v>
       </c>
       <c r="B165" t="s">
-        <v>552</v>
+        <v>761</v>
       </c>
       <c r="C165">
         <v>2013</v>
@@ -4567,10 +5194,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>533</v>
+        <v>742</v>
       </c>
       <c r="B166" t="s">
-        <v>552</v>
+        <v>761</v>
       </c>
       <c r="C166">
         <v>2014</v>
@@ -4584,10 +5211,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>533</v>
+        <v>742</v>
       </c>
       <c r="B167" t="s">
-        <v>552</v>
+        <v>761</v>
       </c>
       <c r="C167">
         <v>2015</v>
@@ -4601,10 +5228,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>533</v>
+        <v>742</v>
       </c>
       <c r="B168" t="s">
-        <v>552</v>
+        <v>761</v>
       </c>
       <c r="C168">
         <v>2016</v>
@@ -4618,10 +5245,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>533</v>
+        <v>742</v>
       </c>
       <c r="B169" t="s">
-        <v>552</v>
+        <v>761</v>
       </c>
       <c r="C169">
         <v>2017</v>
@@ -4635,10 +5262,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>533</v>
+        <v>742</v>
       </c>
       <c r="B170" t="s">
-        <v>552</v>
+        <v>761</v>
       </c>
       <c r="C170">
         <v>2018</v>
@@ -4652,10 +5279,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>533</v>
+        <v>742</v>
       </c>
       <c r="B171" t="s">
-        <v>552</v>
+        <v>761</v>
       </c>
       <c r="C171">
         <v>2019</v>
@@ -4669,10 +5296,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>533</v>
+        <v>742</v>
       </c>
       <c r="B172" t="s">
-        <v>552</v>
+        <v>761</v>
       </c>
       <c r="C172">
         <v>2020</v>
@@ -4686,10 +5313,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>533</v>
+        <v>742</v>
       </c>
       <c r="B173" t="s">
-        <v>552</v>
+        <v>761</v>
       </c>
       <c r="C173">
         <v>2021</v>
@@ -4703,10 +5330,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>533</v>
+        <v>742</v>
       </c>
       <c r="B174" t="s">
-        <v>552</v>
+        <v>761</v>
       </c>
       <c r="C174">
         <v>2022</v>
@@ -4720,10 +5347,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>533</v>
+        <v>742</v>
       </c>
       <c r="B175" t="s">
-        <v>552</v>
+        <v>761</v>
       </c>
       <c r="C175">
         <v>2023</v>
@@ -4737,10 +5364,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>533</v>
+        <v>742</v>
       </c>
       <c r="B176" t="s">
-        <v>552</v>
+        <v>761</v>
       </c>
       <c r="C176">
         <v>2024</v>
@@ -4754,10 +5381,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>534</v>
+        <v>743</v>
       </c>
       <c r="B177" t="s">
-        <v>553</v>
+        <v>762</v>
       </c>
       <c r="C177">
         <v>2000</v>
@@ -4771,10 +5398,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>534</v>
+        <v>743</v>
       </c>
       <c r="B178" t="s">
-        <v>553</v>
+        <v>762</v>
       </c>
       <c r="C178">
         <v>2001</v>
@@ -4788,10 +5415,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>534</v>
+        <v>743</v>
       </c>
       <c r="B179" t="s">
-        <v>553</v>
+        <v>762</v>
       </c>
       <c r="C179">
         <v>2002</v>
@@ -4805,10 +5432,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>534</v>
+        <v>743</v>
       </c>
       <c r="B180" t="s">
-        <v>553</v>
+        <v>762</v>
       </c>
       <c r="C180">
         <v>2003</v>
@@ -4822,10 +5449,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>534</v>
+        <v>743</v>
       </c>
       <c r="B181" t="s">
-        <v>553</v>
+        <v>762</v>
       </c>
       <c r="C181">
         <v>2004</v>
@@ -4839,10 +5466,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>534</v>
+        <v>743</v>
       </c>
       <c r="B182" t="s">
-        <v>553</v>
+        <v>762</v>
       </c>
       <c r="C182">
         <v>2005</v>
@@ -4856,10 +5483,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>534</v>
+        <v>743</v>
       </c>
       <c r="B183" t="s">
-        <v>553</v>
+        <v>762</v>
       </c>
       <c r="C183">
         <v>2006</v>
@@ -4873,10 +5500,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>534</v>
+        <v>743</v>
       </c>
       <c r="B184" t="s">
-        <v>553</v>
+        <v>762</v>
       </c>
       <c r="C184">
         <v>2007</v>
@@ -4890,10 +5517,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>534</v>
+        <v>743</v>
       </c>
       <c r="B185" t="s">
-        <v>553</v>
+        <v>762</v>
       </c>
       <c r="C185">
         <v>2008</v>
@@ -4907,10 +5534,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>534</v>
+        <v>743</v>
       </c>
       <c r="B186" t="s">
-        <v>553</v>
+        <v>762</v>
       </c>
       <c r="C186">
         <v>2009</v>
@@ -4924,10 +5551,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>534</v>
+        <v>743</v>
       </c>
       <c r="B187" t="s">
-        <v>553</v>
+        <v>762</v>
       </c>
       <c r="C187">
         <v>2010</v>
@@ -4941,10 +5568,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>534</v>
+        <v>743</v>
       </c>
       <c r="B188" t="s">
-        <v>553</v>
+        <v>762</v>
       </c>
       <c r="C188">
         <v>2011</v>
@@ -4958,10 +5585,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>534</v>
+        <v>743</v>
       </c>
       <c r="B189" t="s">
-        <v>553</v>
+        <v>762</v>
       </c>
       <c r="C189">
         <v>2012</v>
@@ -4975,10 +5602,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>534</v>
+        <v>743</v>
       </c>
       <c r="B190" t="s">
-        <v>553</v>
+        <v>762</v>
       </c>
       <c r="C190">
         <v>2013</v>
@@ -4992,10 +5619,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>534</v>
+        <v>743</v>
       </c>
       <c r="B191" t="s">
-        <v>553</v>
+        <v>762</v>
       </c>
       <c r="C191">
         <v>2014</v>
@@ -5009,10 +5636,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>534</v>
+        <v>743</v>
       </c>
       <c r="B192" t="s">
-        <v>553</v>
+        <v>762</v>
       </c>
       <c r="C192">
         <v>2015</v>
@@ -5026,10 +5653,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>534</v>
+        <v>743</v>
       </c>
       <c r="B193" t="s">
-        <v>553</v>
+        <v>762</v>
       </c>
       <c r="C193">
         <v>2016</v>
@@ -5043,10 +5670,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>534</v>
+        <v>743</v>
       </c>
       <c r="B194" t="s">
-        <v>553</v>
+        <v>762</v>
       </c>
       <c r="C194">
         <v>2017</v>
@@ -5060,10 +5687,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>534</v>
+        <v>743</v>
       </c>
       <c r="B195" t="s">
-        <v>553</v>
+        <v>762</v>
       </c>
       <c r="C195">
         <v>2018</v>
@@ -5077,10 +5704,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>534</v>
+        <v>743</v>
       </c>
       <c r="B196" t="s">
-        <v>553</v>
+        <v>762</v>
       </c>
       <c r="C196">
         <v>2019</v>
@@ -5094,10 +5721,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>534</v>
+        <v>743</v>
       </c>
       <c r="B197" t="s">
-        <v>553</v>
+        <v>762</v>
       </c>
       <c r="C197">
         <v>2020</v>
@@ -5111,10 +5738,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>534</v>
+        <v>743</v>
       </c>
       <c r="B198" t="s">
-        <v>553</v>
+        <v>762</v>
       </c>
       <c r="C198">
         <v>2021</v>
@@ -5128,10 +5755,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>534</v>
+        <v>743</v>
       </c>
       <c r="B199" t="s">
-        <v>553</v>
+        <v>762</v>
       </c>
       <c r="C199">
         <v>2022</v>
@@ -5145,10 +5772,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>534</v>
+        <v>743</v>
       </c>
       <c r="B200" t="s">
-        <v>553</v>
+        <v>762</v>
       </c>
       <c r="C200">
         <v>2023</v>
@@ -5162,10 +5789,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>534</v>
+        <v>743</v>
       </c>
       <c r="B201" t="s">
-        <v>553</v>
+        <v>762</v>
       </c>
       <c r="C201">
         <v>2024</v>
@@ -5179,10 +5806,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>535</v>
+        <v>744</v>
       </c>
       <c r="B202" t="s">
-        <v>554</v>
+        <v>763</v>
       </c>
       <c r="C202">
         <v>2000</v>
@@ -5196,10 +5823,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>535</v>
+        <v>744</v>
       </c>
       <c r="B203" t="s">
-        <v>554</v>
+        <v>763</v>
       </c>
       <c r="C203">
         <v>2001</v>
@@ -5213,10 +5840,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>535</v>
+        <v>744</v>
       </c>
       <c r="B204" t="s">
-        <v>554</v>
+        <v>763</v>
       </c>
       <c r="C204">
         <v>2002</v>
@@ -5230,10 +5857,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>535</v>
+        <v>744</v>
       </c>
       <c r="B205" t="s">
-        <v>554</v>
+        <v>763</v>
       </c>
       <c r="C205">
         <v>2003</v>
@@ -5247,10 +5874,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>535</v>
+        <v>744</v>
       </c>
       <c r="B206" t="s">
-        <v>554</v>
+        <v>763</v>
       </c>
       <c r="C206">
         <v>2004</v>
@@ -5264,10 +5891,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>535</v>
+        <v>744</v>
       </c>
       <c r="B207" t="s">
-        <v>554</v>
+        <v>763</v>
       </c>
       <c r="C207">
         <v>2005</v>
@@ -5281,10 +5908,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>535</v>
+        <v>744</v>
       </c>
       <c r="B208" t="s">
-        <v>554</v>
+        <v>763</v>
       </c>
       <c r="C208">
         <v>2006</v>
@@ -5298,10 +5925,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>535</v>
+        <v>744</v>
       </c>
       <c r="B209" t="s">
-        <v>554</v>
+        <v>763</v>
       </c>
       <c r="C209">
         <v>2007</v>
@@ -5315,10 +5942,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>535</v>
+        <v>744</v>
       </c>
       <c r="B210" t="s">
-        <v>554</v>
+        <v>763</v>
       </c>
       <c r="C210">
         <v>2008</v>
@@ -5332,10 +5959,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>535</v>
+        <v>744</v>
       </c>
       <c r="B211" t="s">
-        <v>554</v>
+        <v>763</v>
       </c>
       <c r="C211">
         <v>2009</v>
@@ -5349,10 +5976,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>535</v>
+        <v>744</v>
       </c>
       <c r="B212" t="s">
-        <v>554</v>
+        <v>763</v>
       </c>
       <c r="C212">
         <v>2010</v>
@@ -5366,10 +5993,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>535</v>
+        <v>744</v>
       </c>
       <c r="B213" t="s">
-        <v>554</v>
+        <v>763</v>
       </c>
       <c r="C213">
         <v>2011</v>
@@ -5383,10 +6010,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>535</v>
+        <v>744</v>
       </c>
       <c r="B214" t="s">
-        <v>554</v>
+        <v>763</v>
       </c>
       <c r="C214">
         <v>2012</v>
@@ -5400,10 +6027,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>535</v>
+        <v>744</v>
       </c>
       <c r="B215" t="s">
-        <v>554</v>
+        <v>763</v>
       </c>
       <c r="C215">
         <v>2013</v>
@@ -5417,10 +6044,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>535</v>
+        <v>744</v>
       </c>
       <c r="B216" t="s">
-        <v>554</v>
+        <v>763</v>
       </c>
       <c r="C216">
         <v>2014</v>
@@ -5434,10 +6061,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>535</v>
+        <v>744</v>
       </c>
       <c r="B217" t="s">
-        <v>554</v>
+        <v>763</v>
       </c>
       <c r="C217">
         <v>2015</v>
@@ -5451,10 +6078,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>535</v>
+        <v>744</v>
       </c>
       <c r="B218" t="s">
-        <v>554</v>
+        <v>763</v>
       </c>
       <c r="C218">
         <v>2016</v>
@@ -5468,10 +6095,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>535</v>
+        <v>744</v>
       </c>
       <c r="B219" t="s">
-        <v>554</v>
+        <v>763</v>
       </c>
       <c r="C219">
         <v>2017</v>
@@ -5485,10 +6112,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>535</v>
+        <v>744</v>
       </c>
       <c r="B220" t="s">
-        <v>554</v>
+        <v>763</v>
       </c>
       <c r="C220">
         <v>2018</v>
@@ -5502,10 +6129,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>535</v>
+        <v>744</v>
       </c>
       <c r="B221" t="s">
-        <v>554</v>
+        <v>763</v>
       </c>
       <c r="C221">
         <v>2019</v>
@@ -5519,10 +6146,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>535</v>
+        <v>744</v>
       </c>
       <c r="B222" t="s">
-        <v>554</v>
+        <v>763</v>
       </c>
       <c r="C222">
         <v>2020</v>
@@ -5536,10 +6163,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>535</v>
+        <v>744</v>
       </c>
       <c r="B223" t="s">
-        <v>554</v>
+        <v>763</v>
       </c>
       <c r="C223">
         <v>2021</v>
@@ -5553,10 +6180,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>535</v>
+        <v>744</v>
       </c>
       <c r="B224" t="s">
-        <v>554</v>
+        <v>763</v>
       </c>
       <c r="C224">
         <v>2022</v>
@@ -5570,10 +6197,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>535</v>
+        <v>744</v>
       </c>
       <c r="B225" t="s">
-        <v>554</v>
+        <v>763</v>
       </c>
       <c r="C225">
         <v>2023</v>
@@ -5587,10 +6214,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>535</v>
+        <v>744</v>
       </c>
       <c r="B226" t="s">
-        <v>554</v>
+        <v>763</v>
       </c>
       <c r="C226">
         <v>2024</v>
@@ -5604,10 +6231,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>536</v>
+        <v>745</v>
       </c>
       <c r="B227" t="s">
-        <v>555</v>
+        <v>764</v>
       </c>
       <c r="C227">
         <v>2000</v>
@@ -5621,10 +6248,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>536</v>
+        <v>745</v>
       </c>
       <c r="B228" t="s">
-        <v>555</v>
+        <v>764</v>
       </c>
       <c r="C228">
         <v>2001</v>
@@ -5638,10 +6265,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>536</v>
+        <v>745</v>
       </c>
       <c r="B229" t="s">
-        <v>555</v>
+        <v>764</v>
       </c>
       <c r="C229">
         <v>2002</v>
@@ -5655,10 +6282,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>536</v>
+        <v>745</v>
       </c>
       <c r="B230" t="s">
-        <v>555</v>
+        <v>764</v>
       </c>
       <c r="C230">
         <v>2003</v>
@@ -5672,10 +6299,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>536</v>
+        <v>745</v>
       </c>
       <c r="B231" t="s">
-        <v>555</v>
+        <v>764</v>
       </c>
       <c r="C231">
         <v>2004</v>
@@ -5689,10 +6316,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>536</v>
+        <v>745</v>
       </c>
       <c r="B232" t="s">
-        <v>555</v>
+        <v>764</v>
       </c>
       <c r="C232">
         <v>2005</v>
@@ -5706,10 +6333,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>536</v>
+        <v>745</v>
       </c>
       <c r="B233" t="s">
-        <v>555</v>
+        <v>764</v>
       </c>
       <c r="C233">
         <v>2006</v>
@@ -5723,10 +6350,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>536</v>
+        <v>745</v>
       </c>
       <c r="B234" t="s">
-        <v>555</v>
+        <v>764</v>
       </c>
       <c r="C234">
         <v>2007</v>
@@ -5740,10 +6367,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>536</v>
+        <v>745</v>
       </c>
       <c r="B235" t="s">
-        <v>555</v>
+        <v>764</v>
       </c>
       <c r="C235">
         <v>2008</v>
@@ -5757,10 +6384,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>536</v>
+        <v>745</v>
       </c>
       <c r="B236" t="s">
-        <v>555</v>
+        <v>764</v>
       </c>
       <c r="C236">
         <v>2009</v>
@@ -5774,10 +6401,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>536</v>
+        <v>745</v>
       </c>
       <c r="B237" t="s">
-        <v>555</v>
+        <v>764</v>
       </c>
       <c r="C237">
         <v>2010</v>
@@ -5791,10 +6418,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>536</v>
+        <v>745</v>
       </c>
       <c r="B238" t="s">
-        <v>555</v>
+        <v>764</v>
       </c>
       <c r="C238">
         <v>2011</v>
@@ -5808,10 +6435,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>536</v>
+        <v>745</v>
       </c>
       <c r="B239" t="s">
-        <v>555</v>
+        <v>764</v>
       </c>
       <c r="C239">
         <v>2012</v>
@@ -5825,10 +6452,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>536</v>
+        <v>745</v>
       </c>
       <c r="B240" t="s">
-        <v>555</v>
+        <v>764</v>
       </c>
       <c r="C240">
         <v>2013</v>
@@ -5842,10 +6469,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>536</v>
+        <v>745</v>
       </c>
       <c r="B241" t="s">
-        <v>555</v>
+        <v>764</v>
       </c>
       <c r="C241">
         <v>2014</v>
@@ -5859,10 +6486,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>536</v>
+        <v>745</v>
       </c>
       <c r="B242" t="s">
-        <v>555</v>
+        <v>764</v>
       </c>
       <c r="C242">
         <v>2015</v>
@@ -5876,10 +6503,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>536</v>
+        <v>745</v>
       </c>
       <c r="B243" t="s">
-        <v>555</v>
+        <v>764</v>
       </c>
       <c r="C243">
         <v>2016</v>
@@ -5893,10 +6520,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>536</v>
+        <v>745</v>
       </c>
       <c r="B244" t="s">
-        <v>555</v>
+        <v>764</v>
       </c>
       <c r="C244">
         <v>2017</v>
@@ -5910,10 +6537,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>536</v>
+        <v>745</v>
       </c>
       <c r="B245" t="s">
-        <v>555</v>
+        <v>764</v>
       </c>
       <c r="C245">
         <v>2018</v>
@@ -5927,10 +6554,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>536</v>
+        <v>745</v>
       </c>
       <c r="B246" t="s">
-        <v>555</v>
+        <v>764</v>
       </c>
       <c r="C246">
         <v>2019</v>
@@ -5944,10 +6571,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>536</v>
+        <v>745</v>
       </c>
       <c r="B247" t="s">
-        <v>555</v>
+        <v>764</v>
       </c>
       <c r="C247">
         <v>2020</v>
@@ -5961,10 +6588,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>536</v>
+        <v>745</v>
       </c>
       <c r="B248" t="s">
-        <v>555</v>
+        <v>764</v>
       </c>
       <c r="C248">
         <v>2021</v>
@@ -5978,10 +6605,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>536</v>
+        <v>745</v>
       </c>
       <c r="B249" t="s">
-        <v>555</v>
+        <v>764</v>
       </c>
       <c r="C249">
         <v>2022</v>
@@ -5995,10 +6622,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>536</v>
+        <v>745</v>
       </c>
       <c r="B250" t="s">
-        <v>555</v>
+        <v>764</v>
       </c>
       <c r="C250">
         <v>2023</v>
@@ -6012,10 +6639,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>536</v>
+        <v>745</v>
       </c>
       <c r="B251" t="s">
-        <v>555</v>
+        <v>764</v>
       </c>
       <c r="C251">
         <v>2024</v>
@@ -6029,10 +6656,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>537</v>
+        <v>746</v>
       </c>
       <c r="B252" t="s">
-        <v>556</v>
+        <v>765</v>
       </c>
       <c r="C252">
         <v>2000</v>
@@ -6046,10 +6673,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>537</v>
+        <v>746</v>
       </c>
       <c r="B253" t="s">
-        <v>556</v>
+        <v>765</v>
       </c>
       <c r="C253">
         <v>2001</v>
@@ -6063,10 +6690,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>537</v>
+        <v>746</v>
       </c>
       <c r="B254" t="s">
-        <v>556</v>
+        <v>765</v>
       </c>
       <c r="C254">
         <v>2002</v>
@@ -6080,10 +6707,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>537</v>
+        <v>746</v>
       </c>
       <c r="B255" t="s">
-        <v>556</v>
+        <v>765</v>
       </c>
       <c r="C255">
         <v>2003</v>
@@ -6097,10 +6724,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>537</v>
+        <v>746</v>
       </c>
       <c r="B256" t="s">
-        <v>556</v>
+        <v>765</v>
       </c>
       <c r="C256">
         <v>2004</v>
@@ -6114,10 +6741,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>537</v>
+        <v>746</v>
       </c>
       <c r="B257" t="s">
-        <v>556</v>
+        <v>765</v>
       </c>
       <c r="C257">
         <v>2005</v>
@@ -6131,10 +6758,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>537</v>
+        <v>746</v>
       </c>
       <c r="B258" t="s">
-        <v>556</v>
+        <v>765</v>
       </c>
       <c r="C258">
         <v>2006</v>
@@ -6148,10 +6775,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>537</v>
+        <v>746</v>
       </c>
       <c r="B259" t="s">
-        <v>556</v>
+        <v>765</v>
       </c>
       <c r="C259">
         <v>2007</v>
@@ -6165,10 +6792,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>537</v>
+        <v>746</v>
       </c>
       <c r="B260" t="s">
-        <v>556</v>
+        <v>765</v>
       </c>
       <c r="C260">
         <v>2008</v>
@@ -6182,10 +6809,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>537</v>
+        <v>746</v>
       </c>
       <c r="B261" t="s">
-        <v>556</v>
+        <v>765</v>
       </c>
       <c r="C261">
         <v>2009</v>
@@ -6199,10 +6826,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>537</v>
+        <v>746</v>
       </c>
       <c r="B262" t="s">
-        <v>556</v>
+        <v>765</v>
       </c>
       <c r="C262">
         <v>2010</v>
@@ -6216,10 +6843,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>537</v>
+        <v>746</v>
       </c>
       <c r="B263" t="s">
-        <v>556</v>
+        <v>765</v>
       </c>
       <c r="C263">
         <v>2011</v>
@@ -6233,10 +6860,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>537</v>
+        <v>746</v>
       </c>
       <c r="B264" t="s">
-        <v>556</v>
+        <v>765</v>
       </c>
       <c r="C264">
         <v>2012</v>
@@ -6250,10 +6877,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>537</v>
+        <v>746</v>
       </c>
       <c r="B265" t="s">
-        <v>556</v>
+        <v>765</v>
       </c>
       <c r="C265">
         <v>2013</v>
@@ -6267,10 +6894,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>537</v>
+        <v>746</v>
       </c>
       <c r="B266" t="s">
-        <v>556</v>
+        <v>765</v>
       </c>
       <c r="C266">
         <v>2014</v>
@@ -6284,10 +6911,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>537</v>
+        <v>746</v>
       </c>
       <c r="B267" t="s">
-        <v>556</v>
+        <v>765</v>
       </c>
       <c r="C267">
         <v>2015</v>
@@ -6301,10 +6928,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>537</v>
+        <v>746</v>
       </c>
       <c r="B268" t="s">
-        <v>556</v>
+        <v>765</v>
       </c>
       <c r="C268">
         <v>2016</v>
@@ -6318,10 +6945,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>537</v>
+        <v>746</v>
       </c>
       <c r="B269" t="s">
-        <v>556</v>
+        <v>765</v>
       </c>
       <c r="C269">
         <v>2017</v>
@@ -6335,10 +6962,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>537</v>
+        <v>746</v>
       </c>
       <c r="B270" t="s">
-        <v>556</v>
+        <v>765</v>
       </c>
       <c r="C270">
         <v>2018</v>
@@ -6352,10 +6979,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>537</v>
+        <v>746</v>
       </c>
       <c r="B271" t="s">
-        <v>556</v>
+        <v>765</v>
       </c>
       <c r="C271">
         <v>2019</v>
@@ -6369,10 +6996,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>537</v>
+        <v>746</v>
       </c>
       <c r="B272" t="s">
-        <v>556</v>
+        <v>765</v>
       </c>
       <c r="C272">
         <v>2020</v>
@@ -6386,10 +7013,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>537</v>
+        <v>746</v>
       </c>
       <c r="B273" t="s">
-        <v>556</v>
+        <v>765</v>
       </c>
       <c r="C273">
         <v>2021</v>
@@ -6403,10 +7030,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>537</v>
+        <v>746</v>
       </c>
       <c r="B274" t="s">
-        <v>556</v>
+        <v>765</v>
       </c>
       <c r="C274">
         <v>2022</v>
@@ -6420,10 +7047,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>537</v>
+        <v>746</v>
       </c>
       <c r="B275" t="s">
-        <v>556</v>
+        <v>765</v>
       </c>
       <c r="C275">
         <v>2023</v>
@@ -6437,10 +7064,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>537</v>
+        <v>746</v>
       </c>
       <c r="B276" t="s">
-        <v>556</v>
+        <v>765</v>
       </c>
       <c r="C276">
         <v>2024</v>
@@ -6454,10 +7081,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>538</v>
+        <v>747</v>
       </c>
       <c r="B277" t="s">
-        <v>557</v>
+        <v>766</v>
       </c>
       <c r="C277">
         <v>2000</v>
@@ -6471,10 +7098,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>538</v>
+        <v>747</v>
       </c>
       <c r="B278" t="s">
-        <v>557</v>
+        <v>766</v>
       </c>
       <c r="C278">
         <v>2001</v>
@@ -6488,10 +7115,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>538</v>
+        <v>747</v>
       </c>
       <c r="B279" t="s">
-        <v>557</v>
+        <v>766</v>
       </c>
       <c r="C279">
         <v>2002</v>
@@ -6505,10 +7132,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>538</v>
+        <v>747</v>
       </c>
       <c r="B280" t="s">
-        <v>557</v>
+        <v>766</v>
       </c>
       <c r="C280">
         <v>2003</v>
@@ -6522,10 +7149,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>538</v>
+        <v>747</v>
       </c>
       <c r="B281" t="s">
-        <v>557</v>
+        <v>766</v>
       </c>
       <c r="C281">
         <v>2004</v>
@@ -6539,10 +7166,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>538</v>
+        <v>747</v>
       </c>
       <c r="B282" t="s">
-        <v>557</v>
+        <v>766</v>
       </c>
       <c r="C282">
         <v>2005</v>
@@ -6556,10 +7183,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>538</v>
+        <v>747</v>
       </c>
       <c r="B283" t="s">
-        <v>557</v>
+        <v>766</v>
       </c>
       <c r="C283">
         <v>2006</v>
@@ -6573,10 +7200,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>538</v>
+        <v>747</v>
       </c>
       <c r="B284" t="s">
-        <v>557</v>
+        <v>766</v>
       </c>
       <c r="C284">
         <v>2007</v>
@@ -6590,10 +7217,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>538</v>
+        <v>747</v>
       </c>
       <c r="B285" t="s">
-        <v>557</v>
+        <v>766</v>
       </c>
       <c r="C285">
         <v>2008</v>
@@ -6607,10 +7234,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>538</v>
+        <v>747</v>
       </c>
       <c r="B286" t="s">
-        <v>557</v>
+        <v>766</v>
       </c>
       <c r="C286">
         <v>2009</v>
@@ -6624,10 +7251,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>538</v>
+        <v>747</v>
       </c>
       <c r="B287" t="s">
-        <v>557</v>
+        <v>766</v>
       </c>
       <c r="C287">
         <v>2010</v>
@@ -6641,10 +7268,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>538</v>
+        <v>747</v>
       </c>
       <c r="B288" t="s">
-        <v>557</v>
+        <v>766</v>
       </c>
       <c r="C288">
         <v>2011</v>
@@ -6658,10 +7285,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>538</v>
+        <v>747</v>
       </c>
       <c r="B289" t="s">
-        <v>557</v>
+        <v>766</v>
       </c>
       <c r="C289">
         <v>2012</v>
@@ -6675,10 +7302,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>538</v>
+        <v>747</v>
       </c>
       <c r="B290" t="s">
-        <v>557</v>
+        <v>766</v>
       </c>
       <c r="C290">
         <v>2013</v>
@@ -6692,10 +7319,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>538</v>
+        <v>747</v>
       </c>
       <c r="B291" t="s">
-        <v>557</v>
+        <v>766</v>
       </c>
       <c r="C291">
         <v>2014</v>
@@ -6709,10 +7336,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>538</v>
+        <v>747</v>
       </c>
       <c r="B292" t="s">
-        <v>557</v>
+        <v>766</v>
       </c>
       <c r="C292">
         <v>2015</v>
@@ -6726,10 +7353,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>538</v>
+        <v>747</v>
       </c>
       <c r="B293" t="s">
-        <v>557</v>
+        <v>766</v>
       </c>
       <c r="C293">
         <v>2016</v>
@@ -6743,10 +7370,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>538</v>
+        <v>747</v>
       </c>
       <c r="B294" t="s">
-        <v>557</v>
+        <v>766</v>
       </c>
       <c r="C294">
         <v>2017</v>
@@ -6760,10 +7387,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>538</v>
+        <v>747</v>
       </c>
       <c r="B295" t="s">
-        <v>557</v>
+        <v>766</v>
       </c>
       <c r="C295">
         <v>2018</v>
@@ -6777,10 +7404,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>538</v>
+        <v>747</v>
       </c>
       <c r="B296" t="s">
-        <v>557</v>
+        <v>766</v>
       </c>
       <c r="C296">
         <v>2019</v>
@@ -6794,10 +7421,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>538</v>
+        <v>747</v>
       </c>
       <c r="B297" t="s">
-        <v>557</v>
+        <v>766</v>
       </c>
       <c r="C297">
         <v>2020</v>
@@ -6811,10 +7438,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>538</v>
+        <v>747</v>
       </c>
       <c r="B298" t="s">
-        <v>557</v>
+        <v>766</v>
       </c>
       <c r="C298">
         <v>2021</v>
@@ -6828,10 +7455,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>538</v>
+        <v>747</v>
       </c>
       <c r="B299" t="s">
-        <v>557</v>
+        <v>766</v>
       </c>
       <c r="C299">
         <v>2022</v>
@@ -6845,10 +7472,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>538</v>
+        <v>747</v>
       </c>
       <c r="B300" t="s">
-        <v>557</v>
+        <v>766</v>
       </c>
       <c r="C300">
         <v>2023</v>
@@ -6862,10 +7489,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>538</v>
+        <v>747</v>
       </c>
       <c r="B301" t="s">
-        <v>557</v>
+        <v>766</v>
       </c>
       <c r="C301">
         <v>2024</v>
@@ -6879,10 +7506,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>539</v>
+        <v>748</v>
       </c>
       <c r="B302" t="s">
-        <v>558</v>
+        <v>767</v>
       </c>
       <c r="C302">
         <v>2000</v>
@@ -6896,10 +7523,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>539</v>
+        <v>748</v>
       </c>
       <c r="B303" t="s">
-        <v>558</v>
+        <v>767</v>
       </c>
       <c r="C303">
         <v>2001</v>
@@ -6913,10 +7540,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>539</v>
+        <v>748</v>
       </c>
       <c r="B304" t="s">
-        <v>558</v>
+        <v>767</v>
       </c>
       <c r="C304">
         <v>2002</v>
@@ -6930,10 +7557,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>539</v>
+        <v>748</v>
       </c>
       <c r="B305" t="s">
-        <v>558</v>
+        <v>767</v>
       </c>
       <c r="C305">
         <v>2003</v>
@@ -6947,10 +7574,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>539</v>
+        <v>748</v>
       </c>
       <c r="B306" t="s">
-        <v>558</v>
+        <v>767</v>
       </c>
       <c r="C306">
         <v>2004</v>
@@ -6964,10 +7591,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>539</v>
+        <v>748</v>
       </c>
       <c r="B307" t="s">
-        <v>558</v>
+        <v>767</v>
       </c>
       <c r="C307">
         <v>2005</v>
@@ -6981,10 +7608,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>539</v>
+        <v>748</v>
       </c>
       <c r="B308" t="s">
-        <v>558</v>
+        <v>767</v>
       </c>
       <c r="C308">
         <v>2006</v>
@@ -6998,10 +7625,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>539</v>
+        <v>748</v>
       </c>
       <c r="B309" t="s">
-        <v>558</v>
+        <v>767</v>
       </c>
       <c r="C309">
         <v>2007</v>
@@ -7015,10 +7642,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>539</v>
+        <v>748</v>
       </c>
       <c r="B310" t="s">
-        <v>558</v>
+        <v>767</v>
       </c>
       <c r="C310">
         <v>2008</v>
@@ -7032,10 +7659,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>539</v>
+        <v>748</v>
       </c>
       <c r="B311" t="s">
-        <v>558</v>
+        <v>767</v>
       </c>
       <c r="C311">
         <v>2009</v>
@@ -7049,10 +7676,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>539</v>
+        <v>748</v>
       </c>
       <c r="B312" t="s">
-        <v>558</v>
+        <v>767</v>
       </c>
       <c r="C312">
         <v>2010</v>
@@ -7066,10 +7693,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>539</v>
+        <v>748</v>
       </c>
       <c r="B313" t="s">
-        <v>558</v>
+        <v>767</v>
       </c>
       <c r="C313">
         <v>2011</v>
@@ -7083,10 +7710,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>539</v>
+        <v>748</v>
       </c>
       <c r="B314" t="s">
-        <v>558</v>
+        <v>767</v>
       </c>
       <c r="C314">
         <v>2012</v>
@@ -7100,10 +7727,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>539</v>
+        <v>748</v>
       </c>
       <c r="B315" t="s">
-        <v>558</v>
+        <v>767</v>
       </c>
       <c r="C315">
         <v>2013</v>
@@ -7117,10 +7744,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>539</v>
+        <v>748</v>
       </c>
       <c r="B316" t="s">
-        <v>558</v>
+        <v>767</v>
       </c>
       <c r="C316">
         <v>2014</v>
@@ -7134,10 +7761,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>539</v>
+        <v>748</v>
       </c>
       <c r="B317" t="s">
-        <v>558</v>
+        <v>767</v>
       </c>
       <c r="C317">
         <v>2015</v>
@@ -7151,10 +7778,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>539</v>
+        <v>748</v>
       </c>
       <c r="B318" t="s">
-        <v>558</v>
+        <v>767</v>
       </c>
       <c r="C318">
         <v>2016</v>
@@ -7168,10 +7795,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>539</v>
+        <v>748</v>
       </c>
       <c r="B319" t="s">
-        <v>558</v>
+        <v>767</v>
       </c>
       <c r="C319">
         <v>2017</v>
@@ -7185,10 +7812,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>539</v>
+        <v>748</v>
       </c>
       <c r="B320" t="s">
-        <v>558</v>
+        <v>767</v>
       </c>
       <c r="C320">
         <v>2018</v>
@@ -7202,10 +7829,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>539</v>
+        <v>748</v>
       </c>
       <c r="B321" t="s">
-        <v>558</v>
+        <v>767</v>
       </c>
       <c r="C321">
         <v>2019</v>
@@ -7219,10 +7846,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>539</v>
+        <v>748</v>
       </c>
       <c r="B322" t="s">
-        <v>558</v>
+        <v>767</v>
       </c>
       <c r="C322">
         <v>2020</v>
@@ -7236,10 +7863,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>539</v>
+        <v>748</v>
       </c>
       <c r="B323" t="s">
-        <v>558</v>
+        <v>767</v>
       </c>
       <c r="C323">
         <v>2021</v>
@@ -7253,10 +7880,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>539</v>
+        <v>748</v>
       </c>
       <c r="B324" t="s">
-        <v>558</v>
+        <v>767</v>
       </c>
       <c r="C324">
         <v>2022</v>
@@ -7270,10 +7897,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>539</v>
+        <v>748</v>
       </c>
       <c r="B325" t="s">
-        <v>558</v>
+        <v>767</v>
       </c>
       <c r="C325">
         <v>2023</v>
@@ -7287,10 +7914,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>539</v>
+        <v>748</v>
       </c>
       <c r="B326" t="s">
-        <v>558</v>
+        <v>767</v>
       </c>
       <c r="C326">
         <v>2024</v>
@@ -7304,10 +7931,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>540</v>
+        <v>749</v>
       </c>
       <c r="B327" t="s">
-        <v>559</v>
+        <v>768</v>
       </c>
       <c r="C327">
         <v>2000</v>
@@ -7321,10 +7948,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>540</v>
+        <v>749</v>
       </c>
       <c r="B328" t="s">
-        <v>559</v>
+        <v>768</v>
       </c>
       <c r="C328">
         <v>2001</v>
@@ -7338,10 +7965,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>540</v>
+        <v>749</v>
       </c>
       <c r="B329" t="s">
-        <v>559</v>
+        <v>768</v>
       </c>
       <c r="C329">
         <v>2002</v>
@@ -7355,10 +7982,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>540</v>
+        <v>749</v>
       </c>
       <c r="B330" t="s">
-        <v>559</v>
+        <v>768</v>
       </c>
       <c r="C330">
         <v>2003</v>
@@ -7372,10 +7999,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>540</v>
+        <v>749</v>
       </c>
       <c r="B331" t="s">
-        <v>559</v>
+        <v>768</v>
       </c>
       <c r="C331">
         <v>2004</v>
@@ -7389,10 +8016,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>540</v>
+        <v>749</v>
       </c>
       <c r="B332" t="s">
-        <v>559</v>
+        <v>768</v>
       </c>
       <c r="C332">
         <v>2005</v>
@@ -7406,10 +8033,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>540</v>
+        <v>749</v>
       </c>
       <c r="B333" t="s">
-        <v>559</v>
+        <v>768</v>
       </c>
       <c r="C333">
         <v>2006</v>
@@ -7423,10 +8050,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>540</v>
+        <v>749</v>
       </c>
       <c r="B334" t="s">
-        <v>559</v>
+        <v>768</v>
       </c>
       <c r="C334">
         <v>2007</v>
@@ -7440,10 +8067,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>540</v>
+        <v>749</v>
       </c>
       <c r="B335" t="s">
-        <v>559</v>
+        <v>768</v>
       </c>
       <c r="C335">
         <v>2008</v>
@@ -7457,10 +8084,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>540</v>
+        <v>749</v>
       </c>
       <c r="B336" t="s">
-        <v>559</v>
+        <v>768</v>
       </c>
       <c r="C336">
         <v>2009</v>
@@ -7474,10 +8101,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>540</v>
+        <v>749</v>
       </c>
       <c r="B337" t="s">
-        <v>559</v>
+        <v>768</v>
       </c>
       <c r="C337">
         <v>2010</v>
@@ -7491,10 +8118,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>540</v>
+        <v>749</v>
       </c>
       <c r="B338" t="s">
-        <v>559</v>
+        <v>768</v>
       </c>
       <c r="C338">
         <v>2011</v>
@@ -7508,10 +8135,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>540</v>
+        <v>749</v>
       </c>
       <c r="B339" t="s">
-        <v>559</v>
+        <v>768</v>
       </c>
       <c r="C339">
         <v>2012</v>
@@ -7525,10 +8152,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>540</v>
+        <v>749</v>
       </c>
       <c r="B340" t="s">
-        <v>559</v>
+        <v>768</v>
       </c>
       <c r="C340">
         <v>2013</v>
@@ -7542,10 +8169,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>540</v>
+        <v>749</v>
       </c>
       <c r="B341" t="s">
-        <v>559</v>
+        <v>768</v>
       </c>
       <c r="C341">
         <v>2014</v>
@@ -7559,10 +8186,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>540</v>
+        <v>749</v>
       </c>
       <c r="B342" t="s">
-        <v>559</v>
+        <v>768</v>
       </c>
       <c r="C342">
         <v>2015</v>
@@ -7576,10 +8203,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>540</v>
+        <v>749</v>
       </c>
       <c r="B343" t="s">
-        <v>559</v>
+        <v>768</v>
       </c>
       <c r="C343">
         <v>2016</v>
@@ -7593,10 +8220,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>540</v>
+        <v>749</v>
       </c>
       <c r="B344" t="s">
-        <v>559</v>
+        <v>768</v>
       </c>
       <c r="C344">
         <v>2017</v>
@@ -7610,10 +8237,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>540</v>
+        <v>749</v>
       </c>
       <c r="B345" t="s">
-        <v>559</v>
+        <v>768</v>
       </c>
       <c r="C345">
         <v>2018</v>
@@ -7627,10 +8254,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>540</v>
+        <v>749</v>
       </c>
       <c r="B346" t="s">
-        <v>559</v>
+        <v>768</v>
       </c>
       <c r="C346">
         <v>2019</v>
@@ -7644,10 +8271,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>540</v>
+        <v>749</v>
       </c>
       <c r="B347" t="s">
-        <v>559</v>
+        <v>768</v>
       </c>
       <c r="C347">
         <v>2020</v>
@@ -7661,10 +8288,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>540</v>
+        <v>749</v>
       </c>
       <c r="B348" t="s">
-        <v>559</v>
+        <v>768</v>
       </c>
       <c r="C348">
         <v>2021</v>
@@ -7678,10 +8305,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>540</v>
+        <v>749</v>
       </c>
       <c r="B349" t="s">
-        <v>559</v>
+        <v>768</v>
       </c>
       <c r="C349">
         <v>2022</v>
@@ -7695,10 +8322,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>540</v>
+        <v>749</v>
       </c>
       <c r="B350" t="s">
-        <v>559</v>
+        <v>768</v>
       </c>
       <c r="C350">
         <v>2023</v>
@@ -7712,10 +8339,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>540</v>
+        <v>749</v>
       </c>
       <c r="B351" t="s">
-        <v>559</v>
+        <v>768</v>
       </c>
       <c r="C351">
         <v>2024</v>
@@ -7729,10 +8356,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="B352" t="s">
-        <v>560</v>
+        <v>769</v>
       </c>
       <c r="C352">
         <v>2000</v>
@@ -7746,10 +8373,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="B353" t="s">
-        <v>560</v>
+        <v>769</v>
       </c>
       <c r="C353">
         <v>2001</v>
@@ -7763,10 +8390,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="B354" t="s">
-        <v>560</v>
+        <v>769</v>
       </c>
       <c r="C354">
         <v>2002</v>
@@ -7780,10 +8407,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="B355" t="s">
-        <v>560</v>
+        <v>769</v>
       </c>
       <c r="C355">
         <v>2003</v>
@@ -7797,10 +8424,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="B356" t="s">
-        <v>560</v>
+        <v>769</v>
       </c>
       <c r="C356">
         <v>2004</v>
@@ -7814,10 +8441,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="B357" t="s">
-        <v>560</v>
+        <v>769</v>
       </c>
       <c r="C357">
         <v>2005</v>
@@ -7831,10 +8458,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="B358" t="s">
-        <v>560</v>
+        <v>769</v>
       </c>
       <c r="C358">
         <v>2006</v>
@@ -7848,10 +8475,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="B359" t="s">
-        <v>560</v>
+        <v>769</v>
       </c>
       <c r="C359">
         <v>2007</v>
@@ -7865,10 +8492,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="B360" t="s">
-        <v>560</v>
+        <v>769</v>
       </c>
       <c r="C360">
         <v>2008</v>
@@ -7882,10 +8509,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="B361" t="s">
-        <v>560</v>
+        <v>769</v>
       </c>
       <c r="C361">
         <v>2009</v>
@@ -7899,10 +8526,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="B362" t="s">
-        <v>560</v>
+        <v>769</v>
       </c>
       <c r="C362">
         <v>2010</v>
@@ -7916,10 +8543,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="B363" t="s">
-        <v>560</v>
+        <v>769</v>
       </c>
       <c r="C363">
         <v>2011</v>
@@ -7933,10 +8560,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="B364" t="s">
-        <v>560</v>
+        <v>769</v>
       </c>
       <c r="C364">
         <v>2012</v>
@@ -7950,10 +8577,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="B365" t="s">
-        <v>560</v>
+        <v>769</v>
       </c>
       <c r="C365">
         <v>2013</v>
@@ -7967,10 +8594,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="B366" t="s">
-        <v>560</v>
+        <v>769</v>
       </c>
       <c r="C366">
         <v>2014</v>
@@ -7984,10 +8611,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="B367" t="s">
-        <v>560</v>
+        <v>769</v>
       </c>
       <c r="C367">
         <v>2015</v>
@@ -8001,10 +8628,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="B368" t="s">
-        <v>560</v>
+        <v>769</v>
       </c>
       <c r="C368">
         <v>2016</v>
@@ -8018,10 +8645,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="B369" t="s">
-        <v>560</v>
+        <v>769</v>
       </c>
       <c r="C369">
         <v>2017</v>
@@ -8035,10 +8662,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="B370" t="s">
-        <v>560</v>
+        <v>769</v>
       </c>
       <c r="C370">
         <v>2018</v>
@@ -8052,10 +8679,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="B371" t="s">
-        <v>560</v>
+        <v>769</v>
       </c>
       <c r="C371">
         <v>2019</v>
@@ -8069,10 +8696,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="B372" t="s">
-        <v>560</v>
+        <v>769</v>
       </c>
       <c r="C372">
         <v>2020</v>
@@ -8086,10 +8713,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="B373" t="s">
-        <v>560</v>
+        <v>769</v>
       </c>
       <c r="C373">
         <v>2021</v>
@@ -8103,10 +8730,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="B374" t="s">
-        <v>560</v>
+        <v>769</v>
       </c>
       <c r="C374">
         <v>2022</v>
@@ -8120,10 +8747,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="B375" t="s">
-        <v>560</v>
+        <v>769</v>
       </c>
       <c r="C375">
         <v>2023</v>
@@ -8137,10 +8764,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>541</v>
+        <v>750</v>
       </c>
       <c r="B376" t="s">
-        <v>560</v>
+        <v>769</v>
       </c>
       <c r="C376">
         <v>2024</v>
@@ -8154,10 +8781,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>542</v>
+        <v>751</v>
       </c>
       <c r="B377" t="s">
-        <v>561</v>
+        <v>770</v>
       </c>
       <c r="C377">
         <v>2000</v>
@@ -8171,10 +8798,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>542</v>
+        <v>751</v>
       </c>
       <c r="B378" t="s">
-        <v>561</v>
+        <v>770</v>
       </c>
       <c r="C378">
         <v>2001</v>
@@ -8188,10 +8815,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>542</v>
+        <v>751</v>
       </c>
       <c r="B379" t="s">
-        <v>561</v>
+        <v>770</v>
       </c>
       <c r="C379">
         <v>2002</v>
@@ -8205,10 +8832,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>542</v>
+        <v>751</v>
       </c>
       <c r="B380" t="s">
-        <v>561</v>
+        <v>770</v>
       </c>
       <c r="C380">
         <v>2003</v>
@@ -8222,10 +8849,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>542</v>
+        <v>751</v>
       </c>
       <c r="B381" t="s">
-        <v>561</v>
+        <v>770</v>
       </c>
       <c r="C381">
         <v>2004</v>
@@ -8239,10 +8866,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>542</v>
+        <v>751</v>
       </c>
       <c r="B382" t="s">
-        <v>561</v>
+        <v>770</v>
       </c>
       <c r="C382">
         <v>2005</v>
@@ -8256,10 +8883,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>542</v>
+        <v>751</v>
       </c>
       <c r="B383" t="s">
-        <v>561</v>
+        <v>770</v>
       </c>
       <c r="C383">
         <v>2006</v>
@@ -8273,10 +8900,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>542</v>
+        <v>751</v>
       </c>
       <c r="B384" t="s">
-        <v>561</v>
+        <v>770</v>
       </c>
       <c r="C384">
         <v>2007</v>
@@ -8290,10 +8917,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>542</v>
+        <v>751</v>
       </c>
       <c r="B385" t="s">
-        <v>561</v>
+        <v>770</v>
       </c>
       <c r="C385">
         <v>2008</v>
@@ -8307,10 +8934,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>542</v>
+        <v>751</v>
       </c>
       <c r="B386" t="s">
-        <v>561</v>
+        <v>770</v>
       </c>
       <c r="C386">
         <v>2009</v>
@@ -8324,10 +8951,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>542</v>
+        <v>751</v>
       </c>
       <c r="B387" t="s">
-        <v>561</v>
+        <v>770</v>
       </c>
       <c r="C387">
         <v>2010</v>
@@ -8341,10 +8968,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>542</v>
+        <v>751</v>
       </c>
       <c r="B388" t="s">
-        <v>561</v>
+        <v>770</v>
       </c>
       <c r="C388">
         <v>2011</v>
@@ -8358,10 +8985,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>542</v>
+        <v>751</v>
       </c>
       <c r="B389" t="s">
-        <v>561</v>
+        <v>770</v>
       </c>
       <c r="C389">
         <v>2012</v>
@@ -8375,10 +9002,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>542</v>
+        <v>751</v>
       </c>
       <c r="B390" t="s">
-        <v>561</v>
+        <v>770</v>
       </c>
       <c r="C390">
         <v>2013</v>
@@ -8392,10 +9019,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>542</v>
+        <v>751</v>
       </c>
       <c r="B391" t="s">
-        <v>561</v>
+        <v>770</v>
       </c>
       <c r="C391">
         <v>2014</v>
@@ -8409,10 +9036,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>542</v>
+        <v>751</v>
       </c>
       <c r="B392" t="s">
-        <v>561</v>
+        <v>770</v>
       </c>
       <c r="C392">
         <v>2015</v>
@@ -8426,10 +9053,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>542</v>
+        <v>751</v>
       </c>
       <c r="B393" t="s">
-        <v>561</v>
+        <v>770</v>
       </c>
       <c r="C393">
         <v>2016</v>
@@ -8443,10 +9070,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>542</v>
+        <v>751</v>
       </c>
       <c r="B394" t="s">
-        <v>561</v>
+        <v>770</v>
       </c>
       <c r="C394">
         <v>2017</v>
@@ -8460,10 +9087,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>542</v>
+        <v>751</v>
       </c>
       <c r="B395" t="s">
-        <v>561</v>
+        <v>770</v>
       </c>
       <c r="C395">
         <v>2018</v>
@@ -8477,10 +9104,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>542</v>
+        <v>751</v>
       </c>
       <c r="B396" t="s">
-        <v>561</v>
+        <v>770</v>
       </c>
       <c r="C396">
         <v>2019</v>
@@ -8494,10 +9121,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>542</v>
+        <v>751</v>
       </c>
       <c r="B397" t="s">
-        <v>561</v>
+        <v>770</v>
       </c>
       <c r="C397">
         <v>2020</v>
@@ -8511,10 +9138,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>542</v>
+        <v>751</v>
       </c>
       <c r="B398" t="s">
-        <v>561</v>
+        <v>770</v>
       </c>
       <c r="C398">
         <v>2021</v>
@@ -8528,10 +9155,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>542</v>
+        <v>751</v>
       </c>
       <c r="B399" t="s">
-        <v>561</v>
+        <v>770</v>
       </c>
       <c r="C399">
         <v>2022</v>
@@ -8545,10 +9172,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>542</v>
+        <v>751</v>
       </c>
       <c r="B400" t="s">
-        <v>561</v>
+        <v>770</v>
       </c>
       <c r="C400">
         <v>2023</v>
@@ -8562,10 +9189,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>542</v>
+        <v>751</v>
       </c>
       <c r="B401" t="s">
-        <v>561</v>
+        <v>770</v>
       </c>
       <c r="C401">
         <v>2024</v>
@@ -8579,10 +9206,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>543</v>
+        <v>752</v>
       </c>
       <c r="B402" t="s">
-        <v>562</v>
+        <v>771</v>
       </c>
       <c r="C402">
         <v>2000</v>
@@ -8596,10 +9223,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>543</v>
+        <v>752</v>
       </c>
       <c r="B403" t="s">
-        <v>562</v>
+        <v>771</v>
       </c>
       <c r="C403">
         <v>2001</v>
@@ -8613,10 +9240,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>543</v>
+        <v>752</v>
       </c>
       <c r="B404" t="s">
-        <v>562</v>
+        <v>771</v>
       </c>
       <c r="C404">
         <v>2002</v>
@@ -8630,10 +9257,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>543</v>
+        <v>752</v>
       </c>
       <c r="B405" t="s">
-        <v>562</v>
+        <v>771</v>
       </c>
       <c r="C405">
         <v>2003</v>
@@ -8647,10 +9274,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>543</v>
+        <v>752</v>
       </c>
       <c r="B406" t="s">
-        <v>562</v>
+        <v>771</v>
       </c>
       <c r="C406">
         <v>2004</v>
@@ -8664,10 +9291,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>543</v>
+        <v>752</v>
       </c>
       <c r="B407" t="s">
-        <v>562</v>
+        <v>771</v>
       </c>
       <c r="C407">
         <v>2005</v>
@@ -8681,10 +9308,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>543</v>
+        <v>752</v>
       </c>
       <c r="B408" t="s">
-        <v>562</v>
+        <v>771</v>
       </c>
       <c r="C408">
         <v>2006</v>
@@ -8698,10 +9325,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>543</v>
+        <v>752</v>
       </c>
       <c r="B409" t="s">
-        <v>562</v>
+        <v>771</v>
       </c>
       <c r="C409">
         <v>2007</v>
@@ -8715,10 +9342,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>543</v>
+        <v>752</v>
       </c>
       <c r="B410" t="s">
-        <v>562</v>
+        <v>771</v>
       </c>
       <c r="C410">
         <v>2008</v>
@@ -8732,10 +9359,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>543</v>
+        <v>752</v>
       </c>
       <c r="B411" t="s">
-        <v>562</v>
+        <v>771</v>
       </c>
       <c r="C411">
         <v>2009</v>
@@ -8749,10 +9376,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>543</v>
+        <v>752</v>
       </c>
       <c r="B412" t="s">
-        <v>562</v>
+        <v>771</v>
       </c>
       <c r="C412">
         <v>2010</v>
@@ -8766,10 +9393,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>543</v>
+        <v>752</v>
       </c>
       <c r="B413" t="s">
-        <v>562</v>
+        <v>771</v>
       </c>
       <c r="C413">
         <v>2011</v>
@@ -8783,10 +9410,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>543</v>
+        <v>752</v>
       </c>
       <c r="B414" t="s">
-        <v>562</v>
+        <v>771</v>
       </c>
       <c r="C414">
         <v>2012</v>
@@ -8800,10 +9427,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>543</v>
+        <v>752</v>
       </c>
       <c r="B415" t="s">
-        <v>562</v>
+        <v>771</v>
       </c>
       <c r="C415">
         <v>2013</v>
@@ -8817,10 +9444,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>543</v>
+        <v>752</v>
       </c>
       <c r="B416" t="s">
-        <v>562</v>
+        <v>771</v>
       </c>
       <c r="C416">
         <v>2014</v>
@@ -8834,10 +9461,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>543</v>
+        <v>752</v>
       </c>
       <c r="B417" t="s">
-        <v>562</v>
+        <v>771</v>
       </c>
       <c r="C417">
         <v>2015</v>
@@ -8851,10 +9478,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>543</v>
+        <v>752</v>
       </c>
       <c r="B418" t="s">
-        <v>562</v>
+        <v>771</v>
       </c>
       <c r="C418">
         <v>2016</v>
@@ -8868,10 +9495,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>543</v>
+        <v>752</v>
       </c>
       <c r="B419" t="s">
-        <v>562</v>
+        <v>771</v>
       </c>
       <c r="C419">
         <v>2017</v>
@@ -8885,10 +9512,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>543</v>
+        <v>752</v>
       </c>
       <c r="B420" t="s">
-        <v>562</v>
+        <v>771</v>
       </c>
       <c r="C420">
         <v>2018</v>
@@ -8902,10 +9529,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>543</v>
+        <v>752</v>
       </c>
       <c r="B421" t="s">
-        <v>562</v>
+        <v>771</v>
       </c>
       <c r="C421">
         <v>2019</v>
@@ -8919,10 +9546,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>543</v>
+        <v>752</v>
       </c>
       <c r="B422" t="s">
-        <v>562</v>
+        <v>771</v>
       </c>
       <c r="C422">
         <v>2020</v>
@@ -8936,10 +9563,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>543</v>
+        <v>752</v>
       </c>
       <c r="B423" t="s">
-        <v>562</v>
+        <v>771</v>
       </c>
       <c r="C423">
         <v>2021</v>
@@ -8953,10 +9580,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>543</v>
+        <v>752</v>
       </c>
       <c r="B424" t="s">
-        <v>562</v>
+        <v>771</v>
       </c>
       <c r="C424">
         <v>2022</v>
@@ -8970,10 +9597,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>543</v>
+        <v>752</v>
       </c>
       <c r="B425" t="s">
-        <v>562</v>
+        <v>771</v>
       </c>
       <c r="C425">
         <v>2023</v>
@@ -8987,10 +9614,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>543</v>
+        <v>752</v>
       </c>
       <c r="B426" t="s">
-        <v>562</v>
+        <v>771</v>
       </c>
       <c r="C426">
         <v>2024</v>
@@ -9004,10 +9631,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>544</v>
+        <v>753</v>
       </c>
       <c r="B427" t="s">
-        <v>563</v>
+        <v>772</v>
       </c>
       <c r="C427">
         <v>2000</v>
@@ -9021,10 +9648,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>544</v>
+        <v>753</v>
       </c>
       <c r="B428" t="s">
-        <v>563</v>
+        <v>772</v>
       </c>
       <c r="C428">
         <v>2001</v>
@@ -9038,10 +9665,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>544</v>
+        <v>753</v>
       </c>
       <c r="B429" t="s">
-        <v>563</v>
+        <v>772</v>
       </c>
       <c r="C429">
         <v>2002</v>
@@ -9055,10 +9682,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>544</v>
+        <v>753</v>
       </c>
       <c r="B430" t="s">
-        <v>563</v>
+        <v>772</v>
       </c>
       <c r="C430">
         <v>2003</v>
@@ -9072,10 +9699,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>544</v>
+        <v>753</v>
       </c>
       <c r="B431" t="s">
-        <v>563</v>
+        <v>772</v>
       </c>
       <c r="C431">
         <v>2004</v>
@@ -9089,10 +9716,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>544</v>
+        <v>753</v>
       </c>
       <c r="B432" t="s">
-        <v>563</v>
+        <v>772</v>
       </c>
       <c r="C432">
         <v>2005</v>
@@ -9106,10 +9733,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>544</v>
+        <v>753</v>
       </c>
       <c r="B433" t="s">
-        <v>563</v>
+        <v>772</v>
       </c>
       <c r="C433">
         <v>2006</v>
@@ -9123,10 +9750,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>544</v>
+        <v>753</v>
       </c>
       <c r="B434" t="s">
-        <v>563</v>
+        <v>772</v>
       </c>
       <c r="C434">
         <v>2007</v>
@@ -9140,10 +9767,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>544</v>
+        <v>753</v>
       </c>
       <c r="B435" t="s">
-        <v>563</v>
+        <v>772</v>
       </c>
       <c r="C435">
         <v>2008</v>
@@ -9157,10 +9784,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>544</v>
+        <v>753</v>
       </c>
       <c r="B436" t="s">
-        <v>563</v>
+        <v>772</v>
       </c>
       <c r="C436">
         <v>2009</v>
@@ -9174,10 +9801,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>544</v>
+        <v>753</v>
       </c>
       <c r="B437" t="s">
-        <v>563</v>
+        <v>772</v>
       </c>
       <c r="C437">
         <v>2010</v>
@@ -9191,10 +9818,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>544</v>
+        <v>753</v>
       </c>
       <c r="B438" t="s">
-        <v>563</v>
+        <v>772</v>
       </c>
       <c r="C438">
         <v>2011</v>
@@ -9208,10 +9835,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>544</v>
+        <v>753</v>
       </c>
       <c r="B439" t="s">
-        <v>563</v>
+        <v>772</v>
       </c>
       <c r="C439">
         <v>2012</v>
@@ -9225,10 +9852,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>544</v>
+        <v>753</v>
       </c>
       <c r="B440" t="s">
-        <v>563</v>
+        <v>772</v>
       </c>
       <c r="C440">
         <v>2013</v>
@@ -9242,10 +9869,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>544</v>
+        <v>753</v>
       </c>
       <c r="B441" t="s">
-        <v>563</v>
+        <v>772</v>
       </c>
       <c r="C441">
         <v>2014</v>
@@ -9259,10 +9886,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>544</v>
+        <v>753</v>
       </c>
       <c r="B442" t="s">
-        <v>563</v>
+        <v>772</v>
       </c>
       <c r="C442">
         <v>2015</v>
@@ -9276,10 +9903,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>544</v>
+        <v>753</v>
       </c>
       <c r="B443" t="s">
-        <v>563</v>
+        <v>772</v>
       </c>
       <c r="C443">
         <v>2016</v>
@@ -9293,10 +9920,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>544</v>
+        <v>753</v>
       </c>
       <c r="B444" t="s">
-        <v>563</v>
+        <v>772</v>
       </c>
       <c r="C444">
         <v>2017</v>
@@ -9310,10 +9937,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>544</v>
+        <v>753</v>
       </c>
       <c r="B445" t="s">
-        <v>563</v>
+        <v>772</v>
       </c>
       <c r="C445">
         <v>2018</v>
@@ -9327,10 +9954,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>544</v>
+        <v>753</v>
       </c>
       <c r="B446" t="s">
-        <v>563</v>
+        <v>772</v>
       </c>
       <c r="C446">
         <v>2019</v>
@@ -9344,10 +9971,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>544</v>
+        <v>753</v>
       </c>
       <c r="B447" t="s">
-        <v>563</v>
+        <v>772</v>
       </c>
       <c r="C447">
         <v>2020</v>
@@ -9361,10 +9988,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>544</v>
+        <v>753</v>
       </c>
       <c r="B448" t="s">
-        <v>563</v>
+        <v>772</v>
       </c>
       <c r="C448">
         <v>2021</v>
@@ -9378,10 +10005,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>544</v>
+        <v>753</v>
       </c>
       <c r="B449" t="s">
-        <v>563</v>
+        <v>772</v>
       </c>
       <c r="C449">
         <v>2022</v>
@@ -9395,10 +10022,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>544</v>
+        <v>753</v>
       </c>
       <c r="B450" t="s">
-        <v>563</v>
+        <v>772</v>
       </c>
       <c r="C450">
         <v>2023</v>
@@ -9412,10 +10039,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>544</v>
+        <v>753</v>
       </c>
       <c r="B451" t="s">
-        <v>563</v>
+        <v>772</v>
       </c>
       <c r="C451">
         <v>2024</v>

--- a/input_data/prices_WID/infl_xrates_wid_wb.xlsx
+++ b/input_data/prices_WID/infl_xrates_wid_wb.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15112" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17906" uniqueCount="914">
   <si>
     <t>countrycode</t>
   </si>
@@ -2134,6 +2134,420 @@
   </si>
   <si>
     <t>cpi_2023</t>
+  </si>
+  <si>
+    <t>countrycode</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>defl_2023</t>
+  </si>
+  <si>
+    <t>xppp_eur</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>cpi_2023</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>BOL</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>GTM</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>PRY</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>countrycode</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>defl_xxxx</t>
+  </si>
+  <si>
+    <t>xppp_eur</t>
+  </si>
+  <si>
+    <t>countrycode</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>defl_2023</t>
+  </si>
+  <si>
+    <t>xppp_eur</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>cpi_2023</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>BOL</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>GTM</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>PRY</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>countrycode</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>defl_xxxx</t>
+  </si>
+  <si>
+    <t>xppp_eur</t>
   </si>
   <si>
     <t>countrycode</t>
@@ -2389,27 +2803,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>735</v>
+        <v>873</v>
       </c>
       <c r="B1" t="s">
-        <v>754</v>
+        <v>892</v>
       </c>
       <c r="C1" t="s">
-        <v>773</v>
+        <v>911</v>
       </c>
       <c r="D1" t="s">
-        <v>774</v>
+        <v>912</v>
       </c>
       <c r="E1" t="s">
-        <v>775</v>
+        <v>913</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="B2" t="s">
-        <v>755</v>
+        <v>893</v>
       </c>
       <c r="C2">
         <v>2000</v>
@@ -2423,10 +2837,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="B3" t="s">
-        <v>755</v>
+        <v>893</v>
       </c>
       <c r="C3">
         <v>2001</v>
@@ -2440,10 +2854,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="B4" t="s">
-        <v>755</v>
+        <v>893</v>
       </c>
       <c r="C4">
         <v>2002</v>
@@ -2457,10 +2871,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="B5" t="s">
-        <v>755</v>
+        <v>893</v>
       </c>
       <c r="C5">
         <v>2003</v>
@@ -2474,10 +2888,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="B6" t="s">
-        <v>755</v>
+        <v>893</v>
       </c>
       <c r="C6">
         <v>2004</v>
@@ -2491,10 +2905,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="B7" t="s">
-        <v>755</v>
+        <v>893</v>
       </c>
       <c r="C7">
         <v>2005</v>
@@ -2508,10 +2922,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="B8" t="s">
-        <v>755</v>
+        <v>893</v>
       </c>
       <c r="C8">
         <v>2006</v>
@@ -2525,10 +2939,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="B9" t="s">
-        <v>755</v>
+        <v>893</v>
       </c>
       <c r="C9">
         <v>2007</v>
@@ -2542,10 +2956,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="B10" t="s">
-        <v>755</v>
+        <v>893</v>
       </c>
       <c r="C10">
         <v>2008</v>
@@ -2559,10 +2973,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="B11" t="s">
-        <v>755</v>
+        <v>893</v>
       </c>
       <c r="C11">
         <v>2009</v>
@@ -2576,10 +2990,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="B12" t="s">
-        <v>755</v>
+        <v>893</v>
       </c>
       <c r="C12">
         <v>2010</v>
@@ -2593,10 +3007,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="B13" t="s">
-        <v>755</v>
+        <v>893</v>
       </c>
       <c r="C13">
         <v>2011</v>
@@ -2610,10 +3024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="B14" t="s">
-        <v>755</v>
+        <v>893</v>
       </c>
       <c r="C14">
         <v>2012</v>
@@ -2627,10 +3041,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="B15" t="s">
-        <v>755</v>
+        <v>893</v>
       </c>
       <c r="C15">
         <v>2013</v>
@@ -2644,10 +3058,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="B16" t="s">
-        <v>755</v>
+        <v>893</v>
       </c>
       <c r="C16">
         <v>2014</v>
@@ -2661,10 +3075,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="B17" t="s">
-        <v>755</v>
+        <v>893</v>
       </c>
       <c r="C17">
         <v>2015</v>
@@ -2678,10 +3092,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="B18" t="s">
-        <v>755</v>
+        <v>893</v>
       </c>
       <c r="C18">
         <v>2016</v>
@@ -2695,10 +3109,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="B19" t="s">
-        <v>755</v>
+        <v>893</v>
       </c>
       <c r="C19">
         <v>2017</v>
@@ -2712,10 +3126,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="B20" t="s">
-        <v>755</v>
+        <v>893</v>
       </c>
       <c r="C20">
         <v>2018</v>
@@ -2729,10 +3143,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="B21" t="s">
-        <v>755</v>
+        <v>893</v>
       </c>
       <c r="C21">
         <v>2019</v>
@@ -2746,10 +3160,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="B22" t="s">
-        <v>755</v>
+        <v>893</v>
       </c>
       <c r="C22">
         <v>2020</v>
@@ -2763,10 +3177,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="B23" t="s">
-        <v>755</v>
+        <v>893</v>
       </c>
       <c r="C23">
         <v>2021</v>
@@ -2780,10 +3194,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="B24" t="s">
-        <v>755</v>
+        <v>893</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -2797,10 +3211,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="B25" t="s">
-        <v>755</v>
+        <v>893</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -2814,10 +3228,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="B26" t="s">
-        <v>755</v>
+        <v>893</v>
       </c>
       <c r="C26">
         <v>2024</v>
@@ -2831,10 +3245,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>737</v>
+        <v>875</v>
       </c>
       <c r="B27" t="s">
-        <v>756</v>
+        <v>894</v>
       </c>
       <c r="C27">
         <v>2000</v>
@@ -2848,10 +3262,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>737</v>
+        <v>875</v>
       </c>
       <c r="B28" t="s">
-        <v>756</v>
+        <v>894</v>
       </c>
       <c r="C28">
         <v>2001</v>
@@ -2865,10 +3279,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>737</v>
+        <v>875</v>
       </c>
       <c r="B29" t="s">
-        <v>756</v>
+        <v>894</v>
       </c>
       <c r="C29">
         <v>2002</v>
@@ -2882,10 +3296,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>737</v>
+        <v>875</v>
       </c>
       <c r="B30" t="s">
-        <v>756</v>
+        <v>894</v>
       </c>
       <c r="C30">
         <v>2003</v>
@@ -2899,10 +3313,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>737</v>
+        <v>875</v>
       </c>
       <c r="B31" t="s">
-        <v>756</v>
+        <v>894</v>
       </c>
       <c r="C31">
         <v>2004</v>
@@ -2916,10 +3330,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>737</v>
+        <v>875</v>
       </c>
       <c r="B32" t="s">
-        <v>756</v>
+        <v>894</v>
       </c>
       <c r="C32">
         <v>2005</v>
@@ -2933,10 +3347,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>737</v>
+        <v>875</v>
       </c>
       <c r="B33" t="s">
-        <v>756</v>
+        <v>894</v>
       </c>
       <c r="C33">
         <v>2006</v>
@@ -2950,10 +3364,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>737</v>
+        <v>875</v>
       </c>
       <c r="B34" t="s">
-        <v>756</v>
+        <v>894</v>
       </c>
       <c r="C34">
         <v>2007</v>
@@ -2967,10 +3381,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>737</v>
+        <v>875</v>
       </c>
       <c r="B35" t="s">
-        <v>756</v>
+        <v>894</v>
       </c>
       <c r="C35">
         <v>2008</v>
@@ -2984,10 +3398,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>737</v>
+        <v>875</v>
       </c>
       <c r="B36" t="s">
-        <v>756</v>
+        <v>894</v>
       </c>
       <c r="C36">
         <v>2009</v>
@@ -3001,10 +3415,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>737</v>
+        <v>875</v>
       </c>
       <c r="B37" t="s">
-        <v>756</v>
+        <v>894</v>
       </c>
       <c r="C37">
         <v>2010</v>
@@ -3018,10 +3432,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>737</v>
+        <v>875</v>
       </c>
       <c r="B38" t="s">
-        <v>756</v>
+        <v>894</v>
       </c>
       <c r="C38">
         <v>2011</v>
@@ -3035,10 +3449,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>737</v>
+        <v>875</v>
       </c>
       <c r="B39" t="s">
-        <v>756</v>
+        <v>894</v>
       </c>
       <c r="C39">
         <v>2012</v>
@@ -3052,10 +3466,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>737</v>
+        <v>875</v>
       </c>
       <c r="B40" t="s">
-        <v>756</v>
+        <v>894</v>
       </c>
       <c r="C40">
         <v>2013</v>
@@ -3069,10 +3483,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>737</v>
+        <v>875</v>
       </c>
       <c r="B41" t="s">
-        <v>756</v>
+        <v>894</v>
       </c>
       <c r="C41">
         <v>2014</v>
@@ -3086,10 +3500,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>737</v>
+        <v>875</v>
       </c>
       <c r="B42" t="s">
-        <v>756</v>
+        <v>894</v>
       </c>
       <c r="C42">
         <v>2015</v>
@@ -3103,10 +3517,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>737</v>
+        <v>875</v>
       </c>
       <c r="B43" t="s">
-        <v>756</v>
+        <v>894</v>
       </c>
       <c r="C43">
         <v>2016</v>
@@ -3120,10 +3534,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>737</v>
+        <v>875</v>
       </c>
       <c r="B44" t="s">
-        <v>756</v>
+        <v>894</v>
       </c>
       <c r="C44">
         <v>2017</v>
@@ -3137,10 +3551,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>737</v>
+        <v>875</v>
       </c>
       <c r="B45" t="s">
-        <v>756</v>
+        <v>894</v>
       </c>
       <c r="C45">
         <v>2018</v>
@@ -3154,10 +3568,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>737</v>
+        <v>875</v>
       </c>
       <c r="B46" t="s">
-        <v>756</v>
+        <v>894</v>
       </c>
       <c r="C46">
         <v>2019</v>
@@ -3171,10 +3585,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>737</v>
+        <v>875</v>
       </c>
       <c r="B47" t="s">
-        <v>756</v>
+        <v>894</v>
       </c>
       <c r="C47">
         <v>2020</v>
@@ -3188,10 +3602,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>737</v>
+        <v>875</v>
       </c>
       <c r="B48" t="s">
-        <v>756</v>
+        <v>894</v>
       </c>
       <c r="C48">
         <v>2021</v>
@@ -3205,10 +3619,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>737</v>
+        <v>875</v>
       </c>
       <c r="B49" t="s">
-        <v>756</v>
+        <v>894</v>
       </c>
       <c r="C49">
         <v>2022</v>
@@ -3222,10 +3636,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>737</v>
+        <v>875</v>
       </c>
       <c r="B50" t="s">
-        <v>756</v>
+        <v>894</v>
       </c>
       <c r="C50">
         <v>2023</v>
@@ -3239,10 +3653,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>737</v>
+        <v>875</v>
       </c>
       <c r="B51" t="s">
-        <v>756</v>
+        <v>894</v>
       </c>
       <c r="C51">
         <v>2024</v>
@@ -3256,10 +3670,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>738</v>
+        <v>876</v>
       </c>
       <c r="B52" t="s">
-        <v>757</v>
+        <v>895</v>
       </c>
       <c r="C52">
         <v>2000</v>
@@ -3273,10 +3687,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>738</v>
+        <v>876</v>
       </c>
       <c r="B53" t="s">
-        <v>757</v>
+        <v>895</v>
       </c>
       <c r="C53">
         <v>2001</v>
@@ -3290,10 +3704,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>738</v>
+        <v>876</v>
       </c>
       <c r="B54" t="s">
-        <v>757</v>
+        <v>895</v>
       </c>
       <c r="C54">
         <v>2002</v>
@@ -3307,10 +3721,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>738</v>
+        <v>876</v>
       </c>
       <c r="B55" t="s">
-        <v>757</v>
+        <v>895</v>
       </c>
       <c r="C55">
         <v>2003</v>
@@ -3324,10 +3738,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>738</v>
+        <v>876</v>
       </c>
       <c r="B56" t="s">
-        <v>757</v>
+        <v>895</v>
       </c>
       <c r="C56">
         <v>2004</v>
@@ -3341,10 +3755,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>738</v>
+        <v>876</v>
       </c>
       <c r="B57" t="s">
-        <v>757</v>
+        <v>895</v>
       </c>
       <c r="C57">
         <v>2005</v>
@@ -3358,10 +3772,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>738</v>
+        <v>876</v>
       </c>
       <c r="B58" t="s">
-        <v>757</v>
+        <v>895</v>
       </c>
       <c r="C58">
         <v>2006</v>
@@ -3375,10 +3789,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>738</v>
+        <v>876</v>
       </c>
       <c r="B59" t="s">
-        <v>757</v>
+        <v>895</v>
       </c>
       <c r="C59">
         <v>2007</v>
@@ -3392,10 +3806,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>738</v>
+        <v>876</v>
       </c>
       <c r="B60" t="s">
-        <v>757</v>
+        <v>895</v>
       </c>
       <c r="C60">
         <v>2008</v>
@@ -3409,10 +3823,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>738</v>
+        <v>876</v>
       </c>
       <c r="B61" t="s">
-        <v>757</v>
+        <v>895</v>
       </c>
       <c r="C61">
         <v>2009</v>
@@ -3426,10 +3840,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>738</v>
+        <v>876</v>
       </c>
       <c r="B62" t="s">
-        <v>757</v>
+        <v>895</v>
       </c>
       <c r="C62">
         <v>2010</v>
@@ -3443,10 +3857,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>738</v>
+        <v>876</v>
       </c>
       <c r="B63" t="s">
-        <v>757</v>
+        <v>895</v>
       </c>
       <c r="C63">
         <v>2011</v>
@@ -3460,10 +3874,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>738</v>
+        <v>876</v>
       </c>
       <c r="B64" t="s">
-        <v>757</v>
+        <v>895</v>
       </c>
       <c r="C64">
         <v>2012</v>
@@ -3477,10 +3891,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>738</v>
+        <v>876</v>
       </c>
       <c r="B65" t="s">
-        <v>757</v>
+        <v>895</v>
       </c>
       <c r="C65">
         <v>2013</v>
@@ -3494,10 +3908,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>738</v>
+        <v>876</v>
       </c>
       <c r="B66" t="s">
-        <v>757</v>
+        <v>895</v>
       </c>
       <c r="C66">
         <v>2014</v>
@@ -3511,10 +3925,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>738</v>
+        <v>876</v>
       </c>
       <c r="B67" t="s">
-        <v>757</v>
+        <v>895</v>
       </c>
       <c r="C67">
         <v>2015</v>
@@ -3528,10 +3942,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>738</v>
+        <v>876</v>
       </c>
       <c r="B68" t="s">
-        <v>757</v>
+        <v>895</v>
       </c>
       <c r="C68">
         <v>2016</v>
@@ -3545,10 +3959,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>738</v>
+        <v>876</v>
       </c>
       <c r="B69" t="s">
-        <v>757</v>
+        <v>895</v>
       </c>
       <c r="C69">
         <v>2017</v>
@@ -3562,10 +3976,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>738</v>
+        <v>876</v>
       </c>
       <c r="B70" t="s">
-        <v>757</v>
+        <v>895</v>
       </c>
       <c r="C70">
         <v>2018</v>
@@ -3579,10 +3993,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>738</v>
+        <v>876</v>
       </c>
       <c r="B71" t="s">
-        <v>757</v>
+        <v>895</v>
       </c>
       <c r="C71">
         <v>2019</v>
@@ -3596,10 +4010,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>738</v>
+        <v>876</v>
       </c>
       <c r="B72" t="s">
-        <v>757</v>
+        <v>895</v>
       </c>
       <c r="C72">
         <v>2020</v>
@@ -3613,10 +4027,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>738</v>
+        <v>876</v>
       </c>
       <c r="B73" t="s">
-        <v>757</v>
+        <v>895</v>
       </c>
       <c r="C73">
         <v>2021</v>
@@ -3630,10 +4044,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>738</v>
+        <v>876</v>
       </c>
       <c r="B74" t="s">
-        <v>757</v>
+        <v>895</v>
       </c>
       <c r="C74">
         <v>2022</v>
@@ -3647,10 +4061,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>738</v>
+        <v>876</v>
       </c>
       <c r="B75" t="s">
-        <v>757</v>
+        <v>895</v>
       </c>
       <c r="C75">
         <v>2023</v>
@@ -3664,10 +4078,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>738</v>
+        <v>876</v>
       </c>
       <c r="B76" t="s">
-        <v>757</v>
+        <v>895</v>
       </c>
       <c r="C76">
         <v>2024</v>
@@ -3681,10 +4095,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>739</v>
+        <v>877</v>
       </c>
       <c r="B77" t="s">
-        <v>758</v>
+        <v>896</v>
       </c>
       <c r="C77">
         <v>2000</v>
@@ -3698,10 +4112,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>739</v>
+        <v>877</v>
       </c>
       <c r="B78" t="s">
-        <v>758</v>
+        <v>896</v>
       </c>
       <c r="C78">
         <v>2001</v>
@@ -3715,10 +4129,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>739</v>
+        <v>877</v>
       </c>
       <c r="B79" t="s">
-        <v>758</v>
+        <v>896</v>
       </c>
       <c r="C79">
         <v>2002</v>
@@ -3732,10 +4146,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>739</v>
+        <v>877</v>
       </c>
       <c r="B80" t="s">
-        <v>758</v>
+        <v>896</v>
       </c>
       <c r="C80">
         <v>2003</v>
@@ -3749,10 +4163,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>739</v>
+        <v>877</v>
       </c>
       <c r="B81" t="s">
-        <v>758</v>
+        <v>896</v>
       </c>
       <c r="C81">
         <v>2004</v>
@@ -3766,10 +4180,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>739</v>
+        <v>877</v>
       </c>
       <c r="B82" t="s">
-        <v>758</v>
+        <v>896</v>
       </c>
       <c r="C82">
         <v>2005</v>
@@ -3783,10 +4197,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>739</v>
+        <v>877</v>
       </c>
       <c r="B83" t="s">
-        <v>758</v>
+        <v>896</v>
       </c>
       <c r="C83">
         <v>2006</v>
@@ -3800,10 +4214,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>739</v>
+        <v>877</v>
       </c>
       <c r="B84" t="s">
-        <v>758</v>
+        <v>896</v>
       </c>
       <c r="C84">
         <v>2007</v>
@@ -3817,10 +4231,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>739</v>
+        <v>877</v>
       </c>
       <c r="B85" t="s">
-        <v>758</v>
+        <v>896</v>
       </c>
       <c r="C85">
         <v>2008</v>
@@ -3834,10 +4248,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>739</v>
+        <v>877</v>
       </c>
       <c r="B86" t="s">
-        <v>758</v>
+        <v>896</v>
       </c>
       <c r="C86">
         <v>2009</v>
@@ -3851,10 +4265,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>739</v>
+        <v>877</v>
       </c>
       <c r="B87" t="s">
-        <v>758</v>
+        <v>896</v>
       </c>
       <c r="C87">
         <v>2010</v>
@@ -3868,10 +4282,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>739</v>
+        <v>877</v>
       </c>
       <c r="B88" t="s">
-        <v>758</v>
+        <v>896</v>
       </c>
       <c r="C88">
         <v>2011</v>
@@ -3885,10 +4299,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>739</v>
+        <v>877</v>
       </c>
       <c r="B89" t="s">
-        <v>758</v>
+        <v>896</v>
       </c>
       <c r="C89">
         <v>2012</v>
@@ -3902,10 +4316,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>739</v>
+        <v>877</v>
       </c>
       <c r="B90" t="s">
-        <v>758</v>
+        <v>896</v>
       </c>
       <c r="C90">
         <v>2013</v>
@@ -3919,10 +4333,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>739</v>
+        <v>877</v>
       </c>
       <c r="B91" t="s">
-        <v>758</v>
+        <v>896</v>
       </c>
       <c r="C91">
         <v>2014</v>
@@ -3936,10 +4350,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>739</v>
+        <v>877</v>
       </c>
       <c r="B92" t="s">
-        <v>758</v>
+        <v>896</v>
       </c>
       <c r="C92">
         <v>2015</v>
@@ -3953,10 +4367,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>739</v>
+        <v>877</v>
       </c>
       <c r="B93" t="s">
-        <v>758</v>
+        <v>896</v>
       </c>
       <c r="C93">
         <v>2016</v>
@@ -3970,10 +4384,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>739</v>
+        <v>877</v>
       </c>
       <c r="B94" t="s">
-        <v>758</v>
+        <v>896</v>
       </c>
       <c r="C94">
         <v>2017</v>
@@ -3987,10 +4401,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>739</v>
+        <v>877</v>
       </c>
       <c r="B95" t="s">
-        <v>758</v>
+        <v>896</v>
       </c>
       <c r="C95">
         <v>2018</v>
@@ -4004,10 +4418,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>739</v>
+        <v>877</v>
       </c>
       <c r="B96" t="s">
-        <v>758</v>
+        <v>896</v>
       </c>
       <c r="C96">
         <v>2019</v>
@@ -4021,10 +4435,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>739</v>
+        <v>877</v>
       </c>
       <c r="B97" t="s">
-        <v>758</v>
+        <v>896</v>
       </c>
       <c r="C97">
         <v>2020</v>
@@ -4038,10 +4452,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>739</v>
+        <v>877</v>
       </c>
       <c r="B98" t="s">
-        <v>758</v>
+        <v>896</v>
       </c>
       <c r="C98">
         <v>2021</v>
@@ -4055,10 +4469,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>739</v>
+        <v>877</v>
       </c>
       <c r="B99" t="s">
-        <v>758</v>
+        <v>896</v>
       </c>
       <c r="C99">
         <v>2022</v>
@@ -4072,10 +4486,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>739</v>
+        <v>877</v>
       </c>
       <c r="B100" t="s">
-        <v>758</v>
+        <v>896</v>
       </c>
       <c r="C100">
         <v>2023</v>
@@ -4089,10 +4503,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>739</v>
+        <v>877</v>
       </c>
       <c r="B101" t="s">
-        <v>758</v>
+        <v>896</v>
       </c>
       <c r="C101">
         <v>2024</v>
@@ -4106,10 +4520,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>740</v>
+        <v>878</v>
       </c>
       <c r="B102" t="s">
-        <v>759</v>
+        <v>897</v>
       </c>
       <c r="C102">
         <v>2000</v>
@@ -4123,10 +4537,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>740</v>
+        <v>878</v>
       </c>
       <c r="B103" t="s">
-        <v>759</v>
+        <v>897</v>
       </c>
       <c r="C103">
         <v>2001</v>
@@ -4140,10 +4554,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>740</v>
+        <v>878</v>
       </c>
       <c r="B104" t="s">
-        <v>759</v>
+        <v>897</v>
       </c>
       <c r="C104">
         <v>2002</v>
@@ -4157,10 +4571,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>740</v>
+        <v>878</v>
       </c>
       <c r="B105" t="s">
-        <v>759</v>
+        <v>897</v>
       </c>
       <c r="C105">
         <v>2003</v>
@@ -4174,10 +4588,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>740</v>
+        <v>878</v>
       </c>
       <c r="B106" t="s">
-        <v>759</v>
+        <v>897</v>
       </c>
       <c r="C106">
         <v>2004</v>
@@ -4191,10 +4605,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>740</v>
+        <v>878</v>
       </c>
       <c r="B107" t="s">
-        <v>759</v>
+        <v>897</v>
       </c>
       <c r="C107">
         <v>2005</v>
@@ -4208,10 +4622,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>740</v>
+        <v>878</v>
       </c>
       <c r="B108" t="s">
-        <v>759</v>
+        <v>897</v>
       </c>
       <c r="C108">
         <v>2006</v>
@@ -4225,10 +4639,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>740</v>
+        <v>878</v>
       </c>
       <c r="B109" t="s">
-        <v>759</v>
+        <v>897</v>
       </c>
       <c r="C109">
         <v>2007</v>
@@ -4242,10 +4656,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>740</v>
+        <v>878</v>
       </c>
       <c r="B110" t="s">
-        <v>759</v>
+        <v>897</v>
       </c>
       <c r="C110">
         <v>2008</v>
@@ -4259,10 +4673,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>740</v>
+        <v>878</v>
       </c>
       <c r="B111" t="s">
-        <v>759</v>
+        <v>897</v>
       </c>
       <c r="C111">
         <v>2009</v>
@@ -4276,10 +4690,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>740</v>
+        <v>878</v>
       </c>
       <c r="B112" t="s">
-        <v>759</v>
+        <v>897</v>
       </c>
       <c r="C112">
         <v>2010</v>
@@ -4293,10 +4707,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>740</v>
+        <v>878</v>
       </c>
       <c r="B113" t="s">
-        <v>759</v>
+        <v>897</v>
       </c>
       <c r="C113">
         <v>2011</v>
@@ -4310,10 +4724,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>740</v>
+        <v>878</v>
       </c>
       <c r="B114" t="s">
-        <v>759</v>
+        <v>897</v>
       </c>
       <c r="C114">
         <v>2012</v>
@@ -4327,10 +4741,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>740</v>
+        <v>878</v>
       </c>
       <c r="B115" t="s">
-        <v>759</v>
+        <v>897</v>
       </c>
       <c r="C115">
         <v>2013</v>
@@ -4344,10 +4758,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>740</v>
+        <v>878</v>
       </c>
       <c r="B116" t="s">
-        <v>759</v>
+        <v>897</v>
       </c>
       <c r="C116">
         <v>2014</v>
@@ -4361,10 +4775,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>740</v>
+        <v>878</v>
       </c>
       <c r="B117" t="s">
-        <v>759</v>
+        <v>897</v>
       </c>
       <c r="C117">
         <v>2015</v>
@@ -4378,10 +4792,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>740</v>
+        <v>878</v>
       </c>
       <c r="B118" t="s">
-        <v>759</v>
+        <v>897</v>
       </c>
       <c r="C118">
         <v>2016</v>
@@ -4395,10 +4809,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>740</v>
+        <v>878</v>
       </c>
       <c r="B119" t="s">
-        <v>759</v>
+        <v>897</v>
       </c>
       <c r="C119">
         <v>2017</v>
@@ -4412,10 +4826,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>740</v>
+        <v>878</v>
       </c>
       <c r="B120" t="s">
-        <v>759</v>
+        <v>897</v>
       </c>
       <c r="C120">
         <v>2018</v>
@@ -4429,10 +4843,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>740</v>
+        <v>878</v>
       </c>
       <c r="B121" t="s">
-        <v>759</v>
+        <v>897</v>
       </c>
       <c r="C121">
         <v>2019</v>
@@ -4446,10 +4860,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>740</v>
+        <v>878</v>
       </c>
       <c r="B122" t="s">
-        <v>759</v>
+        <v>897</v>
       </c>
       <c r="C122">
         <v>2020</v>
@@ -4463,10 +4877,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>740</v>
+        <v>878</v>
       </c>
       <c r="B123" t="s">
-        <v>759</v>
+        <v>897</v>
       </c>
       <c r="C123">
         <v>2021</v>
@@ -4480,10 +4894,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>740</v>
+        <v>878</v>
       </c>
       <c r="B124" t="s">
-        <v>759</v>
+        <v>897</v>
       </c>
       <c r="C124">
         <v>2022</v>
@@ -4497,10 +4911,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>740</v>
+        <v>878</v>
       </c>
       <c r="B125" t="s">
-        <v>759</v>
+        <v>897</v>
       </c>
       <c r="C125">
         <v>2023</v>
@@ -4514,10 +4928,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>740</v>
+        <v>878</v>
       </c>
       <c r="B126" t="s">
-        <v>759</v>
+        <v>897</v>
       </c>
       <c r="C126">
         <v>2024</v>
@@ -4531,10 +4945,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>741</v>
+        <v>879</v>
       </c>
       <c r="B127" t="s">
-        <v>760</v>
+        <v>898</v>
       </c>
       <c r="C127">
         <v>2000</v>
@@ -4548,10 +4962,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>741</v>
+        <v>879</v>
       </c>
       <c r="B128" t="s">
-        <v>760</v>
+        <v>898</v>
       </c>
       <c r="C128">
         <v>2001</v>
@@ -4565,10 +4979,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>741</v>
+        <v>879</v>
       </c>
       <c r="B129" t="s">
-        <v>760</v>
+        <v>898</v>
       </c>
       <c r="C129">
         <v>2002</v>
@@ -4582,10 +4996,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>741</v>
+        <v>879</v>
       </c>
       <c r="B130" t="s">
-        <v>760</v>
+        <v>898</v>
       </c>
       <c r="C130">
         <v>2003</v>
@@ -4599,10 +5013,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>741</v>
+        <v>879</v>
       </c>
       <c r="B131" t="s">
-        <v>760</v>
+        <v>898</v>
       </c>
       <c r="C131">
         <v>2004</v>
@@ -4616,10 +5030,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>741</v>
+        <v>879</v>
       </c>
       <c r="B132" t="s">
-        <v>760</v>
+        <v>898</v>
       </c>
       <c r="C132">
         <v>2005</v>
@@ -4633,10 +5047,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>741</v>
+        <v>879</v>
       </c>
       <c r="B133" t="s">
-        <v>760</v>
+        <v>898</v>
       </c>
       <c r="C133">
         <v>2006</v>
@@ -4650,10 +5064,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>741</v>
+        <v>879</v>
       </c>
       <c r="B134" t="s">
-        <v>760</v>
+        <v>898</v>
       </c>
       <c r="C134">
         <v>2007</v>
@@ -4667,10 +5081,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>741</v>
+        <v>879</v>
       </c>
       <c r="B135" t="s">
-        <v>760</v>
+        <v>898</v>
       </c>
       <c r="C135">
         <v>2008</v>
@@ -4684,10 +5098,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>741</v>
+        <v>879</v>
       </c>
       <c r="B136" t="s">
-        <v>760</v>
+        <v>898</v>
       </c>
       <c r="C136">
         <v>2009</v>
@@ -4701,10 +5115,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>741</v>
+        <v>879</v>
       </c>
       <c r="B137" t="s">
-        <v>760</v>
+        <v>898</v>
       </c>
       <c r="C137">
         <v>2010</v>
@@ -4718,10 +5132,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>741</v>
+        <v>879</v>
       </c>
       <c r="B138" t="s">
-        <v>760</v>
+        <v>898</v>
       </c>
       <c r="C138">
         <v>2011</v>
@@ -4735,10 +5149,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>741</v>
+        <v>879</v>
       </c>
       <c r="B139" t="s">
-        <v>760</v>
+        <v>898</v>
       </c>
       <c r="C139">
         <v>2012</v>
@@ -4752,10 +5166,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>741</v>
+        <v>879</v>
       </c>
       <c r="B140" t="s">
-        <v>760</v>
+        <v>898</v>
       </c>
       <c r="C140">
         <v>2013</v>
@@ -4769,10 +5183,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>741</v>
+        <v>879</v>
       </c>
       <c r="B141" t="s">
-        <v>760</v>
+        <v>898</v>
       </c>
       <c r="C141">
         <v>2014</v>
@@ -4786,10 +5200,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>741</v>
+        <v>879</v>
       </c>
       <c r="B142" t="s">
-        <v>760</v>
+        <v>898</v>
       </c>
       <c r="C142">
         <v>2015</v>
@@ -4803,10 +5217,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>741</v>
+        <v>879</v>
       </c>
       <c r="B143" t="s">
-        <v>760</v>
+        <v>898</v>
       </c>
       <c r="C143">
         <v>2016</v>
@@ -4820,10 +5234,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>741</v>
+        <v>879</v>
       </c>
       <c r="B144" t="s">
-        <v>760</v>
+        <v>898</v>
       </c>
       <c r="C144">
         <v>2017</v>
@@ -4837,10 +5251,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>741</v>
+        <v>879</v>
       </c>
       <c r="B145" t="s">
-        <v>760</v>
+        <v>898</v>
       </c>
       <c r="C145">
         <v>2018</v>
@@ -4854,10 +5268,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>741</v>
+        <v>879</v>
       </c>
       <c r="B146" t="s">
-        <v>760</v>
+        <v>898</v>
       </c>
       <c r="C146">
         <v>2019</v>
@@ -4871,10 +5285,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>741</v>
+        <v>879</v>
       </c>
       <c r="B147" t="s">
-        <v>760</v>
+        <v>898</v>
       </c>
       <c r="C147">
         <v>2020</v>
@@ -4888,10 +5302,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>741</v>
+        <v>879</v>
       </c>
       <c r="B148" t="s">
-        <v>760</v>
+        <v>898</v>
       </c>
       <c r="C148">
         <v>2021</v>
@@ -4905,10 +5319,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>741</v>
+        <v>879</v>
       </c>
       <c r="B149" t="s">
-        <v>760</v>
+        <v>898</v>
       </c>
       <c r="C149">
         <v>2022</v>
@@ -4922,10 +5336,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>741</v>
+        <v>879</v>
       </c>
       <c r="B150" t="s">
-        <v>760</v>
+        <v>898</v>
       </c>
       <c r="C150">
         <v>2023</v>
@@ -4939,10 +5353,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>741</v>
+        <v>879</v>
       </c>
       <c r="B151" t="s">
-        <v>760</v>
+        <v>898</v>
       </c>
       <c r="C151">
         <v>2024</v>
@@ -4956,10 +5370,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>742</v>
+        <v>880</v>
       </c>
       <c r="B152" t="s">
-        <v>761</v>
+        <v>899</v>
       </c>
       <c r="C152">
         <v>2000</v>
@@ -4973,10 +5387,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>742</v>
+        <v>880</v>
       </c>
       <c r="B153" t="s">
-        <v>761</v>
+        <v>899</v>
       </c>
       <c r="C153">
         <v>2001</v>
@@ -4990,10 +5404,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>742</v>
+        <v>880</v>
       </c>
       <c r="B154" t="s">
-        <v>761</v>
+        <v>899</v>
       </c>
       <c r="C154">
         <v>2002</v>
@@ -5007,10 +5421,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>742</v>
+        <v>880</v>
       </c>
       <c r="B155" t="s">
-        <v>761</v>
+        <v>899</v>
       </c>
       <c r="C155">
         <v>2003</v>
@@ -5024,10 +5438,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>742</v>
+        <v>880</v>
       </c>
       <c r="B156" t="s">
-        <v>761</v>
+        <v>899</v>
       </c>
       <c r="C156">
         <v>2004</v>
@@ -5041,10 +5455,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>742</v>
+        <v>880</v>
       </c>
       <c r="B157" t="s">
-        <v>761</v>
+        <v>899</v>
       </c>
       <c r="C157">
         <v>2005</v>
@@ -5058,10 +5472,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>742</v>
+        <v>880</v>
       </c>
       <c r="B158" t="s">
-        <v>761</v>
+        <v>899</v>
       </c>
       <c r="C158">
         <v>2006</v>
@@ -5075,10 +5489,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>742</v>
+        <v>880</v>
       </c>
       <c r="B159" t="s">
-        <v>761</v>
+        <v>899</v>
       </c>
       <c r="C159">
         <v>2007</v>
@@ -5092,10 +5506,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>742</v>
+        <v>880</v>
       </c>
       <c r="B160" t="s">
-        <v>761</v>
+        <v>899</v>
       </c>
       <c r="C160">
         <v>2008</v>
@@ -5109,10 +5523,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>742</v>
+        <v>880</v>
       </c>
       <c r="B161" t="s">
-        <v>761</v>
+        <v>899</v>
       </c>
       <c r="C161">
         <v>2009</v>
@@ -5126,10 +5540,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>742</v>
+        <v>880</v>
       </c>
       <c r="B162" t="s">
-        <v>761</v>
+        <v>899</v>
       </c>
       <c r="C162">
         <v>2010</v>
@@ -5143,10 +5557,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>742</v>
+        <v>880</v>
       </c>
       <c r="B163" t="s">
-        <v>761</v>
+        <v>899</v>
       </c>
       <c r="C163">
         <v>2011</v>
@@ -5160,10 +5574,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>742</v>
+        <v>880</v>
       </c>
       <c r="B164" t="s">
-        <v>761</v>
+        <v>899</v>
       </c>
       <c r="C164">
         <v>2012</v>
@@ -5177,10 +5591,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>742</v>
+        <v>880</v>
       </c>
       <c r="B165" t="s">
-        <v>761</v>
+        <v>899</v>
       </c>
       <c r="C165">
         <v>2013</v>
@@ -5194,10 +5608,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>742</v>
+        <v>880</v>
       </c>
       <c r="B166" t="s">
-        <v>761</v>
+        <v>899</v>
       </c>
       <c r="C166">
         <v>2014</v>
@@ -5211,10 +5625,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>742</v>
+        <v>880</v>
       </c>
       <c r="B167" t="s">
-        <v>761</v>
+        <v>899</v>
       </c>
       <c r="C167">
         <v>2015</v>
@@ -5228,10 +5642,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>742</v>
+        <v>880</v>
       </c>
       <c r="B168" t="s">
-        <v>761</v>
+        <v>899</v>
       </c>
       <c r="C168">
         <v>2016</v>
@@ -5245,10 +5659,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>742</v>
+        <v>880</v>
       </c>
       <c r="B169" t="s">
-        <v>761</v>
+        <v>899</v>
       </c>
       <c r="C169">
         <v>2017</v>
@@ -5262,10 +5676,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>742</v>
+        <v>880</v>
       </c>
       <c r="B170" t="s">
-        <v>761</v>
+        <v>899</v>
       </c>
       <c r="C170">
         <v>2018</v>
@@ -5279,10 +5693,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>742</v>
+        <v>880</v>
       </c>
       <c r="B171" t="s">
-        <v>761</v>
+        <v>899</v>
       </c>
       <c r="C171">
         <v>2019</v>
@@ -5296,10 +5710,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>742</v>
+        <v>880</v>
       </c>
       <c r="B172" t="s">
-        <v>761</v>
+        <v>899</v>
       </c>
       <c r="C172">
         <v>2020</v>
@@ -5313,10 +5727,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>742</v>
+        <v>880</v>
       </c>
       <c r="B173" t="s">
-        <v>761</v>
+        <v>899</v>
       </c>
       <c r="C173">
         <v>2021</v>
@@ -5330,10 +5744,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>742</v>
+        <v>880</v>
       </c>
       <c r="B174" t="s">
-        <v>761</v>
+        <v>899</v>
       </c>
       <c r="C174">
         <v>2022</v>
@@ -5347,10 +5761,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>742</v>
+        <v>880</v>
       </c>
       <c r="B175" t="s">
-        <v>761</v>
+        <v>899</v>
       </c>
       <c r="C175">
         <v>2023</v>
@@ -5364,10 +5778,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>742</v>
+        <v>880</v>
       </c>
       <c r="B176" t="s">
-        <v>761</v>
+        <v>899</v>
       </c>
       <c r="C176">
         <v>2024</v>
@@ -5381,10 +5795,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>743</v>
+        <v>881</v>
       </c>
       <c r="B177" t="s">
-        <v>762</v>
+        <v>900</v>
       </c>
       <c r="C177">
         <v>2000</v>
@@ -5398,10 +5812,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>743</v>
+        <v>881</v>
       </c>
       <c r="B178" t="s">
-        <v>762</v>
+        <v>900</v>
       </c>
       <c r="C178">
         <v>2001</v>
@@ -5415,10 +5829,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>743</v>
+        <v>881</v>
       </c>
       <c r="B179" t="s">
-        <v>762</v>
+        <v>900</v>
       </c>
       <c r="C179">
         <v>2002</v>
@@ -5432,10 +5846,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>743</v>
+        <v>881</v>
       </c>
       <c r="B180" t="s">
-        <v>762</v>
+        <v>900</v>
       </c>
       <c r="C180">
         <v>2003</v>
@@ -5449,10 +5863,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>743</v>
+        <v>881</v>
       </c>
       <c r="B181" t="s">
-        <v>762</v>
+        <v>900</v>
       </c>
       <c r="C181">
         <v>2004</v>
@@ -5466,10 +5880,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>743</v>
+        <v>881</v>
       </c>
       <c r="B182" t="s">
-        <v>762</v>
+        <v>900</v>
       </c>
       <c r="C182">
         <v>2005</v>
@@ -5483,10 +5897,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>743</v>
+        <v>881</v>
       </c>
       <c r="B183" t="s">
-        <v>762</v>
+        <v>900</v>
       </c>
       <c r="C183">
         <v>2006</v>
@@ -5500,10 +5914,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>743</v>
+        <v>881</v>
       </c>
       <c r="B184" t="s">
-        <v>762</v>
+        <v>900</v>
       </c>
       <c r="C184">
         <v>2007</v>
@@ -5517,10 +5931,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>743</v>
+        <v>881</v>
       </c>
       <c r="B185" t="s">
-        <v>762</v>
+        <v>900</v>
       </c>
       <c r="C185">
         <v>2008</v>
@@ -5534,10 +5948,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>743</v>
+        <v>881</v>
       </c>
       <c r="B186" t="s">
-        <v>762</v>
+        <v>900</v>
       </c>
       <c r="C186">
         <v>2009</v>
@@ -5551,10 +5965,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>743</v>
+        <v>881</v>
       </c>
       <c r="B187" t="s">
-        <v>762</v>
+        <v>900</v>
       </c>
       <c r="C187">
         <v>2010</v>
@@ -5568,10 +5982,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>743</v>
+        <v>881</v>
       </c>
       <c r="B188" t="s">
-        <v>762</v>
+        <v>900</v>
       </c>
       <c r="C188">
         <v>2011</v>
@@ -5585,10 +5999,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>743</v>
+        <v>881</v>
       </c>
       <c r="B189" t="s">
-        <v>762</v>
+        <v>900</v>
       </c>
       <c r="C189">
         <v>2012</v>
@@ -5602,10 +6016,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>743</v>
+        <v>881</v>
       </c>
       <c r="B190" t="s">
-        <v>762</v>
+        <v>900</v>
       </c>
       <c r="C190">
         <v>2013</v>
@@ -5619,10 +6033,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>743</v>
+        <v>881</v>
       </c>
       <c r="B191" t="s">
-        <v>762</v>
+        <v>900</v>
       </c>
       <c r="C191">
         <v>2014</v>
@@ -5636,10 +6050,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>743</v>
+        <v>881</v>
       </c>
       <c r="B192" t="s">
-        <v>762</v>
+        <v>900</v>
       </c>
       <c r="C192">
         <v>2015</v>
@@ -5653,10 +6067,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>743</v>
+        <v>881</v>
       </c>
       <c r="B193" t="s">
-        <v>762</v>
+        <v>900</v>
       </c>
       <c r="C193">
         <v>2016</v>
@@ -5670,10 +6084,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>743</v>
+        <v>881</v>
       </c>
       <c r="B194" t="s">
-        <v>762</v>
+        <v>900</v>
       </c>
       <c r="C194">
         <v>2017</v>
@@ -5687,10 +6101,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>743</v>
+        <v>881</v>
       </c>
       <c r="B195" t="s">
-        <v>762</v>
+        <v>900</v>
       </c>
       <c r="C195">
         <v>2018</v>
@@ -5704,10 +6118,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>743</v>
+        <v>881</v>
       </c>
       <c r="B196" t="s">
-        <v>762</v>
+        <v>900</v>
       </c>
       <c r="C196">
         <v>2019</v>
@@ -5721,10 +6135,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>743</v>
+        <v>881</v>
       </c>
       <c r="B197" t="s">
-        <v>762</v>
+        <v>900</v>
       </c>
       <c r="C197">
         <v>2020</v>
@@ -5738,10 +6152,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>743</v>
+        <v>881</v>
       </c>
       <c r="B198" t="s">
-        <v>762</v>
+        <v>900</v>
       </c>
       <c r="C198">
         <v>2021</v>
@@ -5755,10 +6169,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>743</v>
+        <v>881</v>
       </c>
       <c r="B199" t="s">
-        <v>762</v>
+        <v>900</v>
       </c>
       <c r="C199">
         <v>2022</v>
@@ -5772,10 +6186,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>743</v>
+        <v>881</v>
       </c>
       <c r="B200" t="s">
-        <v>762</v>
+        <v>900</v>
       </c>
       <c r="C200">
         <v>2023</v>
@@ -5789,10 +6203,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>743</v>
+        <v>881</v>
       </c>
       <c r="B201" t="s">
-        <v>762</v>
+        <v>900</v>
       </c>
       <c r="C201">
         <v>2024</v>
@@ -5806,10 +6220,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>744</v>
+        <v>882</v>
       </c>
       <c r="B202" t="s">
-        <v>763</v>
+        <v>901</v>
       </c>
       <c r="C202">
         <v>2000</v>
@@ -5823,10 +6237,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>744</v>
+        <v>882</v>
       </c>
       <c r="B203" t="s">
-        <v>763</v>
+        <v>901</v>
       </c>
       <c r="C203">
         <v>2001</v>
@@ -5840,10 +6254,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>744</v>
+        <v>882</v>
       </c>
       <c r="B204" t="s">
-        <v>763</v>
+        <v>901</v>
       </c>
       <c r="C204">
         <v>2002</v>
@@ -5857,10 +6271,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>744</v>
+        <v>882</v>
       </c>
       <c r="B205" t="s">
-        <v>763</v>
+        <v>901</v>
       </c>
       <c r="C205">
         <v>2003</v>
@@ -5874,10 +6288,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>744</v>
+        <v>882</v>
       </c>
       <c r="B206" t="s">
-        <v>763</v>
+        <v>901</v>
       </c>
       <c r="C206">
         <v>2004</v>
@@ -5891,10 +6305,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>744</v>
+        <v>882</v>
       </c>
       <c r="B207" t="s">
-        <v>763</v>
+        <v>901</v>
       </c>
       <c r="C207">
         <v>2005</v>
@@ -5908,10 +6322,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>744</v>
+        <v>882</v>
       </c>
       <c r="B208" t="s">
-        <v>763</v>
+        <v>901</v>
       </c>
       <c r="C208">
         <v>2006</v>
@@ -5925,10 +6339,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>744</v>
+        <v>882</v>
       </c>
       <c r="B209" t="s">
-        <v>763</v>
+        <v>901</v>
       </c>
       <c r="C209">
         <v>2007</v>
@@ -5942,10 +6356,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>744</v>
+        <v>882</v>
       </c>
       <c r="B210" t="s">
-        <v>763</v>
+        <v>901</v>
       </c>
       <c r="C210">
         <v>2008</v>
@@ -5959,10 +6373,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>744</v>
+        <v>882</v>
       </c>
       <c r="B211" t="s">
-        <v>763</v>
+        <v>901</v>
       </c>
       <c r="C211">
         <v>2009</v>
@@ -5976,10 +6390,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>744</v>
+        <v>882</v>
       </c>
       <c r="B212" t="s">
-        <v>763</v>
+        <v>901</v>
       </c>
       <c r="C212">
         <v>2010</v>
@@ -5993,10 +6407,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>744</v>
+        <v>882</v>
       </c>
       <c r="B213" t="s">
-        <v>763</v>
+        <v>901</v>
       </c>
       <c r="C213">
         <v>2011</v>
@@ -6010,10 +6424,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>744</v>
+        <v>882</v>
       </c>
       <c r="B214" t="s">
-        <v>763</v>
+        <v>901</v>
       </c>
       <c r="C214">
         <v>2012</v>
@@ -6027,10 +6441,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>744</v>
+        <v>882</v>
       </c>
       <c r="B215" t="s">
-        <v>763</v>
+        <v>901</v>
       </c>
       <c r="C215">
         <v>2013</v>
@@ -6044,10 +6458,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>744</v>
+        <v>882</v>
       </c>
       <c r="B216" t="s">
-        <v>763</v>
+        <v>901</v>
       </c>
       <c r="C216">
         <v>2014</v>
@@ -6061,10 +6475,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>744</v>
+        <v>882</v>
       </c>
       <c r="B217" t="s">
-        <v>763</v>
+        <v>901</v>
       </c>
       <c r="C217">
         <v>2015</v>
@@ -6078,10 +6492,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>744</v>
+        <v>882</v>
       </c>
       <c r="B218" t="s">
-        <v>763</v>
+        <v>901</v>
       </c>
       <c r="C218">
         <v>2016</v>
@@ -6095,10 +6509,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>744</v>
+        <v>882</v>
       </c>
       <c r="B219" t="s">
-        <v>763</v>
+        <v>901</v>
       </c>
       <c r="C219">
         <v>2017</v>
@@ -6112,10 +6526,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>744</v>
+        <v>882</v>
       </c>
       <c r="B220" t="s">
-        <v>763</v>
+        <v>901</v>
       </c>
       <c r="C220">
         <v>2018</v>
@@ -6129,10 +6543,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>744</v>
+        <v>882</v>
       </c>
       <c r="B221" t="s">
-        <v>763</v>
+        <v>901</v>
       </c>
       <c r="C221">
         <v>2019</v>
@@ -6146,10 +6560,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>744</v>
+        <v>882</v>
       </c>
       <c r="B222" t="s">
-        <v>763</v>
+        <v>901</v>
       </c>
       <c r="C222">
         <v>2020</v>
@@ -6163,10 +6577,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>744</v>
+        <v>882</v>
       </c>
       <c r="B223" t="s">
-        <v>763</v>
+        <v>901</v>
       </c>
       <c r="C223">
         <v>2021</v>
@@ -6180,10 +6594,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>744</v>
+        <v>882</v>
       </c>
       <c r="B224" t="s">
-        <v>763</v>
+        <v>901</v>
       </c>
       <c r="C224">
         <v>2022</v>
@@ -6197,10 +6611,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>744</v>
+        <v>882</v>
       </c>
       <c r="B225" t="s">
-        <v>763</v>
+        <v>901</v>
       </c>
       <c r="C225">
         <v>2023</v>
@@ -6214,10 +6628,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>744</v>
+        <v>882</v>
       </c>
       <c r="B226" t="s">
-        <v>763</v>
+        <v>901</v>
       </c>
       <c r="C226">
         <v>2024</v>
@@ -6231,10 +6645,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="B227" t="s">
-        <v>764</v>
+        <v>902</v>
       </c>
       <c r="C227">
         <v>2000</v>
@@ -6248,10 +6662,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="B228" t="s">
-        <v>764</v>
+        <v>902</v>
       </c>
       <c r="C228">
         <v>2001</v>
@@ -6265,10 +6679,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="B229" t="s">
-        <v>764</v>
+        <v>902</v>
       </c>
       <c r="C229">
         <v>2002</v>
@@ -6282,10 +6696,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="B230" t="s">
-        <v>764</v>
+        <v>902</v>
       </c>
       <c r="C230">
         <v>2003</v>
@@ -6299,10 +6713,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="B231" t="s">
-        <v>764</v>
+        <v>902</v>
       </c>
       <c r="C231">
         <v>2004</v>
@@ -6316,10 +6730,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="B232" t="s">
-        <v>764</v>
+        <v>902</v>
       </c>
       <c r="C232">
         <v>2005</v>
@@ -6333,10 +6747,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="B233" t="s">
-        <v>764</v>
+        <v>902</v>
       </c>
       <c r="C233">
         <v>2006</v>
@@ -6350,10 +6764,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="B234" t="s">
-        <v>764</v>
+        <v>902</v>
       </c>
       <c r="C234">
         <v>2007</v>
@@ -6367,10 +6781,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="B235" t="s">
-        <v>764</v>
+        <v>902</v>
       </c>
       <c r="C235">
         <v>2008</v>
@@ -6384,10 +6798,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="B236" t="s">
-        <v>764</v>
+        <v>902</v>
       </c>
       <c r="C236">
         <v>2009</v>
@@ -6401,10 +6815,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="B237" t="s">
-        <v>764</v>
+        <v>902</v>
       </c>
       <c r="C237">
         <v>2010</v>
@@ -6418,10 +6832,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="B238" t="s">
-        <v>764</v>
+        <v>902</v>
       </c>
       <c r="C238">
         <v>2011</v>
@@ -6435,10 +6849,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="B239" t="s">
-        <v>764</v>
+        <v>902</v>
       </c>
       <c r="C239">
         <v>2012</v>
@@ -6452,10 +6866,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="B240" t="s">
-        <v>764</v>
+        <v>902</v>
       </c>
       <c r="C240">
         <v>2013</v>
@@ -6469,10 +6883,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="B241" t="s">
-        <v>764</v>
+        <v>902</v>
       </c>
       <c r="C241">
         <v>2014</v>
@@ -6486,10 +6900,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="B242" t="s">
-        <v>764</v>
+        <v>902</v>
       </c>
       <c r="C242">
         <v>2015</v>
@@ -6503,10 +6917,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="B243" t="s">
-        <v>764</v>
+        <v>902</v>
       </c>
       <c r="C243">
         <v>2016</v>
@@ -6520,10 +6934,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="B244" t="s">
-        <v>764</v>
+        <v>902</v>
       </c>
       <c r="C244">
         <v>2017</v>
@@ -6537,10 +6951,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="B245" t="s">
-        <v>764</v>
+        <v>902</v>
       </c>
       <c r="C245">
         <v>2018</v>
@@ -6554,10 +6968,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="B246" t="s">
-        <v>764</v>
+        <v>902</v>
       </c>
       <c r="C246">
         <v>2019</v>
@@ -6571,10 +6985,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="B247" t="s">
-        <v>764</v>
+        <v>902</v>
       </c>
       <c r="C247">
         <v>2020</v>
@@ -6588,10 +7002,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="B248" t="s">
-        <v>764</v>
+        <v>902</v>
       </c>
       <c r="C248">
         <v>2021</v>
@@ -6605,10 +7019,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="B249" t="s">
-        <v>764</v>
+        <v>902</v>
       </c>
       <c r="C249">
         <v>2022</v>
@@ -6622,10 +7036,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="B250" t="s">
-        <v>764</v>
+        <v>902</v>
       </c>
       <c r="C250">
         <v>2023</v>
@@ -6639,10 +7053,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>745</v>
+        <v>883</v>
       </c>
       <c r="B251" t="s">
-        <v>764</v>
+        <v>902</v>
       </c>
       <c r="C251">
         <v>2024</v>
@@ -6656,10 +7070,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>746</v>
+        <v>884</v>
       </c>
       <c r="B252" t="s">
-        <v>765</v>
+        <v>903</v>
       </c>
       <c r="C252">
         <v>2000</v>
@@ -6673,10 +7087,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>746</v>
+        <v>884</v>
       </c>
       <c r="B253" t="s">
-        <v>765</v>
+        <v>903</v>
       </c>
       <c r="C253">
         <v>2001</v>
@@ -6690,10 +7104,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>746</v>
+        <v>884</v>
       </c>
       <c r="B254" t="s">
-        <v>765</v>
+        <v>903</v>
       </c>
       <c r="C254">
         <v>2002</v>
@@ -6707,10 +7121,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>746</v>
+        <v>884</v>
       </c>
       <c r="B255" t="s">
-        <v>765</v>
+        <v>903</v>
       </c>
       <c r="C255">
         <v>2003</v>
@@ -6724,10 +7138,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>746</v>
+        <v>884</v>
       </c>
       <c r="B256" t="s">
-        <v>765</v>
+        <v>903</v>
       </c>
       <c r="C256">
         <v>2004</v>
@@ -6741,10 +7155,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>746</v>
+        <v>884</v>
       </c>
       <c r="B257" t="s">
-        <v>765</v>
+        <v>903</v>
       </c>
       <c r="C257">
         <v>2005</v>
@@ -6758,10 +7172,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>746</v>
+        <v>884</v>
       </c>
       <c r="B258" t="s">
-        <v>765</v>
+        <v>903</v>
       </c>
       <c r="C258">
         <v>2006</v>
@@ -6775,10 +7189,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>746</v>
+        <v>884</v>
       </c>
       <c r="B259" t="s">
-        <v>765</v>
+        <v>903</v>
       </c>
       <c r="C259">
         <v>2007</v>
@@ -6792,10 +7206,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>746</v>
+        <v>884</v>
       </c>
       <c r="B260" t="s">
-        <v>765</v>
+        <v>903</v>
       </c>
       <c r="C260">
         <v>2008</v>
@@ -6809,10 +7223,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>746</v>
+        <v>884</v>
       </c>
       <c r="B261" t="s">
-        <v>765</v>
+        <v>903</v>
       </c>
       <c r="C261">
         <v>2009</v>
@@ -6826,10 +7240,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>746</v>
+        <v>884</v>
       </c>
       <c r="B262" t="s">
-        <v>765</v>
+        <v>903</v>
       </c>
       <c r="C262">
         <v>2010</v>
@@ -6843,10 +7257,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>746</v>
+        <v>884</v>
       </c>
       <c r="B263" t="s">
-        <v>765</v>
+        <v>903</v>
       </c>
       <c r="C263">
         <v>2011</v>
@@ -6860,10 +7274,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>746</v>
+        <v>884</v>
       </c>
       <c r="B264" t="s">
-        <v>765</v>
+        <v>903</v>
       </c>
       <c r="C264">
         <v>2012</v>
@@ -6877,10 +7291,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>746</v>
+        <v>884</v>
       </c>
       <c r="B265" t="s">
-        <v>765</v>
+        <v>903</v>
       </c>
       <c r="C265">
         <v>2013</v>
@@ -6894,10 +7308,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>746</v>
+        <v>884</v>
       </c>
       <c r="B266" t="s">
-        <v>765</v>
+        <v>903</v>
       </c>
       <c r="C266">
         <v>2014</v>
@@ -6911,10 +7325,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>746</v>
+        <v>884</v>
       </c>
       <c r="B267" t="s">
-        <v>765</v>
+        <v>903</v>
       </c>
       <c r="C267">
         <v>2015</v>
@@ -6928,10 +7342,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>746</v>
+        <v>884</v>
       </c>
       <c r="B268" t="s">
-        <v>765</v>
+        <v>903</v>
       </c>
       <c r="C268">
         <v>2016</v>
@@ -6945,10 +7359,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>746</v>
+        <v>884</v>
       </c>
       <c r="B269" t="s">
-        <v>765</v>
+        <v>903</v>
       </c>
       <c r="C269">
         <v>2017</v>
@@ -6962,10 +7376,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>746</v>
+        <v>884</v>
       </c>
       <c r="B270" t="s">
-        <v>765</v>
+        <v>903</v>
       </c>
       <c r="C270">
         <v>2018</v>
@@ -6979,10 +7393,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>746</v>
+        <v>884</v>
       </c>
       <c r="B271" t="s">
-        <v>765</v>
+        <v>903</v>
       </c>
       <c r="C271">
         <v>2019</v>
@@ -6996,10 +7410,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>746</v>
+        <v>884</v>
       </c>
       <c r="B272" t="s">
-        <v>765</v>
+        <v>903</v>
       </c>
       <c r="C272">
         <v>2020</v>
@@ -7013,10 +7427,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>746</v>
+        <v>884</v>
       </c>
       <c r="B273" t="s">
-        <v>765</v>
+        <v>903</v>
       </c>
       <c r="C273">
         <v>2021</v>
@@ -7030,10 +7444,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>746</v>
+        <v>884</v>
       </c>
       <c r="B274" t="s">
-        <v>765</v>
+        <v>903</v>
       </c>
       <c r="C274">
         <v>2022</v>
@@ -7047,10 +7461,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>746</v>
+        <v>884</v>
       </c>
       <c r="B275" t="s">
-        <v>765</v>
+        <v>903</v>
       </c>
       <c r="C275">
         <v>2023</v>
@@ -7064,10 +7478,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>746</v>
+        <v>884</v>
       </c>
       <c r="B276" t="s">
-        <v>765</v>
+        <v>903</v>
       </c>
       <c r="C276">
         <v>2024</v>
@@ -7081,10 +7495,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>747</v>
+        <v>885</v>
       </c>
       <c r="B277" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="C277">
         <v>2000</v>
@@ -7098,10 +7512,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>747</v>
+        <v>885</v>
       </c>
       <c r="B278" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="C278">
         <v>2001</v>
@@ -7115,10 +7529,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>747</v>
+        <v>885</v>
       </c>
       <c r="B279" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="C279">
         <v>2002</v>
@@ -7132,10 +7546,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>747</v>
+        <v>885</v>
       </c>
       <c r="B280" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="C280">
         <v>2003</v>
@@ -7149,10 +7563,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>747</v>
+        <v>885</v>
       </c>
       <c r="B281" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="C281">
         <v>2004</v>
@@ -7166,10 +7580,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>747</v>
+        <v>885</v>
       </c>
       <c r="B282" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="C282">
         <v>2005</v>
@@ -7183,10 +7597,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>747</v>
+        <v>885</v>
       </c>
       <c r="B283" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="C283">
         <v>2006</v>
@@ -7200,10 +7614,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>747</v>
+        <v>885</v>
       </c>
       <c r="B284" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="C284">
         <v>2007</v>
@@ -7217,10 +7631,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>747</v>
+        <v>885</v>
       </c>
       <c r="B285" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="C285">
         <v>2008</v>
@@ -7234,10 +7648,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>747</v>
+        <v>885</v>
       </c>
       <c r="B286" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="C286">
         <v>2009</v>
@@ -7251,10 +7665,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>747</v>
+        <v>885</v>
       </c>
       <c r="B287" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="C287">
         <v>2010</v>
@@ -7268,10 +7682,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>747</v>
+        <v>885</v>
       </c>
       <c r="B288" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="C288">
         <v>2011</v>
@@ -7285,10 +7699,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>747</v>
+        <v>885</v>
       </c>
       <c r="B289" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="C289">
         <v>2012</v>
@@ -7302,10 +7716,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>747</v>
+        <v>885</v>
       </c>
       <c r="B290" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="C290">
         <v>2013</v>
@@ -7319,10 +7733,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>747</v>
+        <v>885</v>
       </c>
       <c r="B291" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="C291">
         <v>2014</v>
@@ -7336,10 +7750,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>747</v>
+        <v>885</v>
       </c>
       <c r="B292" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="C292">
         <v>2015</v>
@@ -7353,10 +7767,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>747</v>
+        <v>885</v>
       </c>
       <c r="B293" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="C293">
         <v>2016</v>
@@ -7370,10 +7784,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>747</v>
+        <v>885</v>
       </c>
       <c r="B294" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="C294">
         <v>2017</v>
@@ -7387,10 +7801,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>747</v>
+        <v>885</v>
       </c>
       <c r="B295" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="C295">
         <v>2018</v>
@@ -7404,10 +7818,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>747</v>
+        <v>885</v>
       </c>
       <c r="B296" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="C296">
         <v>2019</v>
@@ -7421,10 +7835,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>747</v>
+        <v>885</v>
       </c>
       <c r="B297" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="C297">
         <v>2020</v>
@@ -7438,10 +7852,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>747</v>
+        <v>885</v>
       </c>
       <c r="B298" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="C298">
         <v>2021</v>
@@ -7455,10 +7869,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>747</v>
+        <v>885</v>
       </c>
       <c r="B299" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="C299">
         <v>2022</v>
@@ -7472,10 +7886,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>747</v>
+        <v>885</v>
       </c>
       <c r="B300" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="C300">
         <v>2023</v>
@@ -7489,10 +7903,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>747</v>
+        <v>885</v>
       </c>
       <c r="B301" t="s">
-        <v>766</v>
+        <v>904</v>
       </c>
       <c r="C301">
         <v>2024</v>
@@ -7506,10 +7920,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="B302" t="s">
-        <v>767</v>
+        <v>905</v>
       </c>
       <c r="C302">
         <v>2000</v>
@@ -7523,10 +7937,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="B303" t="s">
-        <v>767</v>
+        <v>905</v>
       </c>
       <c r="C303">
         <v>2001</v>
@@ -7540,10 +7954,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="B304" t="s">
-        <v>767</v>
+        <v>905</v>
       </c>
       <c r="C304">
         <v>2002</v>
@@ -7557,10 +7971,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="B305" t="s">
-        <v>767</v>
+        <v>905</v>
       </c>
       <c r="C305">
         <v>2003</v>
@@ -7574,10 +7988,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="B306" t="s">
-        <v>767</v>
+        <v>905</v>
       </c>
       <c r="C306">
         <v>2004</v>
@@ -7591,10 +8005,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="B307" t="s">
-        <v>767</v>
+        <v>905</v>
       </c>
       <c r="C307">
         <v>2005</v>
@@ -7608,10 +8022,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="B308" t="s">
-        <v>767</v>
+        <v>905</v>
       </c>
       <c r="C308">
         <v>2006</v>
@@ -7625,10 +8039,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="B309" t="s">
-        <v>767</v>
+        <v>905</v>
       </c>
       <c r="C309">
         <v>2007</v>
@@ -7642,10 +8056,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="B310" t="s">
-        <v>767</v>
+        <v>905</v>
       </c>
       <c r="C310">
         <v>2008</v>
@@ -7659,10 +8073,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="B311" t="s">
-        <v>767</v>
+        <v>905</v>
       </c>
       <c r="C311">
         <v>2009</v>
@@ -7676,10 +8090,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="B312" t="s">
-        <v>767</v>
+        <v>905</v>
       </c>
       <c r="C312">
         <v>2010</v>
@@ -7693,10 +8107,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="B313" t="s">
-        <v>767</v>
+        <v>905</v>
       </c>
       <c r="C313">
         <v>2011</v>
@@ -7710,10 +8124,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="B314" t="s">
-        <v>767</v>
+        <v>905</v>
       </c>
       <c r="C314">
         <v>2012</v>
@@ -7727,10 +8141,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="B315" t="s">
-        <v>767</v>
+        <v>905</v>
       </c>
       <c r="C315">
         <v>2013</v>
@@ -7744,10 +8158,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="B316" t="s">
-        <v>767</v>
+        <v>905</v>
       </c>
       <c r="C316">
         <v>2014</v>
@@ -7761,10 +8175,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="B317" t="s">
-        <v>767</v>
+        <v>905</v>
       </c>
       <c r="C317">
         <v>2015</v>
@@ -7778,10 +8192,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="B318" t="s">
-        <v>767</v>
+        <v>905</v>
       </c>
       <c r="C318">
         <v>2016</v>
@@ -7795,10 +8209,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="B319" t="s">
-        <v>767</v>
+        <v>905</v>
       </c>
       <c r="C319">
         <v>2017</v>
@@ -7812,10 +8226,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="B320" t="s">
-        <v>767</v>
+        <v>905</v>
       </c>
       <c r="C320">
         <v>2018</v>
@@ -7829,10 +8243,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="B321" t="s">
-        <v>767</v>
+        <v>905</v>
       </c>
       <c r="C321">
         <v>2019</v>
@@ -7846,10 +8260,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="B322" t="s">
-        <v>767</v>
+        <v>905</v>
       </c>
       <c r="C322">
         <v>2020</v>
@@ -7863,10 +8277,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="B323" t="s">
-        <v>767</v>
+        <v>905</v>
       </c>
       <c r="C323">
         <v>2021</v>
@@ -7880,10 +8294,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="B324" t="s">
-        <v>767</v>
+        <v>905</v>
       </c>
       <c r="C324">
         <v>2022</v>
@@ -7897,10 +8311,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="B325" t="s">
-        <v>767</v>
+        <v>905</v>
       </c>
       <c r="C325">
         <v>2023</v>
@@ -7914,10 +8328,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="B326" t="s">
-        <v>767</v>
+        <v>905</v>
       </c>
       <c r="C326">
         <v>2024</v>
@@ -7931,10 +8345,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="B327" t="s">
-        <v>768</v>
+        <v>906</v>
       </c>
       <c r="C327">
         <v>2000</v>
@@ -7948,10 +8362,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="B328" t="s">
-        <v>768</v>
+        <v>906</v>
       </c>
       <c r="C328">
         <v>2001</v>
@@ -7965,10 +8379,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="B329" t="s">
-        <v>768</v>
+        <v>906</v>
       </c>
       <c r="C329">
         <v>2002</v>
@@ -7982,10 +8396,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="B330" t="s">
-        <v>768</v>
+        <v>906</v>
       </c>
       <c r="C330">
         <v>2003</v>
@@ -7999,10 +8413,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="B331" t="s">
-        <v>768</v>
+        <v>906</v>
       </c>
       <c r="C331">
         <v>2004</v>
@@ -8016,10 +8430,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="B332" t="s">
-        <v>768</v>
+        <v>906</v>
       </c>
       <c r="C332">
         <v>2005</v>
@@ -8033,10 +8447,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="B333" t="s">
-        <v>768</v>
+        <v>906</v>
       </c>
       <c r="C333">
         <v>2006</v>
@@ -8050,10 +8464,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="B334" t="s">
-        <v>768</v>
+        <v>906</v>
       </c>
       <c r="C334">
         <v>2007</v>
@@ -8067,10 +8481,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="B335" t="s">
-        <v>768</v>
+        <v>906</v>
       </c>
       <c r="C335">
         <v>2008</v>
@@ -8084,10 +8498,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="B336" t="s">
-        <v>768</v>
+        <v>906</v>
       </c>
       <c r="C336">
         <v>2009</v>
@@ -8101,10 +8515,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="B337" t="s">
-        <v>768</v>
+        <v>906</v>
       </c>
       <c r="C337">
         <v>2010</v>
@@ -8118,10 +8532,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="B338" t="s">
-        <v>768</v>
+        <v>906</v>
       </c>
       <c r="C338">
         <v>2011</v>
@@ -8135,10 +8549,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="B339" t="s">
-        <v>768</v>
+        <v>906</v>
       </c>
       <c r="C339">
         <v>2012</v>
@@ -8152,10 +8566,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="B340" t="s">
-        <v>768</v>
+        <v>906</v>
       </c>
       <c r="C340">
         <v>2013</v>
@@ -8169,10 +8583,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="B341" t="s">
-        <v>768</v>
+        <v>906</v>
       </c>
       <c r="C341">
         <v>2014</v>
@@ -8186,10 +8600,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="B342" t="s">
-        <v>768</v>
+        <v>906</v>
       </c>
       <c r="C342">
         <v>2015</v>
@@ -8203,10 +8617,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="B343" t="s">
-        <v>768</v>
+        <v>906</v>
       </c>
       <c r="C343">
         <v>2016</v>
@@ -8220,10 +8634,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="B344" t="s">
-        <v>768</v>
+        <v>906</v>
       </c>
       <c r="C344">
         <v>2017</v>
@@ -8237,10 +8651,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="B345" t="s">
-        <v>768</v>
+        <v>906</v>
       </c>
       <c r="C345">
         <v>2018</v>
@@ -8254,10 +8668,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="B346" t="s">
-        <v>768</v>
+        <v>906</v>
       </c>
       <c r="C346">
         <v>2019</v>
@@ -8271,10 +8685,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="B347" t="s">
-        <v>768</v>
+        <v>906</v>
       </c>
       <c r="C347">
         <v>2020</v>
@@ -8288,10 +8702,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="B348" t="s">
-        <v>768</v>
+        <v>906</v>
       </c>
       <c r="C348">
         <v>2021</v>
@@ -8305,10 +8719,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="B349" t="s">
-        <v>768</v>
+        <v>906</v>
       </c>
       <c r="C349">
         <v>2022</v>
@@ -8322,10 +8736,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="B350" t="s">
-        <v>768</v>
+        <v>906</v>
       </c>
       <c r="C350">
         <v>2023</v>
@@ -8339,10 +8753,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="B351" t="s">
-        <v>768</v>
+        <v>906</v>
       </c>
       <c r="C351">
         <v>2024</v>
@@ -8356,10 +8770,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>750</v>
+        <v>888</v>
       </c>
       <c r="B352" t="s">
-        <v>769</v>
+        <v>907</v>
       </c>
       <c r="C352">
         <v>2000</v>
@@ -8373,10 +8787,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>750</v>
+        <v>888</v>
       </c>
       <c r="B353" t="s">
-        <v>769</v>
+        <v>907</v>
       </c>
       <c r="C353">
         <v>2001</v>
@@ -8390,10 +8804,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>750</v>
+        <v>888</v>
       </c>
       <c r="B354" t="s">
-        <v>769</v>
+        <v>907</v>
       </c>
       <c r="C354">
         <v>2002</v>
@@ -8407,10 +8821,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>750</v>
+        <v>888</v>
       </c>
       <c r="B355" t="s">
-        <v>769</v>
+        <v>907</v>
       </c>
       <c r="C355">
         <v>2003</v>
@@ -8424,10 +8838,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>750</v>
+        <v>888</v>
       </c>
       <c r="B356" t="s">
-        <v>769</v>
+        <v>907</v>
       </c>
       <c r="C356">
         <v>2004</v>
@@ -8441,10 +8855,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>750</v>
+        <v>888</v>
       </c>
       <c r="B357" t="s">
-        <v>769</v>
+        <v>907</v>
       </c>
       <c r="C357">
         <v>2005</v>
@@ -8458,10 +8872,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>750</v>
+        <v>888</v>
       </c>
       <c r="B358" t="s">
-        <v>769</v>
+        <v>907</v>
       </c>
       <c r="C358">
         <v>2006</v>
@@ -8475,10 +8889,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>750</v>
+        <v>888</v>
       </c>
       <c r="B359" t="s">
-        <v>769</v>
+        <v>907</v>
       </c>
       <c r="C359">
         <v>2007</v>
@@ -8492,10 +8906,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>750</v>
+        <v>888</v>
       </c>
       <c r="B360" t="s">
-        <v>769</v>
+        <v>907</v>
       </c>
       <c r="C360">
         <v>2008</v>
@@ -8509,10 +8923,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>750</v>
+        <v>888</v>
       </c>
       <c r="B361" t="s">
-        <v>769</v>
+        <v>907</v>
       </c>
       <c r="C361">
         <v>2009</v>
@@ -8526,10 +8940,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>750</v>
+        <v>888</v>
       </c>
       <c r="B362" t="s">
-        <v>769</v>
+        <v>907</v>
       </c>
       <c r="C362">
         <v>2010</v>
@@ -8543,10 +8957,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>750</v>
+        <v>888</v>
       </c>
       <c r="B363" t="s">
-        <v>769</v>
+        <v>907</v>
       </c>
       <c r="C363">
         <v>2011</v>
@@ -8560,10 +8974,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>750</v>
+        <v>888</v>
       </c>
       <c r="B364" t="s">
-        <v>769</v>
+        <v>907</v>
       </c>
       <c r="C364">
         <v>2012</v>
@@ -8577,10 +8991,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>750</v>
+        <v>888</v>
       </c>
       <c r="B365" t="s">
-        <v>769</v>
+        <v>907</v>
       </c>
       <c r="C365">
         <v>2013</v>
@@ -8594,10 +9008,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>750</v>
+        <v>888</v>
       </c>
       <c r="B366" t="s">
-        <v>769</v>
+        <v>907</v>
       </c>
       <c r="C366">
         <v>2014</v>
@@ -8611,10 +9025,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>750</v>
+        <v>888</v>
       </c>
       <c r="B367" t="s">
-        <v>769</v>
+        <v>907</v>
       </c>
       <c r="C367">
         <v>2015</v>
@@ -8628,10 +9042,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>750</v>
+        <v>888</v>
       </c>
       <c r="B368" t="s">
-        <v>769</v>
+        <v>907</v>
       </c>
       <c r="C368">
         <v>2016</v>
@@ -8645,10 +9059,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>750</v>
+        <v>888</v>
       </c>
       <c r="B369" t="s">
-        <v>769</v>
+        <v>907</v>
       </c>
       <c r="C369">
         <v>2017</v>
@@ -8662,10 +9076,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>750</v>
+        <v>888</v>
       </c>
       <c r="B370" t="s">
-        <v>769</v>
+        <v>907</v>
       </c>
       <c r="C370">
         <v>2018</v>
@@ -8679,10 +9093,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>750</v>
+        <v>888</v>
       </c>
       <c r="B371" t="s">
-        <v>769</v>
+        <v>907</v>
       </c>
       <c r="C371">
         <v>2019</v>
@@ -8696,10 +9110,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>750</v>
+        <v>888</v>
       </c>
       <c r="B372" t="s">
-        <v>769</v>
+        <v>907</v>
       </c>
       <c r="C372">
         <v>2020</v>
@@ -8713,10 +9127,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>750</v>
+        <v>888</v>
       </c>
       <c r="B373" t="s">
-        <v>769</v>
+        <v>907</v>
       </c>
       <c r="C373">
         <v>2021</v>
@@ -8730,10 +9144,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>750</v>
+        <v>888</v>
       </c>
       <c r="B374" t="s">
-        <v>769</v>
+        <v>907</v>
       </c>
       <c r="C374">
         <v>2022</v>
@@ -8747,10 +9161,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>750</v>
+        <v>888</v>
       </c>
       <c r="B375" t="s">
-        <v>769</v>
+        <v>907</v>
       </c>
       <c r="C375">
         <v>2023</v>
@@ -8764,10 +9178,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>750</v>
+        <v>888</v>
       </c>
       <c r="B376" t="s">
-        <v>769</v>
+        <v>907</v>
       </c>
       <c r="C376">
         <v>2024</v>
@@ -8781,10 +9195,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>751</v>
+        <v>889</v>
       </c>
       <c r="B377" t="s">
-        <v>770</v>
+        <v>908</v>
       </c>
       <c r="C377">
         <v>2000</v>
@@ -8798,10 +9212,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>751</v>
+        <v>889</v>
       </c>
       <c r="B378" t="s">
-        <v>770</v>
+        <v>908</v>
       </c>
       <c r="C378">
         <v>2001</v>
@@ -8815,10 +9229,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>751</v>
+        <v>889</v>
       </c>
       <c r="B379" t="s">
-        <v>770</v>
+        <v>908</v>
       </c>
       <c r="C379">
         <v>2002</v>
@@ -8832,10 +9246,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>751</v>
+        <v>889</v>
       </c>
       <c r="B380" t="s">
-        <v>770</v>
+        <v>908</v>
       </c>
       <c r="C380">
         <v>2003</v>
@@ -8849,10 +9263,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>751</v>
+        <v>889</v>
       </c>
       <c r="B381" t="s">
-        <v>770</v>
+        <v>908</v>
       </c>
       <c r="C381">
         <v>2004</v>
@@ -8866,10 +9280,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>751</v>
+        <v>889</v>
       </c>
       <c r="B382" t="s">
-        <v>770</v>
+        <v>908</v>
       </c>
       <c r="C382">
         <v>2005</v>
@@ -8883,10 +9297,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>751</v>
+        <v>889</v>
       </c>
       <c r="B383" t="s">
-        <v>770</v>
+        <v>908</v>
       </c>
       <c r="C383">
         <v>2006</v>
@@ -8900,10 +9314,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>751</v>
+        <v>889</v>
       </c>
       <c r="B384" t="s">
-        <v>770</v>
+        <v>908</v>
       </c>
       <c r="C384">
         <v>2007</v>
@@ -8917,10 +9331,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>751</v>
+        <v>889</v>
       </c>
       <c r="B385" t="s">
-        <v>770</v>
+        <v>908</v>
       </c>
       <c r="C385">
         <v>2008</v>
@@ -8934,10 +9348,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>751</v>
+        <v>889</v>
       </c>
       <c r="B386" t="s">
-        <v>770</v>
+        <v>908</v>
       </c>
       <c r="C386">
         <v>2009</v>
@@ -8951,10 +9365,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>751</v>
+        <v>889</v>
       </c>
       <c r="B387" t="s">
-        <v>770</v>
+        <v>908</v>
       </c>
       <c r="C387">
         <v>2010</v>
@@ -8968,10 +9382,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>751</v>
+        <v>889</v>
       </c>
       <c r="B388" t="s">
-        <v>770</v>
+        <v>908</v>
       </c>
       <c r="C388">
         <v>2011</v>
@@ -8985,10 +9399,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>751</v>
+        <v>889</v>
       </c>
       <c r="B389" t="s">
-        <v>770</v>
+        <v>908</v>
       </c>
       <c r="C389">
         <v>2012</v>
@@ -9002,10 +9416,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>751</v>
+        <v>889</v>
       </c>
       <c r="B390" t="s">
-        <v>770</v>
+        <v>908</v>
       </c>
       <c r="C390">
         <v>2013</v>
@@ -9019,10 +9433,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>751</v>
+        <v>889</v>
       </c>
       <c r="B391" t="s">
-        <v>770</v>
+        <v>908</v>
       </c>
       <c r="C391">
         <v>2014</v>
@@ -9036,10 +9450,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>751</v>
+        <v>889</v>
       </c>
       <c r="B392" t="s">
-        <v>770</v>
+        <v>908</v>
       </c>
       <c r="C392">
         <v>2015</v>
@@ -9053,10 +9467,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>751</v>
+        <v>889</v>
       </c>
       <c r="B393" t="s">
-        <v>770</v>
+        <v>908</v>
       </c>
       <c r="C393">
         <v>2016</v>
@@ -9070,10 +9484,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>751</v>
+        <v>889</v>
       </c>
       <c r="B394" t="s">
-        <v>770</v>
+        <v>908</v>
       </c>
       <c r="C394">
         <v>2017</v>
@@ -9087,10 +9501,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>751</v>
+        <v>889</v>
       </c>
       <c r="B395" t="s">
-        <v>770</v>
+        <v>908</v>
       </c>
       <c r="C395">
         <v>2018</v>
@@ -9104,10 +9518,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>751</v>
+        <v>889</v>
       </c>
       <c r="B396" t="s">
-        <v>770</v>
+        <v>908</v>
       </c>
       <c r="C396">
         <v>2019</v>
@@ -9121,10 +9535,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>751</v>
+        <v>889</v>
       </c>
       <c r="B397" t="s">
-        <v>770</v>
+        <v>908</v>
       </c>
       <c r="C397">
         <v>2020</v>
@@ -9138,10 +9552,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>751</v>
+        <v>889</v>
       </c>
       <c r="B398" t="s">
-        <v>770</v>
+        <v>908</v>
       </c>
       <c r="C398">
         <v>2021</v>
@@ -9155,10 +9569,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>751</v>
+        <v>889</v>
       </c>
       <c r="B399" t="s">
-        <v>770</v>
+        <v>908</v>
       </c>
       <c r="C399">
         <v>2022</v>
@@ -9172,10 +9586,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>751</v>
+        <v>889</v>
       </c>
       <c r="B400" t="s">
-        <v>770</v>
+        <v>908</v>
       </c>
       <c r="C400">
         <v>2023</v>
@@ -9189,10 +9603,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>751</v>
+        <v>889</v>
       </c>
       <c r="B401" t="s">
-        <v>770</v>
+        <v>908</v>
       </c>
       <c r="C401">
         <v>2024</v>
@@ -9206,10 +9620,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>752</v>
+        <v>890</v>
       </c>
       <c r="B402" t="s">
-        <v>771</v>
+        <v>909</v>
       </c>
       <c r="C402">
         <v>2000</v>
@@ -9223,10 +9637,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>752</v>
+        <v>890</v>
       </c>
       <c r="B403" t="s">
-        <v>771</v>
+        <v>909</v>
       </c>
       <c r="C403">
         <v>2001</v>
@@ -9240,10 +9654,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>752</v>
+        <v>890</v>
       </c>
       <c r="B404" t="s">
-        <v>771</v>
+        <v>909</v>
       </c>
       <c r="C404">
         <v>2002</v>
@@ -9257,10 +9671,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>752</v>
+        <v>890</v>
       </c>
       <c r="B405" t="s">
-        <v>771</v>
+        <v>909</v>
       </c>
       <c r="C405">
         <v>2003</v>
@@ -9274,10 +9688,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>752</v>
+        <v>890</v>
       </c>
       <c r="B406" t="s">
-        <v>771</v>
+        <v>909</v>
       </c>
       <c r="C406">
         <v>2004</v>
@@ -9291,10 +9705,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>752</v>
+        <v>890</v>
       </c>
       <c r="B407" t="s">
-        <v>771</v>
+        <v>909</v>
       </c>
       <c r="C407">
         <v>2005</v>
@@ -9308,10 +9722,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>752</v>
+        <v>890</v>
       </c>
       <c r="B408" t="s">
-        <v>771</v>
+        <v>909</v>
       </c>
       <c r="C408">
         <v>2006</v>
@@ -9325,10 +9739,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>752</v>
+        <v>890</v>
       </c>
       <c r="B409" t="s">
-        <v>771</v>
+        <v>909</v>
       </c>
       <c r="C409">
         <v>2007</v>
@@ -9342,10 +9756,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>752</v>
+        <v>890</v>
       </c>
       <c r="B410" t="s">
-        <v>771</v>
+        <v>909</v>
       </c>
       <c r="C410">
         <v>2008</v>
@@ -9359,10 +9773,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>752</v>
+        <v>890</v>
       </c>
       <c r="B411" t="s">
-        <v>771</v>
+        <v>909</v>
       </c>
       <c r="C411">
         <v>2009</v>
@@ -9376,10 +9790,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>752</v>
+        <v>890</v>
       </c>
       <c r="B412" t="s">
-        <v>771</v>
+        <v>909</v>
       </c>
       <c r="C412">
         <v>2010</v>
@@ -9393,10 +9807,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>752</v>
+        <v>890</v>
       </c>
       <c r="B413" t="s">
-        <v>771</v>
+        <v>909</v>
       </c>
       <c r="C413">
         <v>2011</v>
@@ -9410,10 +9824,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>752</v>
+        <v>890</v>
       </c>
       <c r="B414" t="s">
-        <v>771</v>
+        <v>909</v>
       </c>
       <c r="C414">
         <v>2012</v>
@@ -9427,10 +9841,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>752</v>
+        <v>890</v>
       </c>
       <c r="B415" t="s">
-        <v>771</v>
+        <v>909</v>
       </c>
       <c r="C415">
         <v>2013</v>
@@ -9444,10 +9858,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>752</v>
+        <v>890</v>
       </c>
       <c r="B416" t="s">
-        <v>771</v>
+        <v>909</v>
       </c>
       <c r="C416">
         <v>2014</v>
@@ -9461,10 +9875,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>752</v>
+        <v>890</v>
       </c>
       <c r="B417" t="s">
-        <v>771</v>
+        <v>909</v>
       </c>
       <c r="C417">
         <v>2015</v>
@@ -9478,10 +9892,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>752</v>
+        <v>890</v>
       </c>
       <c r="B418" t="s">
-        <v>771</v>
+        <v>909</v>
       </c>
       <c r="C418">
         <v>2016</v>
@@ -9495,10 +9909,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>752</v>
+        <v>890</v>
       </c>
       <c r="B419" t="s">
-        <v>771</v>
+        <v>909</v>
       </c>
       <c r="C419">
         <v>2017</v>
@@ -9512,10 +9926,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>752</v>
+        <v>890</v>
       </c>
       <c r="B420" t="s">
-        <v>771</v>
+        <v>909</v>
       </c>
       <c r="C420">
         <v>2018</v>
@@ -9529,10 +9943,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>752</v>
+        <v>890</v>
       </c>
       <c r="B421" t="s">
-        <v>771</v>
+        <v>909</v>
       </c>
       <c r="C421">
         <v>2019</v>
@@ -9546,10 +9960,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>752</v>
+        <v>890</v>
       </c>
       <c r="B422" t="s">
-        <v>771</v>
+        <v>909</v>
       </c>
       <c r="C422">
         <v>2020</v>
@@ -9563,10 +9977,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>752</v>
+        <v>890</v>
       </c>
       <c r="B423" t="s">
-        <v>771</v>
+        <v>909</v>
       </c>
       <c r="C423">
         <v>2021</v>
@@ -9580,10 +9994,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>752</v>
+        <v>890</v>
       </c>
       <c r="B424" t="s">
-        <v>771</v>
+        <v>909</v>
       </c>
       <c r="C424">
         <v>2022</v>
@@ -9597,10 +10011,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>752</v>
+        <v>890</v>
       </c>
       <c r="B425" t="s">
-        <v>771</v>
+        <v>909</v>
       </c>
       <c r="C425">
         <v>2023</v>
@@ -9614,10 +10028,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>752</v>
+        <v>890</v>
       </c>
       <c r="B426" t="s">
-        <v>771</v>
+        <v>909</v>
       </c>
       <c r="C426">
         <v>2024</v>
@@ -9631,10 +10045,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>753</v>
+        <v>891</v>
       </c>
       <c r="B427" t="s">
-        <v>772</v>
+        <v>910</v>
       </c>
       <c r="C427">
         <v>2000</v>
@@ -9648,10 +10062,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>753</v>
+        <v>891</v>
       </c>
       <c r="B428" t="s">
-        <v>772</v>
+        <v>910</v>
       </c>
       <c r="C428">
         <v>2001</v>
@@ -9665,10 +10079,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>753</v>
+        <v>891</v>
       </c>
       <c r="B429" t="s">
-        <v>772</v>
+        <v>910</v>
       </c>
       <c r="C429">
         <v>2002</v>
@@ -9682,10 +10096,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>753</v>
+        <v>891</v>
       </c>
       <c r="B430" t="s">
-        <v>772</v>
+        <v>910</v>
       </c>
       <c r="C430">
         <v>2003</v>
@@ -9699,10 +10113,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>753</v>
+        <v>891</v>
       </c>
       <c r="B431" t="s">
-        <v>772</v>
+        <v>910</v>
       </c>
       <c r="C431">
         <v>2004</v>
@@ -9716,10 +10130,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>753</v>
+        <v>891</v>
       </c>
       <c r="B432" t="s">
-        <v>772</v>
+        <v>910</v>
       </c>
       <c r="C432">
         <v>2005</v>
@@ -9733,10 +10147,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>753</v>
+        <v>891</v>
       </c>
       <c r="B433" t="s">
-        <v>772</v>
+        <v>910</v>
       </c>
       <c r="C433">
         <v>2006</v>
@@ -9750,10 +10164,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>753</v>
+        <v>891</v>
       </c>
       <c r="B434" t="s">
-        <v>772</v>
+        <v>910</v>
       </c>
       <c r="C434">
         <v>2007</v>
@@ -9767,10 +10181,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>753</v>
+        <v>891</v>
       </c>
       <c r="B435" t="s">
-        <v>772</v>
+        <v>910</v>
       </c>
       <c r="C435">
         <v>2008</v>
@@ -9784,10 +10198,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>753</v>
+        <v>891</v>
       </c>
       <c r="B436" t="s">
-        <v>772</v>
+        <v>910</v>
       </c>
       <c r="C436">
         <v>2009</v>
@@ -9801,10 +10215,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>753</v>
+        <v>891</v>
       </c>
       <c r="B437" t="s">
-        <v>772</v>
+        <v>910</v>
       </c>
       <c r="C437">
         <v>2010</v>
@@ -9818,10 +10232,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>753</v>
+        <v>891</v>
       </c>
       <c r="B438" t="s">
-        <v>772</v>
+        <v>910</v>
       </c>
       <c r="C438">
         <v>2011</v>
@@ -9835,10 +10249,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>753</v>
+        <v>891</v>
       </c>
       <c r="B439" t="s">
-        <v>772</v>
+        <v>910</v>
       </c>
       <c r="C439">
         <v>2012</v>
@@ -9852,10 +10266,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>753</v>
+        <v>891</v>
       </c>
       <c r="B440" t="s">
-        <v>772</v>
+        <v>910</v>
       </c>
       <c r="C440">
         <v>2013</v>
@@ -9869,10 +10283,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>753</v>
+        <v>891</v>
       </c>
       <c r="B441" t="s">
-        <v>772</v>
+        <v>910</v>
       </c>
       <c r="C441">
         <v>2014</v>
@@ -9886,10 +10300,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>753</v>
+        <v>891</v>
       </c>
       <c r="B442" t="s">
-        <v>772</v>
+        <v>910</v>
       </c>
       <c r="C442">
         <v>2015</v>
@@ -9903,10 +10317,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>753</v>
+        <v>891</v>
       </c>
       <c r="B443" t="s">
-        <v>772</v>
+        <v>910</v>
       </c>
       <c r="C443">
         <v>2016</v>
@@ -9920,10 +10334,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>753</v>
+        <v>891</v>
       </c>
       <c r="B444" t="s">
-        <v>772</v>
+        <v>910</v>
       </c>
       <c r="C444">
         <v>2017</v>
@@ -9937,10 +10351,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>753</v>
+        <v>891</v>
       </c>
       <c r="B445" t="s">
-        <v>772</v>
+        <v>910</v>
       </c>
       <c r="C445">
         <v>2018</v>
@@ -9954,10 +10368,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>753</v>
+        <v>891</v>
       </c>
       <c r="B446" t="s">
-        <v>772</v>
+        <v>910</v>
       </c>
       <c r="C446">
         <v>2019</v>
@@ -9971,10 +10385,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>753</v>
+        <v>891</v>
       </c>
       <c r="B447" t="s">
-        <v>772</v>
+        <v>910</v>
       </c>
       <c r="C447">
         <v>2020</v>
@@ -9988,10 +10402,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>753</v>
+        <v>891</v>
       </c>
       <c r="B448" t="s">
-        <v>772</v>
+        <v>910</v>
       </c>
       <c r="C448">
         <v>2021</v>
@@ -10005,10 +10419,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>753</v>
+        <v>891</v>
       </c>
       <c r="B449" t="s">
-        <v>772</v>
+        <v>910</v>
       </c>
       <c r="C449">
         <v>2022</v>
@@ -10022,10 +10436,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>753</v>
+        <v>891</v>
       </c>
       <c r="B450" t="s">
-        <v>772</v>
+        <v>910</v>
       </c>
       <c r="C450">
         <v>2023</v>
@@ -10039,10 +10453,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>753</v>
+        <v>891</v>
       </c>
       <c r="B451" t="s">
-        <v>772</v>
+        <v>910</v>
       </c>
       <c r="C451">
         <v>2024</v>

--- a/input_data/prices_WID/infl_xrates_wid_wb.xlsx
+++ b/input_data/prices_WID/infl_xrates_wid_wb.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17906" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19303" uniqueCount="983">
   <si>
     <t>countrycode</t>
   </si>
@@ -2134,6 +2134,213 @@
   </si>
   <si>
     <t>cpi_2023</t>
+  </si>
+  <si>
+    <t>countrycode</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>defl_2023</t>
+  </si>
+  <si>
+    <t>xppp_eur</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>cpi_2023</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>BOL</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>GTM</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>PRY</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>countrycode</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>defl_xxxx</t>
+  </si>
+  <si>
+    <t>xppp_eur</t>
   </si>
   <si>
     <t>countrycode</t>
@@ -2803,27 +3010,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>873</v>
+        <v>942</v>
       </c>
       <c r="B1" t="s">
-        <v>892</v>
+        <v>961</v>
       </c>
       <c r="C1" t="s">
-        <v>911</v>
+        <v>980</v>
       </c>
       <c r="D1" t="s">
-        <v>912</v>
+        <v>981</v>
       </c>
       <c r="E1" t="s">
-        <v>913</v>
+        <v>982</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>874</v>
+        <v>943</v>
       </c>
       <c r="B2" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="C2">
         <v>2000</v>
@@ -2837,10 +3044,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>874</v>
+        <v>943</v>
       </c>
       <c r="B3" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="C3">
         <v>2001</v>
@@ -2854,10 +3061,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>874</v>
+        <v>943</v>
       </c>
       <c r="B4" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="C4">
         <v>2002</v>
@@ -2871,10 +3078,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>874</v>
+        <v>943</v>
       </c>
       <c r="B5" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="C5">
         <v>2003</v>
@@ -2888,10 +3095,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>874</v>
+        <v>943</v>
       </c>
       <c r="B6" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="C6">
         <v>2004</v>
@@ -2905,10 +3112,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>874</v>
+        <v>943</v>
       </c>
       <c r="B7" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="C7">
         <v>2005</v>
@@ -2922,10 +3129,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>874</v>
+        <v>943</v>
       </c>
       <c r="B8" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="C8">
         <v>2006</v>
@@ -2939,10 +3146,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>874</v>
+        <v>943</v>
       </c>
       <c r="B9" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="C9">
         <v>2007</v>
@@ -2956,10 +3163,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>874</v>
+        <v>943</v>
       </c>
       <c r="B10" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="C10">
         <v>2008</v>
@@ -2973,10 +3180,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>874</v>
+        <v>943</v>
       </c>
       <c r="B11" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="C11">
         <v>2009</v>
@@ -2990,10 +3197,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>874</v>
+        <v>943</v>
       </c>
       <c r="B12" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="C12">
         <v>2010</v>
@@ -3007,10 +3214,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>874</v>
+        <v>943</v>
       </c>
       <c r="B13" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="C13">
         <v>2011</v>
@@ -3024,10 +3231,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>874</v>
+        <v>943</v>
       </c>
       <c r="B14" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="C14">
         <v>2012</v>
@@ -3041,10 +3248,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>874</v>
+        <v>943</v>
       </c>
       <c r="B15" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="C15">
         <v>2013</v>
@@ -3058,10 +3265,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>874</v>
+        <v>943</v>
       </c>
       <c r="B16" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="C16">
         <v>2014</v>
@@ -3075,10 +3282,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>874</v>
+        <v>943</v>
       </c>
       <c r="B17" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="C17">
         <v>2015</v>
@@ -3092,10 +3299,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>874</v>
+        <v>943</v>
       </c>
       <c r="B18" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="C18">
         <v>2016</v>
@@ -3109,10 +3316,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>874</v>
+        <v>943</v>
       </c>
       <c r="B19" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="C19">
         <v>2017</v>
@@ -3126,10 +3333,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>874</v>
+        <v>943</v>
       </c>
       <c r="B20" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="C20">
         <v>2018</v>
@@ -3143,10 +3350,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>874</v>
+        <v>943</v>
       </c>
       <c r="B21" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="C21">
         <v>2019</v>
@@ -3160,10 +3367,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>874</v>
+        <v>943</v>
       </c>
       <c r="B22" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="C22">
         <v>2020</v>
@@ -3177,10 +3384,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>874</v>
+        <v>943</v>
       </c>
       <c r="B23" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="C23">
         <v>2021</v>
@@ -3194,10 +3401,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>874</v>
+        <v>943</v>
       </c>
       <c r="B24" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -3211,10 +3418,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>874</v>
+        <v>943</v>
       </c>
       <c r="B25" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -3228,10 +3435,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>874</v>
+        <v>943</v>
       </c>
       <c r="B26" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="C26">
         <v>2024</v>
@@ -3245,10 +3452,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>875</v>
+        <v>944</v>
       </c>
       <c r="B27" t="s">
-        <v>894</v>
+        <v>963</v>
       </c>
       <c r="C27">
         <v>2000</v>
@@ -3262,10 +3469,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>875</v>
+        <v>944</v>
       </c>
       <c r="B28" t="s">
-        <v>894</v>
+        <v>963</v>
       </c>
       <c r="C28">
         <v>2001</v>
@@ -3279,10 +3486,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>875</v>
+        <v>944</v>
       </c>
       <c r="B29" t="s">
-        <v>894</v>
+        <v>963</v>
       </c>
       <c r="C29">
         <v>2002</v>
@@ -3296,10 +3503,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>875</v>
+        <v>944</v>
       </c>
       <c r="B30" t="s">
-        <v>894</v>
+        <v>963</v>
       </c>
       <c r="C30">
         <v>2003</v>
@@ -3313,10 +3520,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>875</v>
+        <v>944</v>
       </c>
       <c r="B31" t="s">
-        <v>894</v>
+        <v>963</v>
       </c>
       <c r="C31">
         <v>2004</v>
@@ -3330,10 +3537,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>875</v>
+        <v>944</v>
       </c>
       <c r="B32" t="s">
-        <v>894</v>
+        <v>963</v>
       </c>
       <c r="C32">
         <v>2005</v>
@@ -3347,10 +3554,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>875</v>
+        <v>944</v>
       </c>
       <c r="B33" t="s">
-        <v>894</v>
+        <v>963</v>
       </c>
       <c r="C33">
         <v>2006</v>
@@ -3364,10 +3571,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>875</v>
+        <v>944</v>
       </c>
       <c r="B34" t="s">
-        <v>894</v>
+        <v>963</v>
       </c>
       <c r="C34">
         <v>2007</v>
@@ -3381,10 +3588,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>875</v>
+        <v>944</v>
       </c>
       <c r="B35" t="s">
-        <v>894</v>
+        <v>963</v>
       </c>
       <c r="C35">
         <v>2008</v>
@@ -3398,10 +3605,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>875</v>
+        <v>944</v>
       </c>
       <c r="B36" t="s">
-        <v>894</v>
+        <v>963</v>
       </c>
       <c r="C36">
         <v>2009</v>
@@ -3415,10 +3622,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>875</v>
+        <v>944</v>
       </c>
       <c r="B37" t="s">
-        <v>894</v>
+        <v>963</v>
       </c>
       <c r="C37">
         <v>2010</v>
@@ -3432,10 +3639,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>875</v>
+        <v>944</v>
       </c>
       <c r="B38" t="s">
-        <v>894</v>
+        <v>963</v>
       </c>
       <c r="C38">
         <v>2011</v>
@@ -3449,10 +3656,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>875</v>
+        <v>944</v>
       </c>
       <c r="B39" t="s">
-        <v>894</v>
+        <v>963</v>
       </c>
       <c r="C39">
         <v>2012</v>
@@ -3466,10 +3673,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>875</v>
+        <v>944</v>
       </c>
       <c r="B40" t="s">
-        <v>894</v>
+        <v>963</v>
       </c>
       <c r="C40">
         <v>2013</v>
@@ -3483,10 +3690,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>875</v>
+        <v>944</v>
       </c>
       <c r="B41" t="s">
-        <v>894</v>
+        <v>963</v>
       </c>
       <c r="C41">
         <v>2014</v>
@@ -3500,10 +3707,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>875</v>
+        <v>944</v>
       </c>
       <c r="B42" t="s">
-        <v>894</v>
+        <v>963</v>
       </c>
       <c r="C42">
         <v>2015</v>
@@ -3517,10 +3724,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>875</v>
+        <v>944</v>
       </c>
       <c r="B43" t="s">
-        <v>894</v>
+        <v>963</v>
       </c>
       <c r="C43">
         <v>2016</v>
@@ -3534,10 +3741,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>875</v>
+        <v>944</v>
       </c>
       <c r="B44" t="s">
-        <v>894</v>
+        <v>963</v>
       </c>
       <c r="C44">
         <v>2017</v>
@@ -3551,10 +3758,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>875</v>
+        <v>944</v>
       </c>
       <c r="B45" t="s">
-        <v>894</v>
+        <v>963</v>
       </c>
       <c r="C45">
         <v>2018</v>
@@ -3568,10 +3775,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>875</v>
+        <v>944</v>
       </c>
       <c r="B46" t="s">
-        <v>894</v>
+        <v>963</v>
       </c>
       <c r="C46">
         <v>2019</v>
@@ -3585,10 +3792,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>875</v>
+        <v>944</v>
       </c>
       <c r="B47" t="s">
-        <v>894</v>
+        <v>963</v>
       </c>
       <c r="C47">
         <v>2020</v>
@@ -3602,10 +3809,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>875</v>
+        <v>944</v>
       </c>
       <c r="B48" t="s">
-        <v>894</v>
+        <v>963</v>
       </c>
       <c r="C48">
         <v>2021</v>
@@ -3619,10 +3826,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>875</v>
+        <v>944</v>
       </c>
       <c r="B49" t="s">
-        <v>894</v>
+        <v>963</v>
       </c>
       <c r="C49">
         <v>2022</v>
@@ -3636,10 +3843,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>875</v>
+        <v>944</v>
       </c>
       <c r="B50" t="s">
-        <v>894</v>
+        <v>963</v>
       </c>
       <c r="C50">
         <v>2023</v>
@@ -3653,10 +3860,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>875</v>
+        <v>944</v>
       </c>
       <c r="B51" t="s">
-        <v>894</v>
+        <v>963</v>
       </c>
       <c r="C51">
         <v>2024</v>
@@ -3670,10 +3877,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>876</v>
+        <v>945</v>
       </c>
       <c r="B52" t="s">
-        <v>895</v>
+        <v>964</v>
       </c>
       <c r="C52">
         <v>2000</v>
@@ -3687,10 +3894,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>876</v>
+        <v>945</v>
       </c>
       <c r="B53" t="s">
-        <v>895</v>
+        <v>964</v>
       </c>
       <c r="C53">
         <v>2001</v>
@@ -3704,10 +3911,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>876</v>
+        <v>945</v>
       </c>
       <c r="B54" t="s">
-        <v>895</v>
+        <v>964</v>
       </c>
       <c r="C54">
         <v>2002</v>
@@ -3721,10 +3928,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>876</v>
+        <v>945</v>
       </c>
       <c r="B55" t="s">
-        <v>895</v>
+        <v>964</v>
       </c>
       <c r="C55">
         <v>2003</v>
@@ -3738,10 +3945,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>876</v>
+        <v>945</v>
       </c>
       <c r="B56" t="s">
-        <v>895</v>
+        <v>964</v>
       </c>
       <c r="C56">
         <v>2004</v>
@@ -3755,10 +3962,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>876</v>
+        <v>945</v>
       </c>
       <c r="B57" t="s">
-        <v>895</v>
+        <v>964</v>
       </c>
       <c r="C57">
         <v>2005</v>
@@ -3772,10 +3979,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>876</v>
+        <v>945</v>
       </c>
       <c r="B58" t="s">
-        <v>895</v>
+        <v>964</v>
       </c>
       <c r="C58">
         <v>2006</v>
@@ -3789,10 +3996,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>876</v>
+        <v>945</v>
       </c>
       <c r="B59" t="s">
-        <v>895</v>
+        <v>964</v>
       </c>
       <c r="C59">
         <v>2007</v>
@@ -3806,10 +4013,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>876</v>
+        <v>945</v>
       </c>
       <c r="B60" t="s">
-        <v>895</v>
+        <v>964</v>
       </c>
       <c r="C60">
         <v>2008</v>
@@ -3823,10 +4030,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>876</v>
+        <v>945</v>
       </c>
       <c r="B61" t="s">
-        <v>895</v>
+        <v>964</v>
       </c>
       <c r="C61">
         <v>2009</v>
@@ -3840,10 +4047,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>876</v>
+        <v>945</v>
       </c>
       <c r="B62" t="s">
-        <v>895</v>
+        <v>964</v>
       </c>
       <c r="C62">
         <v>2010</v>
@@ -3857,10 +4064,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>876</v>
+        <v>945</v>
       </c>
       <c r="B63" t="s">
-        <v>895</v>
+        <v>964</v>
       </c>
       <c r="C63">
         <v>2011</v>
@@ -3874,10 +4081,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>876</v>
+        <v>945</v>
       </c>
       <c r="B64" t="s">
-        <v>895</v>
+        <v>964</v>
       </c>
       <c r="C64">
         <v>2012</v>
@@ -3891,10 +4098,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>876</v>
+        <v>945</v>
       </c>
       <c r="B65" t="s">
-        <v>895</v>
+        <v>964</v>
       </c>
       <c r="C65">
         <v>2013</v>
@@ -3908,10 +4115,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>876</v>
+        <v>945</v>
       </c>
       <c r="B66" t="s">
-        <v>895</v>
+        <v>964</v>
       </c>
       <c r="C66">
         <v>2014</v>
@@ -3925,10 +4132,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>876</v>
+        <v>945</v>
       </c>
       <c r="B67" t="s">
-        <v>895</v>
+        <v>964</v>
       </c>
       <c r="C67">
         <v>2015</v>
@@ -3942,10 +4149,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>876</v>
+        <v>945</v>
       </c>
       <c r="B68" t="s">
-        <v>895</v>
+        <v>964</v>
       </c>
       <c r="C68">
         <v>2016</v>
@@ -3959,10 +4166,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>876</v>
+        <v>945</v>
       </c>
       <c r="B69" t="s">
-        <v>895</v>
+        <v>964</v>
       </c>
       <c r="C69">
         <v>2017</v>
@@ -3976,10 +4183,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>876</v>
+        <v>945</v>
       </c>
       <c r="B70" t="s">
-        <v>895</v>
+        <v>964</v>
       </c>
       <c r="C70">
         <v>2018</v>
@@ -3993,10 +4200,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>876</v>
+        <v>945</v>
       </c>
       <c r="B71" t="s">
-        <v>895</v>
+        <v>964</v>
       </c>
       <c r="C71">
         <v>2019</v>
@@ -4010,10 +4217,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>876</v>
+        <v>945</v>
       </c>
       <c r="B72" t="s">
-        <v>895</v>
+        <v>964</v>
       </c>
       <c r="C72">
         <v>2020</v>
@@ -4027,10 +4234,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>876</v>
+        <v>945</v>
       </c>
       <c r="B73" t="s">
-        <v>895</v>
+        <v>964</v>
       </c>
       <c r="C73">
         <v>2021</v>
@@ -4044,10 +4251,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>876</v>
+        <v>945</v>
       </c>
       <c r="B74" t="s">
-        <v>895</v>
+        <v>964</v>
       </c>
       <c r="C74">
         <v>2022</v>
@@ -4061,10 +4268,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>876</v>
+        <v>945</v>
       </c>
       <c r="B75" t="s">
-        <v>895</v>
+        <v>964</v>
       </c>
       <c r="C75">
         <v>2023</v>
@@ -4078,10 +4285,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>876</v>
+        <v>945</v>
       </c>
       <c r="B76" t="s">
-        <v>895</v>
+        <v>964</v>
       </c>
       <c r="C76">
         <v>2024</v>
@@ -4095,10 +4302,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>877</v>
+        <v>946</v>
       </c>
       <c r="B77" t="s">
-        <v>896</v>
+        <v>965</v>
       </c>
       <c r="C77">
         <v>2000</v>
@@ -4112,10 +4319,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>877</v>
+        <v>946</v>
       </c>
       <c r="B78" t="s">
-        <v>896</v>
+        <v>965</v>
       </c>
       <c r="C78">
         <v>2001</v>
@@ -4129,10 +4336,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>877</v>
+        <v>946</v>
       </c>
       <c r="B79" t="s">
-        <v>896</v>
+        <v>965</v>
       </c>
       <c r="C79">
         <v>2002</v>
@@ -4146,10 +4353,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>877</v>
+        <v>946</v>
       </c>
       <c r="B80" t="s">
-        <v>896</v>
+        <v>965</v>
       </c>
       <c r="C80">
         <v>2003</v>
@@ -4163,10 +4370,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>877</v>
+        <v>946</v>
       </c>
       <c r="B81" t="s">
-        <v>896</v>
+        <v>965</v>
       </c>
       <c r="C81">
         <v>2004</v>
@@ -4180,10 +4387,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>877</v>
+        <v>946</v>
       </c>
       <c r="B82" t="s">
-        <v>896</v>
+        <v>965</v>
       </c>
       <c r="C82">
         <v>2005</v>
@@ -4197,10 +4404,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>877</v>
+        <v>946</v>
       </c>
       <c r="B83" t="s">
-        <v>896</v>
+        <v>965</v>
       </c>
       <c r="C83">
         <v>2006</v>
@@ -4214,10 +4421,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>877</v>
+        <v>946</v>
       </c>
       <c r="B84" t="s">
-        <v>896</v>
+        <v>965</v>
       </c>
       <c r="C84">
         <v>2007</v>
@@ -4231,10 +4438,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>877</v>
+        <v>946</v>
       </c>
       <c r="B85" t="s">
-        <v>896</v>
+        <v>965</v>
       </c>
       <c r="C85">
         <v>2008</v>
@@ -4248,10 +4455,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>877</v>
+        <v>946</v>
       </c>
       <c r="B86" t="s">
-        <v>896</v>
+        <v>965</v>
       </c>
       <c r="C86">
         <v>2009</v>
@@ -4265,10 +4472,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>877</v>
+        <v>946</v>
       </c>
       <c r="B87" t="s">
-        <v>896</v>
+        <v>965</v>
       </c>
       <c r="C87">
         <v>2010</v>
@@ -4282,10 +4489,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>877</v>
+        <v>946</v>
       </c>
       <c r="B88" t="s">
-        <v>896</v>
+        <v>965</v>
       </c>
       <c r="C88">
         <v>2011</v>
@@ -4299,10 +4506,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>877</v>
+        <v>946</v>
       </c>
       <c r="B89" t="s">
-        <v>896</v>
+        <v>965</v>
       </c>
       <c r="C89">
         <v>2012</v>
@@ -4316,10 +4523,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>877</v>
+        <v>946</v>
       </c>
       <c r="B90" t="s">
-        <v>896</v>
+        <v>965</v>
       </c>
       <c r="C90">
         <v>2013</v>
@@ -4333,10 +4540,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>877</v>
+        <v>946</v>
       </c>
       <c r="B91" t="s">
-        <v>896</v>
+        <v>965</v>
       </c>
       <c r="C91">
         <v>2014</v>
@@ -4350,10 +4557,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>877</v>
+        <v>946</v>
       </c>
       <c r="B92" t="s">
-        <v>896</v>
+        <v>965</v>
       </c>
       <c r="C92">
         <v>2015</v>
@@ -4367,10 +4574,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>877</v>
+        <v>946</v>
       </c>
       <c r="B93" t="s">
-        <v>896</v>
+        <v>965</v>
       </c>
       <c r="C93">
         <v>2016</v>
@@ -4384,10 +4591,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>877</v>
+        <v>946</v>
       </c>
       <c r="B94" t="s">
-        <v>896</v>
+        <v>965</v>
       </c>
       <c r="C94">
         <v>2017</v>
@@ -4401,10 +4608,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>877</v>
+        <v>946</v>
       </c>
       <c r="B95" t="s">
-        <v>896</v>
+        <v>965</v>
       </c>
       <c r="C95">
         <v>2018</v>
@@ -4418,10 +4625,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>877</v>
+        <v>946</v>
       </c>
       <c r="B96" t="s">
-        <v>896</v>
+        <v>965</v>
       </c>
       <c r="C96">
         <v>2019</v>
@@ -4435,10 +4642,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>877</v>
+        <v>946</v>
       </c>
       <c r="B97" t="s">
-        <v>896</v>
+        <v>965</v>
       </c>
       <c r="C97">
         <v>2020</v>
@@ -4452,10 +4659,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>877</v>
+        <v>946</v>
       </c>
       <c r="B98" t="s">
-        <v>896</v>
+        <v>965</v>
       </c>
       <c r="C98">
         <v>2021</v>
@@ -4469,10 +4676,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>877</v>
+        <v>946</v>
       </c>
       <c r="B99" t="s">
-        <v>896</v>
+        <v>965</v>
       </c>
       <c r="C99">
         <v>2022</v>
@@ -4486,10 +4693,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>877</v>
+        <v>946</v>
       </c>
       <c r="B100" t="s">
-        <v>896</v>
+        <v>965</v>
       </c>
       <c r="C100">
         <v>2023</v>
@@ -4503,10 +4710,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>877</v>
+        <v>946</v>
       </c>
       <c r="B101" t="s">
-        <v>896</v>
+        <v>965</v>
       </c>
       <c r="C101">
         <v>2024</v>
@@ -4520,10 +4727,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>878</v>
+        <v>947</v>
       </c>
       <c r="B102" t="s">
-        <v>897</v>
+        <v>966</v>
       </c>
       <c r="C102">
         <v>2000</v>
@@ -4537,10 +4744,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>878</v>
+        <v>947</v>
       </c>
       <c r="B103" t="s">
-        <v>897</v>
+        <v>966</v>
       </c>
       <c r="C103">
         <v>2001</v>
@@ -4554,10 +4761,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>878</v>
+        <v>947</v>
       </c>
       <c r="B104" t="s">
-        <v>897</v>
+        <v>966</v>
       </c>
       <c r="C104">
         <v>2002</v>
@@ -4571,10 +4778,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>878</v>
+        <v>947</v>
       </c>
       <c r="B105" t="s">
-        <v>897</v>
+        <v>966</v>
       </c>
       <c r="C105">
         <v>2003</v>
@@ -4588,10 +4795,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>878</v>
+        <v>947</v>
       </c>
       <c r="B106" t="s">
-        <v>897</v>
+        <v>966</v>
       </c>
       <c r="C106">
         <v>2004</v>
@@ -4605,10 +4812,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>878</v>
+        <v>947</v>
       </c>
       <c r="B107" t="s">
-        <v>897</v>
+        <v>966</v>
       </c>
       <c r="C107">
         <v>2005</v>
@@ -4622,10 +4829,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>878</v>
+        <v>947</v>
       </c>
       <c r="B108" t="s">
-        <v>897</v>
+        <v>966</v>
       </c>
       <c r="C108">
         <v>2006</v>
@@ -4639,10 +4846,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>878</v>
+        <v>947</v>
       </c>
       <c r="B109" t="s">
-        <v>897</v>
+        <v>966</v>
       </c>
       <c r="C109">
         <v>2007</v>
@@ -4656,10 +4863,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>878</v>
+        <v>947</v>
       </c>
       <c r="B110" t="s">
-        <v>897</v>
+        <v>966</v>
       </c>
       <c r="C110">
         <v>2008</v>
@@ -4673,10 +4880,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>878</v>
+        <v>947</v>
       </c>
       <c r="B111" t="s">
-        <v>897</v>
+        <v>966</v>
       </c>
       <c r="C111">
         <v>2009</v>
@@ -4690,10 +4897,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>878</v>
+        <v>947</v>
       </c>
       <c r="B112" t="s">
-        <v>897</v>
+        <v>966</v>
       </c>
       <c r="C112">
         <v>2010</v>
@@ -4707,10 +4914,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>878</v>
+        <v>947</v>
       </c>
       <c r="B113" t="s">
-        <v>897</v>
+        <v>966</v>
       </c>
       <c r="C113">
         <v>2011</v>
@@ -4724,10 +4931,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>878</v>
+        <v>947</v>
       </c>
       <c r="B114" t="s">
-        <v>897</v>
+        <v>966</v>
       </c>
       <c r="C114">
         <v>2012</v>
@@ -4741,10 +4948,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>878</v>
+        <v>947</v>
       </c>
       <c r="B115" t="s">
-        <v>897</v>
+        <v>966</v>
       </c>
       <c r="C115">
         <v>2013</v>
@@ -4758,10 +4965,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>878</v>
+        <v>947</v>
       </c>
       <c r="B116" t="s">
-        <v>897</v>
+        <v>966</v>
       </c>
       <c r="C116">
         <v>2014</v>
@@ -4775,10 +4982,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>878</v>
+        <v>947</v>
       </c>
       <c r="B117" t="s">
-        <v>897</v>
+        <v>966</v>
       </c>
       <c r="C117">
         <v>2015</v>
@@ -4792,10 +4999,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>878</v>
+        <v>947</v>
       </c>
       <c r="B118" t="s">
-        <v>897</v>
+        <v>966</v>
       </c>
       <c r="C118">
         <v>2016</v>
@@ -4809,10 +5016,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>878</v>
+        <v>947</v>
       </c>
       <c r="B119" t="s">
-        <v>897</v>
+        <v>966</v>
       </c>
       <c r="C119">
         <v>2017</v>
@@ -4826,10 +5033,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>878</v>
+        <v>947</v>
       </c>
       <c r="B120" t="s">
-        <v>897</v>
+        <v>966</v>
       </c>
       <c r="C120">
         <v>2018</v>
@@ -4843,10 +5050,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>878</v>
+        <v>947</v>
       </c>
       <c r="B121" t="s">
-        <v>897</v>
+        <v>966</v>
       </c>
       <c r="C121">
         <v>2019</v>
@@ -4860,10 +5067,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>878</v>
+        <v>947</v>
       </c>
       <c r="B122" t="s">
-        <v>897</v>
+        <v>966</v>
       </c>
       <c r="C122">
         <v>2020</v>
@@ -4877,10 +5084,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>878</v>
+        <v>947</v>
       </c>
       <c r="B123" t="s">
-        <v>897</v>
+        <v>966</v>
       </c>
       <c r="C123">
         <v>2021</v>
@@ -4894,10 +5101,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>878</v>
+        <v>947</v>
       </c>
       <c r="B124" t="s">
-        <v>897</v>
+        <v>966</v>
       </c>
       <c r="C124">
         <v>2022</v>
@@ -4911,10 +5118,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>878</v>
+        <v>947</v>
       </c>
       <c r="B125" t="s">
-        <v>897</v>
+        <v>966</v>
       </c>
       <c r="C125">
         <v>2023</v>
@@ -4928,10 +5135,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>878</v>
+        <v>947</v>
       </c>
       <c r="B126" t="s">
-        <v>897</v>
+        <v>966</v>
       </c>
       <c r="C126">
         <v>2024</v>
@@ -4945,10 +5152,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>879</v>
+        <v>948</v>
       </c>
       <c r="B127" t="s">
-        <v>898</v>
+        <v>967</v>
       </c>
       <c r="C127">
         <v>2000</v>
@@ -4962,10 +5169,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>879</v>
+        <v>948</v>
       </c>
       <c r="B128" t="s">
-        <v>898</v>
+        <v>967</v>
       </c>
       <c r="C128">
         <v>2001</v>
@@ -4979,10 +5186,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>879</v>
+        <v>948</v>
       </c>
       <c r="B129" t="s">
-        <v>898</v>
+        <v>967</v>
       </c>
       <c r="C129">
         <v>2002</v>
@@ -4996,10 +5203,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>879</v>
+        <v>948</v>
       </c>
       <c r="B130" t="s">
-        <v>898</v>
+        <v>967</v>
       </c>
       <c r="C130">
         <v>2003</v>
@@ -5013,10 +5220,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>879</v>
+        <v>948</v>
       </c>
       <c r="B131" t="s">
-        <v>898</v>
+        <v>967</v>
       </c>
       <c r="C131">
         <v>2004</v>
@@ -5030,10 +5237,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>879</v>
+        <v>948</v>
       </c>
       <c r="B132" t="s">
-        <v>898</v>
+        <v>967</v>
       </c>
       <c r="C132">
         <v>2005</v>
@@ -5047,10 +5254,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>879</v>
+        <v>948</v>
       </c>
       <c r="B133" t="s">
-        <v>898</v>
+        <v>967</v>
       </c>
       <c r="C133">
         <v>2006</v>
@@ -5064,10 +5271,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>879</v>
+        <v>948</v>
       </c>
       <c r="B134" t="s">
-        <v>898</v>
+        <v>967</v>
       </c>
       <c r="C134">
         <v>2007</v>
@@ -5081,10 +5288,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>879</v>
+        <v>948</v>
       </c>
       <c r="B135" t="s">
-        <v>898</v>
+        <v>967</v>
       </c>
       <c r="C135">
         <v>2008</v>
@@ -5098,10 +5305,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>879</v>
+        <v>948</v>
       </c>
       <c r="B136" t="s">
-        <v>898</v>
+        <v>967</v>
       </c>
       <c r="C136">
         <v>2009</v>
@@ -5115,10 +5322,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>879</v>
+        <v>948</v>
       </c>
       <c r="B137" t="s">
-        <v>898</v>
+        <v>967</v>
       </c>
       <c r="C137">
         <v>2010</v>
@@ -5132,10 +5339,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>879</v>
+        <v>948</v>
       </c>
       <c r="B138" t="s">
-        <v>898</v>
+        <v>967</v>
       </c>
       <c r="C138">
         <v>2011</v>
@@ -5149,10 +5356,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>879</v>
+        <v>948</v>
       </c>
       <c r="B139" t="s">
-        <v>898</v>
+        <v>967</v>
       </c>
       <c r="C139">
         <v>2012</v>
@@ -5166,10 +5373,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>879</v>
+        <v>948</v>
       </c>
       <c r="B140" t="s">
-        <v>898</v>
+        <v>967</v>
       </c>
       <c r="C140">
         <v>2013</v>
@@ -5183,10 +5390,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>879</v>
+        <v>948</v>
       </c>
       <c r="B141" t="s">
-        <v>898</v>
+        <v>967</v>
       </c>
       <c r="C141">
         <v>2014</v>
@@ -5200,10 +5407,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>879</v>
+        <v>948</v>
       </c>
       <c r="B142" t="s">
-        <v>898</v>
+        <v>967</v>
       </c>
       <c r="C142">
         <v>2015</v>
@@ -5217,10 +5424,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>879</v>
+        <v>948</v>
       </c>
       <c r="B143" t="s">
-        <v>898</v>
+        <v>967</v>
       </c>
       <c r="C143">
         <v>2016</v>
@@ -5234,10 +5441,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>879</v>
+        <v>948</v>
       </c>
       <c r="B144" t="s">
-        <v>898</v>
+        <v>967</v>
       </c>
       <c r="C144">
         <v>2017</v>
@@ -5251,10 +5458,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>879</v>
+        <v>948</v>
       </c>
       <c r="B145" t="s">
-        <v>898</v>
+        <v>967</v>
       </c>
       <c r="C145">
         <v>2018</v>
@@ -5268,10 +5475,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>879</v>
+        <v>948</v>
       </c>
       <c r="B146" t="s">
-        <v>898</v>
+        <v>967</v>
       </c>
       <c r="C146">
         <v>2019</v>
@@ -5285,10 +5492,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>879</v>
+        <v>948</v>
       </c>
       <c r="B147" t="s">
-        <v>898</v>
+        <v>967</v>
       </c>
       <c r="C147">
         <v>2020</v>
@@ -5302,10 +5509,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>879</v>
+        <v>948</v>
       </c>
       <c r="B148" t="s">
-        <v>898</v>
+        <v>967</v>
       </c>
       <c r="C148">
         <v>2021</v>
@@ -5319,10 +5526,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>879</v>
+        <v>948</v>
       </c>
       <c r="B149" t="s">
-        <v>898</v>
+        <v>967</v>
       </c>
       <c r="C149">
         <v>2022</v>
@@ -5336,10 +5543,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>879</v>
+        <v>948</v>
       </c>
       <c r="B150" t="s">
-        <v>898</v>
+        <v>967</v>
       </c>
       <c r="C150">
         <v>2023</v>
@@ -5353,10 +5560,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>879</v>
+        <v>948</v>
       </c>
       <c r="B151" t="s">
-        <v>898</v>
+        <v>967</v>
       </c>
       <c r="C151">
         <v>2024</v>
@@ -5370,10 +5577,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>880</v>
+        <v>949</v>
       </c>
       <c r="B152" t="s">
-        <v>899</v>
+        <v>968</v>
       </c>
       <c r="C152">
         <v>2000</v>
@@ -5387,10 +5594,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>880</v>
+        <v>949</v>
       </c>
       <c r="B153" t="s">
-        <v>899</v>
+        <v>968</v>
       </c>
       <c r="C153">
         <v>2001</v>
@@ -5404,10 +5611,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>880</v>
+        <v>949</v>
       </c>
       <c r="B154" t="s">
-        <v>899</v>
+        <v>968</v>
       </c>
       <c r="C154">
         <v>2002</v>
@@ -5421,10 +5628,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>880</v>
+        <v>949</v>
       </c>
       <c r="B155" t="s">
-        <v>899</v>
+        <v>968</v>
       </c>
       <c r="C155">
         <v>2003</v>
@@ -5438,10 +5645,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>880</v>
+        <v>949</v>
       </c>
       <c r="B156" t="s">
-        <v>899</v>
+        <v>968</v>
       </c>
       <c r="C156">
         <v>2004</v>
@@ -5455,10 +5662,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>880</v>
+        <v>949</v>
       </c>
       <c r="B157" t="s">
-        <v>899</v>
+        <v>968</v>
       </c>
       <c r="C157">
         <v>2005</v>
@@ -5472,10 +5679,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>880</v>
+        <v>949</v>
       </c>
       <c r="B158" t="s">
-        <v>899</v>
+        <v>968</v>
       </c>
       <c r="C158">
         <v>2006</v>
@@ -5489,10 +5696,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>880</v>
+        <v>949</v>
       </c>
       <c r="B159" t="s">
-        <v>899</v>
+        <v>968</v>
       </c>
       <c r="C159">
         <v>2007</v>
@@ -5506,10 +5713,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>880</v>
+        <v>949</v>
       </c>
       <c r="B160" t="s">
-        <v>899</v>
+        <v>968</v>
       </c>
       <c r="C160">
         <v>2008</v>
@@ -5523,10 +5730,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>880</v>
+        <v>949</v>
       </c>
       <c r="B161" t="s">
-        <v>899</v>
+        <v>968</v>
       </c>
       <c r="C161">
         <v>2009</v>
@@ -5540,10 +5747,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>880</v>
+        <v>949</v>
       </c>
       <c r="B162" t="s">
-        <v>899</v>
+        <v>968</v>
       </c>
       <c r="C162">
         <v>2010</v>
@@ -5557,10 +5764,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>880</v>
+        <v>949</v>
       </c>
       <c r="B163" t="s">
-        <v>899</v>
+        <v>968</v>
       </c>
       <c r="C163">
         <v>2011</v>
@@ -5574,10 +5781,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>880</v>
+        <v>949</v>
       </c>
       <c r="B164" t="s">
-        <v>899</v>
+        <v>968</v>
       </c>
       <c r="C164">
         <v>2012</v>
@@ -5591,10 +5798,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>880</v>
+        <v>949</v>
       </c>
       <c r="B165" t="s">
-        <v>899</v>
+        <v>968</v>
       </c>
       <c r="C165">
         <v>2013</v>
@@ -5608,10 +5815,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>880</v>
+        <v>949</v>
       </c>
       <c r="B166" t="s">
-        <v>899</v>
+        <v>968</v>
       </c>
       <c r="C166">
         <v>2014</v>
@@ -5625,10 +5832,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>880</v>
+        <v>949</v>
       </c>
       <c r="B167" t="s">
-        <v>899</v>
+        <v>968</v>
       </c>
       <c r="C167">
         <v>2015</v>
@@ -5642,10 +5849,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>880</v>
+        <v>949</v>
       </c>
       <c r="B168" t="s">
-        <v>899</v>
+        <v>968</v>
       </c>
       <c r="C168">
         <v>2016</v>
@@ -5659,10 +5866,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>880</v>
+        <v>949</v>
       </c>
       <c r="B169" t="s">
-        <v>899</v>
+        <v>968</v>
       </c>
       <c r="C169">
         <v>2017</v>
@@ -5676,10 +5883,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>880</v>
+        <v>949</v>
       </c>
       <c r="B170" t="s">
-        <v>899</v>
+        <v>968</v>
       </c>
       <c r="C170">
         <v>2018</v>
@@ -5693,10 +5900,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>880</v>
+        <v>949</v>
       </c>
       <c r="B171" t="s">
-        <v>899</v>
+        <v>968</v>
       </c>
       <c r="C171">
         <v>2019</v>
@@ -5710,10 +5917,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>880</v>
+        <v>949</v>
       </c>
       <c r="B172" t="s">
-        <v>899</v>
+        <v>968</v>
       </c>
       <c r="C172">
         <v>2020</v>
@@ -5727,10 +5934,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>880</v>
+        <v>949</v>
       </c>
       <c r="B173" t="s">
-        <v>899</v>
+        <v>968</v>
       </c>
       <c r="C173">
         <v>2021</v>
@@ -5744,10 +5951,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>880</v>
+        <v>949</v>
       </c>
       <c r="B174" t="s">
-        <v>899</v>
+        <v>968</v>
       </c>
       <c r="C174">
         <v>2022</v>
@@ -5761,10 +5968,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>880</v>
+        <v>949</v>
       </c>
       <c r="B175" t="s">
-        <v>899</v>
+        <v>968</v>
       </c>
       <c r="C175">
         <v>2023</v>
@@ -5778,10 +5985,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>880</v>
+        <v>949</v>
       </c>
       <c r="B176" t="s">
-        <v>899</v>
+        <v>968</v>
       </c>
       <c r="C176">
         <v>2024</v>
@@ -5795,10 +6002,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>881</v>
+        <v>950</v>
       </c>
       <c r="B177" t="s">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="C177">
         <v>2000</v>
@@ -5812,10 +6019,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>881</v>
+        <v>950</v>
       </c>
       <c r="B178" t="s">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="C178">
         <v>2001</v>
@@ -5829,10 +6036,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>881</v>
+        <v>950</v>
       </c>
       <c r="B179" t="s">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="C179">
         <v>2002</v>
@@ -5846,10 +6053,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>881</v>
+        <v>950</v>
       </c>
       <c r="B180" t="s">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="C180">
         <v>2003</v>
@@ -5863,10 +6070,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>881</v>
+        <v>950</v>
       </c>
       <c r="B181" t="s">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="C181">
         <v>2004</v>
@@ -5880,10 +6087,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>881</v>
+        <v>950</v>
       </c>
       <c r="B182" t="s">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="C182">
         <v>2005</v>
@@ -5897,10 +6104,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>881</v>
+        <v>950</v>
       </c>
       <c r="B183" t="s">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="C183">
         <v>2006</v>
@@ -5914,10 +6121,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>881</v>
+        <v>950</v>
       </c>
       <c r="B184" t="s">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="C184">
         <v>2007</v>
@@ -5931,10 +6138,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>881</v>
+        <v>950</v>
       </c>
       <c r="B185" t="s">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="C185">
         <v>2008</v>
@@ -5948,10 +6155,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>881</v>
+        <v>950</v>
       </c>
       <c r="B186" t="s">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="C186">
         <v>2009</v>
@@ -5965,10 +6172,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>881</v>
+        <v>950</v>
       </c>
       <c r="B187" t="s">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="C187">
         <v>2010</v>
@@ -5982,10 +6189,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>881</v>
+        <v>950</v>
       </c>
       <c r="B188" t="s">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="C188">
         <v>2011</v>
@@ -5999,10 +6206,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>881</v>
+        <v>950</v>
       </c>
       <c r="B189" t="s">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="C189">
         <v>2012</v>
@@ -6016,10 +6223,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>881</v>
+        <v>950</v>
       </c>
       <c r="B190" t="s">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="C190">
         <v>2013</v>
@@ -6033,10 +6240,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>881</v>
+        <v>950</v>
       </c>
       <c r="B191" t="s">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="C191">
         <v>2014</v>
@@ -6050,10 +6257,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>881</v>
+        <v>950</v>
       </c>
       <c r="B192" t="s">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="C192">
         <v>2015</v>
@@ -6067,10 +6274,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>881</v>
+        <v>950</v>
       </c>
       <c r="B193" t="s">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="C193">
         <v>2016</v>
@@ -6084,10 +6291,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>881</v>
+        <v>950</v>
       </c>
       <c r="B194" t="s">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="C194">
         <v>2017</v>
@@ -6101,10 +6308,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>881</v>
+        <v>950</v>
       </c>
       <c r="B195" t="s">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="C195">
         <v>2018</v>
@@ -6118,10 +6325,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>881</v>
+        <v>950</v>
       </c>
       <c r="B196" t="s">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="C196">
         <v>2019</v>
@@ -6135,10 +6342,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>881</v>
+        <v>950</v>
       </c>
       <c r="B197" t="s">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="C197">
         <v>2020</v>
@@ -6152,10 +6359,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>881</v>
+        <v>950</v>
       </c>
       <c r="B198" t="s">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="C198">
         <v>2021</v>
@@ -6169,10 +6376,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>881</v>
+        <v>950</v>
       </c>
       <c r="B199" t="s">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="C199">
         <v>2022</v>
@@ -6186,10 +6393,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>881</v>
+        <v>950</v>
       </c>
       <c r="B200" t="s">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="C200">
         <v>2023</v>
@@ -6203,10 +6410,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>881</v>
+        <v>950</v>
       </c>
       <c r="B201" t="s">
-        <v>900</v>
+        <v>969</v>
       </c>
       <c r="C201">
         <v>2024</v>
@@ -6220,10 +6427,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>882</v>
+        <v>951</v>
       </c>
       <c r="B202" t="s">
-        <v>901</v>
+        <v>970</v>
       </c>
       <c r="C202">
         <v>2000</v>
@@ -6237,10 +6444,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>882</v>
+        <v>951</v>
       </c>
       <c r="B203" t="s">
-        <v>901</v>
+        <v>970</v>
       </c>
       <c r="C203">
         <v>2001</v>
@@ -6254,10 +6461,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>882</v>
+        <v>951</v>
       </c>
       <c r="B204" t="s">
-        <v>901</v>
+        <v>970</v>
       </c>
       <c r="C204">
         <v>2002</v>
@@ -6271,10 +6478,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>882</v>
+        <v>951</v>
       </c>
       <c r="B205" t="s">
-        <v>901</v>
+        <v>970</v>
       </c>
       <c r="C205">
         <v>2003</v>
@@ -6288,10 +6495,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>882</v>
+        <v>951</v>
       </c>
       <c r="B206" t="s">
-        <v>901</v>
+        <v>970</v>
       </c>
       <c r="C206">
         <v>2004</v>
@@ -6305,10 +6512,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>882</v>
+        <v>951</v>
       </c>
       <c r="B207" t="s">
-        <v>901</v>
+        <v>970</v>
       </c>
       <c r="C207">
         <v>2005</v>
@@ -6322,10 +6529,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>882</v>
+        <v>951</v>
       </c>
       <c r="B208" t="s">
-        <v>901</v>
+        <v>970</v>
       </c>
       <c r="C208">
         <v>2006</v>
@@ -6339,10 +6546,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>882</v>
+        <v>951</v>
       </c>
       <c r="B209" t="s">
-        <v>901</v>
+        <v>970</v>
       </c>
       <c r="C209">
         <v>2007</v>
@@ -6356,10 +6563,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>882</v>
+        <v>951</v>
       </c>
       <c r="B210" t="s">
-        <v>901</v>
+        <v>970</v>
       </c>
       <c r="C210">
         <v>2008</v>
@@ -6373,10 +6580,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>882</v>
+        <v>951</v>
       </c>
       <c r="B211" t="s">
-        <v>901</v>
+        <v>970</v>
       </c>
       <c r="C211">
         <v>2009</v>
@@ -6390,10 +6597,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>882</v>
+        <v>951</v>
       </c>
       <c r="B212" t="s">
-        <v>901</v>
+        <v>970</v>
       </c>
       <c r="C212">
         <v>2010</v>
@@ -6407,10 +6614,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>882</v>
+        <v>951</v>
       </c>
       <c r="B213" t="s">
-        <v>901</v>
+        <v>970</v>
       </c>
       <c r="C213">
         <v>2011</v>
@@ -6424,10 +6631,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>882</v>
+        <v>951</v>
       </c>
       <c r="B214" t="s">
-        <v>901</v>
+        <v>970</v>
       </c>
       <c r="C214">
         <v>2012</v>
@@ -6441,10 +6648,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>882</v>
+        <v>951</v>
       </c>
       <c r="B215" t="s">
-        <v>901</v>
+        <v>970</v>
       </c>
       <c r="C215">
         <v>2013</v>
@@ -6458,10 +6665,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>882</v>
+        <v>951</v>
       </c>
       <c r="B216" t="s">
-        <v>901</v>
+        <v>970</v>
       </c>
       <c r="C216">
         <v>2014</v>
@@ -6475,10 +6682,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>882</v>
+        <v>951</v>
       </c>
       <c r="B217" t="s">
-        <v>901</v>
+        <v>970</v>
       </c>
       <c r="C217">
         <v>2015</v>
@@ -6492,10 +6699,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>882</v>
+        <v>951</v>
       </c>
       <c r="B218" t="s">
-        <v>901</v>
+        <v>970</v>
       </c>
       <c r="C218">
         <v>2016</v>
@@ -6509,10 +6716,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>882</v>
+        <v>951</v>
       </c>
       <c r="B219" t="s">
-        <v>901</v>
+        <v>970</v>
       </c>
       <c r="C219">
         <v>2017</v>
@@ -6526,10 +6733,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>882</v>
+        <v>951</v>
       </c>
       <c r="B220" t="s">
-        <v>901</v>
+        <v>970</v>
       </c>
       <c r="C220">
         <v>2018</v>
@@ -6543,10 +6750,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>882</v>
+        <v>951</v>
       </c>
       <c r="B221" t="s">
-        <v>901</v>
+        <v>970</v>
       </c>
       <c r="C221">
         <v>2019</v>
@@ -6560,10 +6767,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>882</v>
+        <v>951</v>
       </c>
       <c r="B222" t="s">
-        <v>901</v>
+        <v>970</v>
       </c>
       <c r="C222">
         <v>2020</v>
@@ -6577,10 +6784,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>882</v>
+        <v>951</v>
       </c>
       <c r="B223" t="s">
-        <v>901</v>
+        <v>970</v>
       </c>
       <c r="C223">
         <v>2021</v>
@@ -6594,10 +6801,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>882</v>
+        <v>951</v>
       </c>
       <c r="B224" t="s">
-        <v>901</v>
+        <v>970</v>
       </c>
       <c r="C224">
         <v>2022</v>
@@ -6611,10 +6818,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>882</v>
+        <v>951</v>
       </c>
       <c r="B225" t="s">
-        <v>901</v>
+        <v>970</v>
       </c>
       <c r="C225">
         <v>2023</v>
@@ -6628,10 +6835,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>882</v>
+        <v>951</v>
       </c>
       <c r="B226" t="s">
-        <v>901</v>
+        <v>970</v>
       </c>
       <c r="C226">
         <v>2024</v>
@@ -6645,10 +6852,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>883</v>
+        <v>952</v>
       </c>
       <c r="B227" t="s">
-        <v>902</v>
+        <v>971</v>
       </c>
       <c r="C227">
         <v>2000</v>
@@ -6662,10 +6869,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>883</v>
+        <v>952</v>
       </c>
       <c r="B228" t="s">
-        <v>902</v>
+        <v>971</v>
       </c>
       <c r="C228">
         <v>2001</v>
@@ -6679,10 +6886,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>883</v>
+        <v>952</v>
       </c>
       <c r="B229" t="s">
-        <v>902</v>
+        <v>971</v>
       </c>
       <c r="C229">
         <v>2002</v>
@@ -6696,10 +6903,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>883</v>
+        <v>952</v>
       </c>
       <c r="B230" t="s">
-        <v>902</v>
+        <v>971</v>
       </c>
       <c r="C230">
         <v>2003</v>
@@ -6713,10 +6920,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>883</v>
+        <v>952</v>
       </c>
       <c r="B231" t="s">
-        <v>902</v>
+        <v>971</v>
       </c>
       <c r="C231">
         <v>2004</v>
@@ -6730,10 +6937,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>883</v>
+        <v>952</v>
       </c>
       <c r="B232" t="s">
-        <v>902</v>
+        <v>971</v>
       </c>
       <c r="C232">
         <v>2005</v>
@@ -6747,10 +6954,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>883</v>
+        <v>952</v>
       </c>
       <c r="B233" t="s">
-        <v>902</v>
+        <v>971</v>
       </c>
       <c r="C233">
         <v>2006</v>
@@ -6764,10 +6971,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>883</v>
+        <v>952</v>
       </c>
       <c r="B234" t="s">
-        <v>902</v>
+        <v>971</v>
       </c>
       <c r="C234">
         <v>2007</v>
@@ -6781,10 +6988,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>883</v>
+        <v>952</v>
       </c>
       <c r="B235" t="s">
-        <v>902</v>
+        <v>971</v>
       </c>
       <c r="C235">
         <v>2008</v>
@@ -6798,10 +7005,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>883</v>
+        <v>952</v>
       </c>
       <c r="B236" t="s">
-        <v>902</v>
+        <v>971</v>
       </c>
       <c r="C236">
         <v>2009</v>
@@ -6815,10 +7022,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>883</v>
+        <v>952</v>
       </c>
       <c r="B237" t="s">
-        <v>902</v>
+        <v>971</v>
       </c>
       <c r="C237">
         <v>2010</v>
@@ -6832,10 +7039,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>883</v>
+        <v>952</v>
       </c>
       <c r="B238" t="s">
-        <v>902</v>
+        <v>971</v>
       </c>
       <c r="C238">
         <v>2011</v>
@@ -6849,10 +7056,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>883</v>
+        <v>952</v>
       </c>
       <c r="B239" t="s">
-        <v>902</v>
+        <v>971</v>
       </c>
       <c r="C239">
         <v>2012</v>
@@ -6866,10 +7073,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>883</v>
+        <v>952</v>
       </c>
       <c r="B240" t="s">
-        <v>902</v>
+        <v>971</v>
       </c>
       <c r="C240">
         <v>2013</v>
@@ -6883,10 +7090,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>883</v>
+        <v>952</v>
       </c>
       <c r="B241" t="s">
-        <v>902</v>
+        <v>971</v>
       </c>
       <c r="C241">
         <v>2014</v>
@@ -6900,10 +7107,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>883</v>
+        <v>952</v>
       </c>
       <c r="B242" t="s">
-        <v>902</v>
+        <v>971</v>
       </c>
       <c r="C242">
         <v>2015</v>
@@ -6917,10 +7124,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>883</v>
+        <v>952</v>
       </c>
       <c r="B243" t="s">
-        <v>902</v>
+        <v>971</v>
       </c>
       <c r="C243">
         <v>2016</v>
@@ -6934,10 +7141,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>883</v>
+        <v>952</v>
       </c>
       <c r="B244" t="s">
-        <v>902</v>
+        <v>971</v>
       </c>
       <c r="C244">
         <v>2017</v>
@@ -6951,10 +7158,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>883</v>
+        <v>952</v>
       </c>
       <c r="B245" t="s">
-        <v>902</v>
+        <v>971</v>
       </c>
       <c r="C245">
         <v>2018</v>
@@ -6968,10 +7175,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>883</v>
+        <v>952</v>
       </c>
       <c r="B246" t="s">
-        <v>902</v>
+        <v>971</v>
       </c>
       <c r="C246">
         <v>2019</v>
@@ -6985,10 +7192,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>883</v>
+        <v>952</v>
       </c>
       <c r="B247" t="s">
-        <v>902</v>
+        <v>971</v>
       </c>
       <c r="C247">
         <v>2020</v>
@@ -7002,10 +7209,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>883</v>
+        <v>952</v>
       </c>
       <c r="B248" t="s">
-        <v>902</v>
+        <v>971</v>
       </c>
       <c r="C248">
         <v>2021</v>
@@ -7019,10 +7226,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>883</v>
+        <v>952</v>
       </c>
       <c r="B249" t="s">
-        <v>902</v>
+        <v>971</v>
       </c>
       <c r="C249">
         <v>2022</v>
@@ -7036,10 +7243,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>883</v>
+        <v>952</v>
       </c>
       <c r="B250" t="s">
-        <v>902</v>
+        <v>971</v>
       </c>
       <c r="C250">
         <v>2023</v>
@@ -7053,10 +7260,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>883</v>
+        <v>952</v>
       </c>
       <c r="B251" t="s">
-        <v>902</v>
+        <v>971</v>
       </c>
       <c r="C251">
         <v>2024</v>
@@ -7070,10 +7277,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>884</v>
+        <v>953</v>
       </c>
       <c r="B252" t="s">
-        <v>903</v>
+        <v>972</v>
       </c>
       <c r="C252">
         <v>2000</v>
@@ -7087,10 +7294,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>884</v>
+        <v>953</v>
       </c>
       <c r="B253" t="s">
-        <v>903</v>
+        <v>972</v>
       </c>
       <c r="C253">
         <v>2001</v>
@@ -7104,10 +7311,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>884</v>
+        <v>953</v>
       </c>
       <c r="B254" t="s">
-        <v>903</v>
+        <v>972</v>
       </c>
       <c r="C254">
         <v>2002</v>
@@ -7121,10 +7328,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>884</v>
+        <v>953</v>
       </c>
       <c r="B255" t="s">
-        <v>903</v>
+        <v>972</v>
       </c>
       <c r="C255">
         <v>2003</v>
@@ -7138,10 +7345,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>884</v>
+        <v>953</v>
       </c>
       <c r="B256" t="s">
-        <v>903</v>
+        <v>972</v>
       </c>
       <c r="C256">
         <v>2004</v>
@@ -7155,10 +7362,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>884</v>
+        <v>953</v>
       </c>
       <c r="B257" t="s">
-        <v>903</v>
+        <v>972</v>
       </c>
       <c r="C257">
         <v>2005</v>
@@ -7172,10 +7379,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>884</v>
+        <v>953</v>
       </c>
       <c r="B258" t="s">
-        <v>903</v>
+        <v>972</v>
       </c>
       <c r="C258">
         <v>2006</v>
@@ -7189,10 +7396,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>884</v>
+        <v>953</v>
       </c>
       <c r="B259" t="s">
-        <v>903</v>
+        <v>972</v>
       </c>
       <c r="C259">
         <v>2007</v>
@@ -7206,10 +7413,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>884</v>
+        <v>953</v>
       </c>
       <c r="B260" t="s">
-        <v>903</v>
+        <v>972</v>
       </c>
       <c r="C260">
         <v>2008</v>
@@ -7223,10 +7430,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>884</v>
+        <v>953</v>
       </c>
       <c r="B261" t="s">
-        <v>903</v>
+        <v>972</v>
       </c>
       <c r="C261">
         <v>2009</v>
@@ -7240,10 +7447,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>884</v>
+        <v>953</v>
       </c>
       <c r="B262" t="s">
-        <v>903</v>
+        <v>972</v>
       </c>
       <c r="C262">
         <v>2010</v>
@@ -7257,10 +7464,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>884</v>
+        <v>953</v>
       </c>
       <c r="B263" t="s">
-        <v>903</v>
+        <v>972</v>
       </c>
       <c r="C263">
         <v>2011</v>
@@ -7274,10 +7481,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>884</v>
+        <v>953</v>
       </c>
       <c r="B264" t="s">
-        <v>903</v>
+        <v>972</v>
       </c>
       <c r="C264">
         <v>2012</v>
@@ -7291,10 +7498,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>884</v>
+        <v>953</v>
       </c>
       <c r="B265" t="s">
-        <v>903</v>
+        <v>972</v>
       </c>
       <c r="C265">
         <v>2013</v>
@@ -7308,10 +7515,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>884</v>
+        <v>953</v>
       </c>
       <c r="B266" t="s">
-        <v>903</v>
+        <v>972</v>
       </c>
       <c r="C266">
         <v>2014</v>
@@ -7325,10 +7532,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>884</v>
+        <v>953</v>
       </c>
       <c r="B267" t="s">
-        <v>903</v>
+        <v>972</v>
       </c>
       <c r="C267">
         <v>2015</v>
@@ -7342,10 +7549,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>884</v>
+        <v>953</v>
       </c>
       <c r="B268" t="s">
-        <v>903</v>
+        <v>972</v>
       </c>
       <c r="C268">
         <v>2016</v>
@@ -7359,10 +7566,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>884</v>
+        <v>953</v>
       </c>
       <c r="B269" t="s">
-        <v>903</v>
+        <v>972</v>
       </c>
       <c r="C269">
         <v>2017</v>
@@ -7376,10 +7583,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>884</v>
+        <v>953</v>
       </c>
       <c r="B270" t="s">
-        <v>903</v>
+        <v>972</v>
       </c>
       <c r="C270">
         <v>2018</v>
@@ -7393,10 +7600,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>884</v>
+        <v>953</v>
       </c>
       <c r="B271" t="s">
-        <v>903</v>
+        <v>972</v>
       </c>
       <c r="C271">
         <v>2019</v>
@@ -7410,10 +7617,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>884</v>
+        <v>953</v>
       </c>
       <c r="B272" t="s">
-        <v>903</v>
+        <v>972</v>
       </c>
       <c r="C272">
         <v>2020</v>
@@ -7427,10 +7634,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>884</v>
+        <v>953</v>
       </c>
       <c r="B273" t="s">
-        <v>903</v>
+        <v>972</v>
       </c>
       <c r="C273">
         <v>2021</v>
@@ -7444,10 +7651,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>884</v>
+        <v>953</v>
       </c>
       <c r="B274" t="s">
-        <v>903</v>
+        <v>972</v>
       </c>
       <c r="C274">
         <v>2022</v>
@@ -7461,10 +7668,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>884</v>
+        <v>953</v>
       </c>
       <c r="B275" t="s">
-        <v>903</v>
+        <v>972</v>
       </c>
       <c r="C275">
         <v>2023</v>
@@ -7478,10 +7685,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>884</v>
+        <v>953</v>
       </c>
       <c r="B276" t="s">
-        <v>903</v>
+        <v>972</v>
       </c>
       <c r="C276">
         <v>2024</v>
@@ -7495,10 +7702,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>885</v>
+        <v>954</v>
       </c>
       <c r="B277" t="s">
-        <v>904</v>
+        <v>973</v>
       </c>
       <c r="C277">
         <v>2000</v>
@@ -7512,10 +7719,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>885</v>
+        <v>954</v>
       </c>
       <c r="B278" t="s">
-        <v>904</v>
+        <v>973</v>
       </c>
       <c r="C278">
         <v>2001</v>
@@ -7529,10 +7736,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>885</v>
+        <v>954</v>
       </c>
       <c r="B279" t="s">
-        <v>904</v>
+        <v>973</v>
       </c>
       <c r="C279">
         <v>2002</v>
@@ -7546,10 +7753,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>885</v>
+        <v>954</v>
       </c>
       <c r="B280" t="s">
-        <v>904</v>
+        <v>973</v>
       </c>
       <c r="C280">
         <v>2003</v>
@@ -7563,10 +7770,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>885</v>
+        <v>954</v>
       </c>
       <c r="B281" t="s">
-        <v>904</v>
+        <v>973</v>
       </c>
       <c r="C281">
         <v>2004</v>
@@ -7580,10 +7787,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>885</v>
+        <v>954</v>
       </c>
       <c r="B282" t="s">
-        <v>904</v>
+        <v>973</v>
       </c>
       <c r="C282">
         <v>2005</v>
@@ -7597,10 +7804,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>885</v>
+        <v>954</v>
       </c>
       <c r="B283" t="s">
-        <v>904</v>
+        <v>973</v>
       </c>
       <c r="C283">
         <v>2006</v>
@@ -7614,10 +7821,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>885</v>
+        <v>954</v>
       </c>
       <c r="B284" t="s">
-        <v>904</v>
+        <v>973</v>
       </c>
       <c r="C284">
         <v>2007</v>
@@ -7631,10 +7838,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>885</v>
+        <v>954</v>
       </c>
       <c r="B285" t="s">
-        <v>904</v>
+        <v>973</v>
       </c>
       <c r="C285">
         <v>2008</v>
@@ -7648,10 +7855,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>885</v>
+        <v>954</v>
       </c>
       <c r="B286" t="s">
-        <v>904</v>
+        <v>973</v>
       </c>
       <c r="C286">
         <v>2009</v>
@@ -7665,10 +7872,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>885</v>
+        <v>954</v>
       </c>
       <c r="B287" t="s">
-        <v>904</v>
+        <v>973</v>
       </c>
       <c r="C287">
         <v>2010</v>
@@ -7682,10 +7889,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>885</v>
+        <v>954</v>
       </c>
       <c r="B288" t="s">
-        <v>904</v>
+        <v>973</v>
       </c>
       <c r="C288">
         <v>2011</v>
@@ -7699,10 +7906,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>885</v>
+        <v>954</v>
       </c>
       <c r="B289" t="s">
-        <v>904</v>
+        <v>973</v>
       </c>
       <c r="C289">
         <v>2012</v>
@@ -7716,10 +7923,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>885</v>
+        <v>954</v>
       </c>
       <c r="B290" t="s">
-        <v>904</v>
+        <v>973</v>
       </c>
       <c r="C290">
         <v>2013</v>
@@ -7733,10 +7940,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>885</v>
+        <v>954</v>
       </c>
       <c r="B291" t="s">
-        <v>904</v>
+        <v>973</v>
       </c>
       <c r="C291">
         <v>2014</v>
@@ -7750,10 +7957,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>885</v>
+        <v>954</v>
       </c>
       <c r="B292" t="s">
-        <v>904</v>
+        <v>973</v>
       </c>
       <c r="C292">
         <v>2015</v>
@@ -7767,10 +7974,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>885</v>
+        <v>954</v>
       </c>
       <c r="B293" t="s">
-        <v>904</v>
+        <v>973</v>
       </c>
       <c r="C293">
         <v>2016</v>
@@ -7784,10 +7991,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>885</v>
+        <v>954</v>
       </c>
       <c r="B294" t="s">
-        <v>904</v>
+        <v>973</v>
       </c>
       <c r="C294">
         <v>2017</v>
@@ -7801,10 +8008,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>885</v>
+        <v>954</v>
       </c>
       <c r="B295" t="s">
-        <v>904</v>
+        <v>973</v>
       </c>
       <c r="C295">
         <v>2018</v>
@@ -7818,10 +8025,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>885</v>
+        <v>954</v>
       </c>
       <c r="B296" t="s">
-        <v>904</v>
+        <v>973</v>
       </c>
       <c r="C296">
         <v>2019</v>
@@ -7835,10 +8042,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>885</v>
+        <v>954</v>
       </c>
       <c r="B297" t="s">
-        <v>904</v>
+        <v>973</v>
       </c>
       <c r="C297">
         <v>2020</v>
@@ -7852,10 +8059,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>885</v>
+        <v>954</v>
       </c>
       <c r="B298" t="s">
-        <v>904</v>
+        <v>973</v>
       </c>
       <c r="C298">
         <v>2021</v>
@@ -7869,10 +8076,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>885</v>
+        <v>954</v>
       </c>
       <c r="B299" t="s">
-        <v>904</v>
+        <v>973</v>
       </c>
       <c r="C299">
         <v>2022</v>
@@ -7886,10 +8093,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>885</v>
+        <v>954</v>
       </c>
       <c r="B300" t="s">
-        <v>904</v>
+        <v>973</v>
       </c>
       <c r="C300">
         <v>2023</v>
@@ -7903,10 +8110,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>885</v>
+        <v>954</v>
       </c>
       <c r="B301" t="s">
-        <v>904</v>
+        <v>973</v>
       </c>
       <c r="C301">
         <v>2024</v>
@@ -7920,10 +8127,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>886</v>
+        <v>955</v>
       </c>
       <c r="B302" t="s">
-        <v>905</v>
+        <v>974</v>
       </c>
       <c r="C302">
         <v>2000</v>
@@ -7937,10 +8144,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>886</v>
+        <v>955</v>
       </c>
       <c r="B303" t="s">
-        <v>905</v>
+        <v>974</v>
       </c>
       <c r="C303">
         <v>2001</v>
@@ -7954,10 +8161,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>886</v>
+        <v>955</v>
       </c>
       <c r="B304" t="s">
-        <v>905</v>
+        <v>974</v>
       </c>
       <c r="C304">
         <v>2002</v>
@@ -7971,10 +8178,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>886</v>
+        <v>955</v>
       </c>
       <c r="B305" t="s">
-        <v>905</v>
+        <v>974</v>
       </c>
       <c r="C305">
         <v>2003</v>
@@ -7988,10 +8195,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>886</v>
+        <v>955</v>
       </c>
       <c r="B306" t="s">
-        <v>905</v>
+        <v>974</v>
       </c>
       <c r="C306">
         <v>2004</v>
@@ -8005,10 +8212,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>886</v>
+        <v>955</v>
       </c>
       <c r="B307" t="s">
-        <v>905</v>
+        <v>974</v>
       </c>
       <c r="C307">
         <v>2005</v>
@@ -8022,10 +8229,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>886</v>
+        <v>955</v>
       </c>
       <c r="B308" t="s">
-        <v>905</v>
+        <v>974</v>
       </c>
       <c r="C308">
         <v>2006</v>
@@ -8039,10 +8246,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>886</v>
+        <v>955</v>
       </c>
       <c r="B309" t="s">
-        <v>905</v>
+        <v>974</v>
       </c>
       <c r="C309">
         <v>2007</v>
@@ -8056,10 +8263,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>886</v>
+        <v>955</v>
       </c>
       <c r="B310" t="s">
-        <v>905</v>
+        <v>974</v>
       </c>
       <c r="C310">
         <v>2008</v>
@@ -8073,10 +8280,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>886</v>
+        <v>955</v>
       </c>
       <c r="B311" t="s">
-        <v>905</v>
+        <v>974</v>
       </c>
       <c r="C311">
         <v>2009</v>
@@ -8090,10 +8297,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>886</v>
+        <v>955</v>
       </c>
       <c r="B312" t="s">
-        <v>905</v>
+        <v>974</v>
       </c>
       <c r="C312">
         <v>2010</v>
@@ -8107,10 +8314,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>886</v>
+        <v>955</v>
       </c>
       <c r="B313" t="s">
-        <v>905</v>
+        <v>974</v>
       </c>
       <c r="C313">
         <v>2011</v>
@@ -8124,10 +8331,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>886</v>
+        <v>955</v>
       </c>
       <c r="B314" t="s">
-        <v>905</v>
+        <v>974</v>
       </c>
       <c r="C314">
         <v>2012</v>
@@ -8141,10 +8348,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>886</v>
+        <v>955</v>
       </c>
       <c r="B315" t="s">
-        <v>905</v>
+        <v>974</v>
       </c>
       <c r="C315">
         <v>2013</v>
@@ -8158,10 +8365,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>886</v>
+        <v>955</v>
       </c>
       <c r="B316" t="s">
-        <v>905</v>
+        <v>974</v>
       </c>
       <c r="C316">
         <v>2014</v>
@@ -8175,10 +8382,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>886</v>
+        <v>955</v>
       </c>
       <c r="B317" t="s">
-        <v>905</v>
+        <v>974</v>
       </c>
       <c r="C317">
         <v>2015</v>
@@ -8192,10 +8399,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>886</v>
+        <v>955</v>
       </c>
       <c r="B318" t="s">
-        <v>905</v>
+        <v>974</v>
       </c>
       <c r="C318">
         <v>2016</v>
@@ -8209,10 +8416,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>886</v>
+        <v>955</v>
       </c>
       <c r="B319" t="s">
-        <v>905</v>
+        <v>974</v>
       </c>
       <c r="C319">
         <v>2017</v>
@@ -8226,10 +8433,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>886</v>
+        <v>955</v>
       </c>
       <c r="B320" t="s">
-        <v>905</v>
+        <v>974</v>
       </c>
       <c r="C320">
         <v>2018</v>
@@ -8243,10 +8450,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>886</v>
+        <v>955</v>
       </c>
       <c r="B321" t="s">
-        <v>905</v>
+        <v>974</v>
       </c>
       <c r="C321">
         <v>2019</v>
@@ -8260,10 +8467,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>886</v>
+        <v>955</v>
       </c>
       <c r="B322" t="s">
-        <v>905</v>
+        <v>974</v>
       </c>
       <c r="C322">
         <v>2020</v>
@@ -8277,10 +8484,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>886</v>
+        <v>955</v>
       </c>
       <c r="B323" t="s">
-        <v>905</v>
+        <v>974</v>
       </c>
       <c r="C323">
         <v>2021</v>
@@ -8294,10 +8501,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>886</v>
+        <v>955</v>
       </c>
       <c r="B324" t="s">
-        <v>905</v>
+        <v>974</v>
       </c>
       <c r="C324">
         <v>2022</v>
@@ -8311,10 +8518,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>886</v>
+        <v>955</v>
       </c>
       <c r="B325" t="s">
-        <v>905</v>
+        <v>974</v>
       </c>
       <c r="C325">
         <v>2023</v>
@@ -8328,10 +8535,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>886</v>
+        <v>955</v>
       </c>
       <c r="B326" t="s">
-        <v>905</v>
+        <v>974</v>
       </c>
       <c r="C326">
         <v>2024</v>
@@ -8345,10 +8552,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>887</v>
+        <v>956</v>
       </c>
       <c r="B327" t="s">
-        <v>906</v>
+        <v>975</v>
       </c>
       <c r="C327">
         <v>2000</v>
@@ -8362,10 +8569,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>887</v>
+        <v>956</v>
       </c>
       <c r="B328" t="s">
-        <v>906</v>
+        <v>975</v>
       </c>
       <c r="C328">
         <v>2001</v>
@@ -8379,10 +8586,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>887</v>
+        <v>956</v>
       </c>
       <c r="B329" t="s">
-        <v>906</v>
+        <v>975</v>
       </c>
       <c r="C329">
         <v>2002</v>
@@ -8396,10 +8603,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>887</v>
+        <v>956</v>
       </c>
       <c r="B330" t="s">
-        <v>906</v>
+        <v>975</v>
       </c>
       <c r="C330">
         <v>2003</v>
@@ -8413,10 +8620,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>887</v>
+        <v>956</v>
       </c>
       <c r="B331" t="s">
-        <v>906</v>
+        <v>975</v>
       </c>
       <c r="C331">
         <v>2004</v>
@@ -8430,10 +8637,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>887</v>
+        <v>956</v>
       </c>
       <c r="B332" t="s">
-        <v>906</v>
+        <v>975</v>
       </c>
       <c r="C332">
         <v>2005</v>
@@ -8447,10 +8654,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>887</v>
+        <v>956</v>
       </c>
       <c r="B333" t="s">
-        <v>906</v>
+        <v>975</v>
       </c>
       <c r="C333">
         <v>2006</v>
@@ -8464,10 +8671,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>887</v>
+        <v>956</v>
       </c>
       <c r="B334" t="s">
-        <v>906</v>
+        <v>975</v>
       </c>
       <c r="C334">
         <v>2007</v>
@@ -8481,10 +8688,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>887</v>
+        <v>956</v>
       </c>
       <c r="B335" t="s">
-        <v>906</v>
+        <v>975</v>
       </c>
       <c r="C335">
         <v>2008</v>
@@ -8498,10 +8705,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>887</v>
+        <v>956</v>
       </c>
       <c r="B336" t="s">
-        <v>906</v>
+        <v>975</v>
       </c>
       <c r="C336">
         <v>2009</v>
@@ -8515,10 +8722,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>887</v>
+        <v>956</v>
       </c>
       <c r="B337" t="s">
-        <v>906</v>
+        <v>975</v>
       </c>
       <c r="C337">
         <v>2010</v>
@@ -8532,10 +8739,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>887</v>
+        <v>956</v>
       </c>
       <c r="B338" t="s">
-        <v>906</v>
+        <v>975</v>
       </c>
       <c r="C338">
         <v>2011</v>
@@ -8549,10 +8756,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>887</v>
+        <v>956</v>
       </c>
       <c r="B339" t="s">
-        <v>906</v>
+        <v>975</v>
       </c>
       <c r="C339">
         <v>2012</v>
@@ -8566,10 +8773,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>887</v>
+        <v>956</v>
       </c>
       <c r="B340" t="s">
-        <v>906</v>
+        <v>975</v>
       </c>
       <c r="C340">
         <v>2013</v>
@@ -8583,10 +8790,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>887</v>
+        <v>956</v>
       </c>
       <c r="B341" t="s">
-        <v>906</v>
+        <v>975</v>
       </c>
       <c r="C341">
         <v>2014</v>
@@ -8600,10 +8807,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>887</v>
+        <v>956</v>
       </c>
       <c r="B342" t="s">
-        <v>906</v>
+        <v>975</v>
       </c>
       <c r="C342">
         <v>2015</v>
@@ -8617,10 +8824,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>887</v>
+        <v>956</v>
       </c>
       <c r="B343" t="s">
-        <v>906</v>
+        <v>975</v>
       </c>
       <c r="C343">
         <v>2016</v>
@@ -8634,10 +8841,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>887</v>
+        <v>956</v>
       </c>
       <c r="B344" t="s">
-        <v>906</v>
+        <v>975</v>
       </c>
       <c r="C344">
         <v>2017</v>
@@ -8651,10 +8858,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>887</v>
+        <v>956</v>
       </c>
       <c r="B345" t="s">
-        <v>906</v>
+        <v>975</v>
       </c>
       <c r="C345">
         <v>2018</v>
@@ -8668,10 +8875,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>887</v>
+        <v>956</v>
       </c>
       <c r="B346" t="s">
-        <v>906</v>
+        <v>975</v>
       </c>
       <c r="C346">
         <v>2019</v>
@@ -8685,10 +8892,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>887</v>
+        <v>956</v>
       </c>
       <c r="B347" t="s">
-        <v>906</v>
+        <v>975</v>
       </c>
       <c r="C347">
         <v>2020</v>
@@ -8702,10 +8909,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>887</v>
+        <v>956</v>
       </c>
       <c r="B348" t="s">
-        <v>906</v>
+        <v>975</v>
       </c>
       <c r="C348">
         <v>2021</v>
@@ -8719,10 +8926,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>887</v>
+        <v>956</v>
       </c>
       <c r="B349" t="s">
-        <v>906</v>
+        <v>975</v>
       </c>
       <c r="C349">
         <v>2022</v>
@@ -8736,10 +8943,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>887</v>
+        <v>956</v>
       </c>
       <c r="B350" t="s">
-        <v>906</v>
+        <v>975</v>
       </c>
       <c r="C350">
         <v>2023</v>
@@ -8753,10 +8960,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>887</v>
+        <v>956</v>
       </c>
       <c r="B351" t="s">
-        <v>906</v>
+        <v>975</v>
       </c>
       <c r="C351">
         <v>2024</v>
@@ -8770,10 +8977,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>888</v>
+        <v>957</v>
       </c>
       <c r="B352" t="s">
-        <v>907</v>
+        <v>976</v>
       </c>
       <c r="C352">
         <v>2000</v>
@@ -8787,10 +8994,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>888</v>
+        <v>957</v>
       </c>
       <c r="B353" t="s">
-        <v>907</v>
+        <v>976</v>
       </c>
       <c r="C353">
         <v>2001</v>
@@ -8804,10 +9011,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>888</v>
+        <v>957</v>
       </c>
       <c r="B354" t="s">
-        <v>907</v>
+        <v>976</v>
       </c>
       <c r="C354">
         <v>2002</v>
@@ -8821,10 +9028,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>888</v>
+        <v>957</v>
       </c>
       <c r="B355" t="s">
-        <v>907</v>
+        <v>976</v>
       </c>
       <c r="C355">
         <v>2003</v>
@@ -8838,10 +9045,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>888</v>
+        <v>957</v>
       </c>
       <c r="B356" t="s">
-        <v>907</v>
+        <v>976</v>
       </c>
       <c r="C356">
         <v>2004</v>
@@ -8855,10 +9062,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>888</v>
+        <v>957</v>
       </c>
       <c r="B357" t="s">
-        <v>907</v>
+        <v>976</v>
       </c>
       <c r="C357">
         <v>2005</v>
@@ -8872,10 +9079,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>888</v>
+        <v>957</v>
       </c>
       <c r="B358" t="s">
-        <v>907</v>
+        <v>976</v>
       </c>
       <c r="C358">
         <v>2006</v>
@@ -8889,10 +9096,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>888</v>
+        <v>957</v>
       </c>
       <c r="B359" t="s">
-        <v>907</v>
+        <v>976</v>
       </c>
       <c r="C359">
         <v>2007</v>
@@ -8906,10 +9113,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>888</v>
+        <v>957</v>
       </c>
       <c r="B360" t="s">
-        <v>907</v>
+        <v>976</v>
       </c>
       <c r="C360">
         <v>2008</v>
@@ -8923,10 +9130,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>888</v>
+        <v>957</v>
       </c>
       <c r="B361" t="s">
-        <v>907</v>
+        <v>976</v>
       </c>
       <c r="C361">
         <v>2009</v>
@@ -8940,10 +9147,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>888</v>
+        <v>957</v>
       </c>
       <c r="B362" t="s">
-        <v>907</v>
+        <v>976</v>
       </c>
       <c r="C362">
         <v>2010</v>
@@ -8957,10 +9164,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>888</v>
+        <v>957</v>
       </c>
       <c r="B363" t="s">
-        <v>907</v>
+        <v>976</v>
       </c>
       <c r="C363">
         <v>2011</v>
@@ -8974,10 +9181,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>888</v>
+        <v>957</v>
       </c>
       <c r="B364" t="s">
-        <v>907</v>
+        <v>976</v>
       </c>
       <c r="C364">
         <v>2012</v>
@@ -8991,10 +9198,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>888</v>
+        <v>957</v>
       </c>
       <c r="B365" t="s">
-        <v>907</v>
+        <v>976</v>
       </c>
       <c r="C365">
         <v>2013</v>
@@ -9008,10 +9215,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>888</v>
+        <v>957</v>
       </c>
       <c r="B366" t="s">
-        <v>907</v>
+        <v>976</v>
       </c>
       <c r="C366">
         <v>2014</v>
@@ -9025,10 +9232,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>888</v>
+        <v>957</v>
       </c>
       <c r="B367" t="s">
-        <v>907</v>
+        <v>976</v>
       </c>
       <c r="C367">
         <v>2015</v>
@@ -9042,10 +9249,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>888</v>
+        <v>957</v>
       </c>
       <c r="B368" t="s">
-        <v>907</v>
+        <v>976</v>
       </c>
       <c r="C368">
         <v>2016</v>
@@ -9059,10 +9266,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>888</v>
+        <v>957</v>
       </c>
       <c r="B369" t="s">
-        <v>907</v>
+        <v>976</v>
       </c>
       <c r="C369">
         <v>2017</v>
@@ -9076,10 +9283,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>888</v>
+        <v>957</v>
       </c>
       <c r="B370" t="s">
-        <v>907</v>
+        <v>976</v>
       </c>
       <c r="C370">
         <v>2018</v>
@@ -9093,10 +9300,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>888</v>
+        <v>957</v>
       </c>
       <c r="B371" t="s">
-        <v>907</v>
+        <v>976</v>
       </c>
       <c r="C371">
         <v>2019</v>
@@ -9110,10 +9317,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>888</v>
+        <v>957</v>
       </c>
       <c r="B372" t="s">
-        <v>907</v>
+        <v>976</v>
       </c>
       <c r="C372">
         <v>2020</v>
@@ -9127,10 +9334,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>888</v>
+        <v>957</v>
       </c>
       <c r="B373" t="s">
-        <v>907</v>
+        <v>976</v>
       </c>
       <c r="C373">
         <v>2021</v>
@@ -9144,10 +9351,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>888</v>
+        <v>957</v>
       </c>
       <c r="B374" t="s">
-        <v>907</v>
+        <v>976</v>
       </c>
       <c r="C374">
         <v>2022</v>
@@ -9161,10 +9368,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>888</v>
+        <v>957</v>
       </c>
       <c r="B375" t="s">
-        <v>907</v>
+        <v>976</v>
       </c>
       <c r="C375">
         <v>2023</v>
@@ -9178,10 +9385,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>888</v>
+        <v>957</v>
       </c>
       <c r="B376" t="s">
-        <v>907</v>
+        <v>976</v>
       </c>
       <c r="C376">
         <v>2024</v>
@@ -9195,10 +9402,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>889</v>
+        <v>958</v>
       </c>
       <c r="B377" t="s">
-        <v>908</v>
+        <v>977</v>
       </c>
       <c r="C377">
         <v>2000</v>
@@ -9212,10 +9419,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>889</v>
+        <v>958</v>
       </c>
       <c r="B378" t="s">
-        <v>908</v>
+        <v>977</v>
       </c>
       <c r="C378">
         <v>2001</v>
@@ -9229,10 +9436,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>889</v>
+        <v>958</v>
       </c>
       <c r="B379" t="s">
-        <v>908</v>
+        <v>977</v>
       </c>
       <c r="C379">
         <v>2002</v>
@@ -9246,10 +9453,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>889</v>
+        <v>958</v>
       </c>
       <c r="B380" t="s">
-        <v>908</v>
+        <v>977</v>
       </c>
       <c r="C380">
         <v>2003</v>
@@ -9263,10 +9470,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>889</v>
+        <v>958</v>
       </c>
       <c r="B381" t="s">
-        <v>908</v>
+        <v>977</v>
       </c>
       <c r="C381">
         <v>2004</v>
@@ -9280,10 +9487,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>889</v>
+        <v>958</v>
       </c>
       <c r="B382" t="s">
-        <v>908</v>
+        <v>977</v>
       </c>
       <c r="C382">
         <v>2005</v>
@@ -9297,10 +9504,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>889</v>
+        <v>958</v>
       </c>
       <c r="B383" t="s">
-        <v>908</v>
+        <v>977</v>
       </c>
       <c r="C383">
         <v>2006</v>
@@ -9314,10 +9521,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>889</v>
+        <v>958</v>
       </c>
       <c r="B384" t="s">
-        <v>908</v>
+        <v>977</v>
       </c>
       <c r="C384">
         <v>2007</v>
@@ -9331,10 +9538,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>889</v>
+        <v>958</v>
       </c>
       <c r="B385" t="s">
-        <v>908</v>
+        <v>977</v>
       </c>
       <c r="C385">
         <v>2008</v>
@@ -9348,10 +9555,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>889</v>
+        <v>958</v>
       </c>
       <c r="B386" t="s">
-        <v>908</v>
+        <v>977</v>
       </c>
       <c r="C386">
         <v>2009</v>
@@ -9365,10 +9572,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>889</v>
+        <v>958</v>
       </c>
       <c r="B387" t="s">
-        <v>908</v>
+        <v>977</v>
       </c>
       <c r="C387">
         <v>2010</v>
@@ -9382,10 +9589,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>889</v>
+        <v>958</v>
       </c>
       <c r="B388" t="s">
-        <v>908</v>
+        <v>977</v>
       </c>
       <c r="C388">
         <v>2011</v>
@@ -9399,10 +9606,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>889</v>
+        <v>958</v>
       </c>
       <c r="B389" t="s">
-        <v>908</v>
+        <v>977</v>
       </c>
       <c r="C389">
         <v>2012</v>
@@ -9416,10 +9623,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>889</v>
+        <v>958</v>
       </c>
       <c r="B390" t="s">
-        <v>908</v>
+        <v>977</v>
       </c>
       <c r="C390">
         <v>2013</v>
@@ -9433,10 +9640,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>889</v>
+        <v>958</v>
       </c>
       <c r="B391" t="s">
-        <v>908</v>
+        <v>977</v>
       </c>
       <c r="C391">
         <v>2014</v>
@@ -9450,10 +9657,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>889</v>
+        <v>958</v>
       </c>
       <c r="B392" t="s">
-        <v>908</v>
+        <v>977</v>
       </c>
       <c r="C392">
         <v>2015</v>
@@ -9467,10 +9674,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>889</v>
+        <v>958</v>
       </c>
       <c r="B393" t="s">
-        <v>908</v>
+        <v>977</v>
       </c>
       <c r="C393">
         <v>2016</v>
@@ -9484,10 +9691,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>889</v>
+        <v>958</v>
       </c>
       <c r="B394" t="s">
-        <v>908</v>
+        <v>977</v>
       </c>
       <c r="C394">
         <v>2017</v>
@@ -9501,10 +9708,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>889</v>
+        <v>958</v>
       </c>
       <c r="B395" t="s">
-        <v>908</v>
+        <v>977</v>
       </c>
       <c r="C395">
         <v>2018</v>
@@ -9518,10 +9725,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>889</v>
+        <v>958</v>
       </c>
       <c r="B396" t="s">
-        <v>908</v>
+        <v>977</v>
       </c>
       <c r="C396">
         <v>2019</v>
@@ -9535,10 +9742,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>889</v>
+        <v>958</v>
       </c>
       <c r="B397" t="s">
-        <v>908</v>
+        <v>977</v>
       </c>
       <c r="C397">
         <v>2020</v>
@@ -9552,10 +9759,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>889</v>
+        <v>958</v>
       </c>
       <c r="B398" t="s">
-        <v>908</v>
+        <v>977</v>
       </c>
       <c r="C398">
         <v>2021</v>
@@ -9569,10 +9776,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>889</v>
+        <v>958</v>
       </c>
       <c r="B399" t="s">
-        <v>908</v>
+        <v>977</v>
       </c>
       <c r="C399">
         <v>2022</v>
@@ -9586,10 +9793,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>889</v>
+        <v>958</v>
       </c>
       <c r="B400" t="s">
-        <v>908</v>
+        <v>977</v>
       </c>
       <c r="C400">
         <v>2023</v>
@@ -9603,10 +9810,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>889</v>
+        <v>958</v>
       </c>
       <c r="B401" t="s">
-        <v>908</v>
+        <v>977</v>
       </c>
       <c r="C401">
         <v>2024</v>
@@ -9620,10 +9827,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>890</v>
+        <v>959</v>
       </c>
       <c r="B402" t="s">
-        <v>909</v>
+        <v>978</v>
       </c>
       <c r="C402">
         <v>2000</v>
@@ -9637,10 +9844,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>890</v>
+        <v>959</v>
       </c>
       <c r="B403" t="s">
-        <v>909</v>
+        <v>978</v>
       </c>
       <c r="C403">
         <v>2001</v>
@@ -9654,10 +9861,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>890</v>
+        <v>959</v>
       </c>
       <c r="B404" t="s">
-        <v>909</v>
+        <v>978</v>
       </c>
       <c r="C404">
         <v>2002</v>
@@ -9671,10 +9878,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>890</v>
+        <v>959</v>
       </c>
       <c r="B405" t="s">
-        <v>909</v>
+        <v>978</v>
       </c>
       <c r="C405">
         <v>2003</v>
@@ -9688,10 +9895,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>890</v>
+        <v>959</v>
       </c>
       <c r="B406" t="s">
-        <v>909</v>
+        <v>978</v>
       </c>
       <c r="C406">
         <v>2004</v>
@@ -9705,10 +9912,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>890</v>
+        <v>959</v>
       </c>
       <c r="B407" t="s">
-        <v>909</v>
+        <v>978</v>
       </c>
       <c r="C407">
         <v>2005</v>
@@ -9722,10 +9929,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>890</v>
+        <v>959</v>
       </c>
       <c r="B408" t="s">
-        <v>909</v>
+        <v>978</v>
       </c>
       <c r="C408">
         <v>2006</v>
@@ -9739,10 +9946,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>890</v>
+        <v>959</v>
       </c>
       <c r="B409" t="s">
-        <v>909</v>
+        <v>978</v>
       </c>
       <c r="C409">
         <v>2007</v>
@@ -9756,10 +9963,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>890</v>
+        <v>959</v>
       </c>
       <c r="B410" t="s">
-        <v>909</v>
+        <v>978</v>
       </c>
       <c r="C410">
         <v>2008</v>
@@ -9773,10 +9980,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>890</v>
+        <v>959</v>
       </c>
       <c r="B411" t="s">
-        <v>909</v>
+        <v>978</v>
       </c>
       <c r="C411">
         <v>2009</v>
@@ -9790,10 +9997,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>890</v>
+        <v>959</v>
       </c>
       <c r="B412" t="s">
-        <v>909</v>
+        <v>978</v>
       </c>
       <c r="C412">
         <v>2010</v>
@@ -9807,10 +10014,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>890</v>
+        <v>959</v>
       </c>
       <c r="B413" t="s">
-        <v>909</v>
+        <v>978</v>
       </c>
       <c r="C413">
         <v>2011</v>
@@ -9824,10 +10031,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>890</v>
+        <v>959</v>
       </c>
       <c r="B414" t="s">
-        <v>909</v>
+        <v>978</v>
       </c>
       <c r="C414">
         <v>2012</v>
@@ -9841,10 +10048,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>890</v>
+        <v>959</v>
       </c>
       <c r="B415" t="s">
-        <v>909</v>
+        <v>978</v>
       </c>
       <c r="C415">
         <v>2013</v>
@@ -9858,10 +10065,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>890</v>
+        <v>959</v>
       </c>
       <c r="B416" t="s">
-        <v>909</v>
+        <v>978</v>
       </c>
       <c r="C416">
         <v>2014</v>
@@ -9875,10 +10082,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>890</v>
+        <v>959</v>
       </c>
       <c r="B417" t="s">
-        <v>909</v>
+        <v>978</v>
       </c>
       <c r="C417">
         <v>2015</v>
@@ -9892,10 +10099,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>890</v>
+        <v>959</v>
       </c>
       <c r="B418" t="s">
-        <v>909</v>
+        <v>978</v>
       </c>
       <c r="C418">
         <v>2016</v>
@@ -9909,10 +10116,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>890</v>
+        <v>959</v>
       </c>
       <c r="B419" t="s">
-        <v>909</v>
+        <v>978</v>
       </c>
       <c r="C419">
         <v>2017</v>
@@ -9926,10 +10133,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>890</v>
+        <v>959</v>
       </c>
       <c r="B420" t="s">
-        <v>909</v>
+        <v>978</v>
       </c>
       <c r="C420">
         <v>2018</v>
@@ -9943,10 +10150,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>890</v>
+        <v>959</v>
       </c>
       <c r="B421" t="s">
-        <v>909</v>
+        <v>978</v>
       </c>
       <c r="C421">
         <v>2019</v>
@@ -9960,10 +10167,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>890</v>
+        <v>959</v>
       </c>
       <c r="B422" t="s">
-        <v>909</v>
+        <v>978</v>
       </c>
       <c r="C422">
         <v>2020</v>
@@ -9977,10 +10184,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>890</v>
+        <v>959</v>
       </c>
       <c r="B423" t="s">
-        <v>909</v>
+        <v>978</v>
       </c>
       <c r="C423">
         <v>2021</v>
@@ -9994,10 +10201,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>890</v>
+        <v>959</v>
       </c>
       <c r="B424" t="s">
-        <v>909</v>
+        <v>978</v>
       </c>
       <c r="C424">
         <v>2022</v>
@@ -10011,10 +10218,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>890</v>
+        <v>959</v>
       </c>
       <c r="B425" t="s">
-        <v>909</v>
+        <v>978</v>
       </c>
       <c r="C425">
         <v>2023</v>
@@ -10028,10 +10235,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>890</v>
+        <v>959</v>
       </c>
       <c r="B426" t="s">
-        <v>909</v>
+        <v>978</v>
       </c>
       <c r="C426">
         <v>2024</v>
@@ -10045,10 +10252,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>891</v>
+        <v>960</v>
       </c>
       <c r="B427" t="s">
-        <v>910</v>
+        <v>979</v>
       </c>
       <c r="C427">
         <v>2000</v>
@@ -10062,10 +10269,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>891</v>
+        <v>960</v>
       </c>
       <c r="B428" t="s">
-        <v>910</v>
+        <v>979</v>
       </c>
       <c r="C428">
         <v>2001</v>
@@ -10079,10 +10286,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>891</v>
+        <v>960</v>
       </c>
       <c r="B429" t="s">
-        <v>910</v>
+        <v>979</v>
       </c>
       <c r="C429">
         <v>2002</v>
@@ -10096,10 +10303,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>891</v>
+        <v>960</v>
       </c>
       <c r="B430" t="s">
-        <v>910</v>
+        <v>979</v>
       </c>
       <c r="C430">
         <v>2003</v>
@@ -10113,10 +10320,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>891</v>
+        <v>960</v>
       </c>
       <c r="B431" t="s">
-        <v>910</v>
+        <v>979</v>
       </c>
       <c r="C431">
         <v>2004</v>
@@ -10130,10 +10337,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>891</v>
+        <v>960</v>
       </c>
       <c r="B432" t="s">
-        <v>910</v>
+        <v>979</v>
       </c>
       <c r="C432">
         <v>2005</v>
@@ -10147,10 +10354,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>891</v>
+        <v>960</v>
       </c>
       <c r="B433" t="s">
-        <v>910</v>
+        <v>979</v>
       </c>
       <c r="C433">
         <v>2006</v>
@@ -10164,10 +10371,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>891</v>
+        <v>960</v>
       </c>
       <c r="B434" t="s">
-        <v>910</v>
+        <v>979</v>
       </c>
       <c r="C434">
         <v>2007</v>
@@ -10181,10 +10388,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>891</v>
+        <v>960</v>
       </c>
       <c r="B435" t="s">
-        <v>910</v>
+        <v>979</v>
       </c>
       <c r="C435">
         <v>2008</v>
@@ -10198,10 +10405,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>891</v>
+        <v>960</v>
       </c>
       <c r="B436" t="s">
-        <v>910</v>
+        <v>979</v>
       </c>
       <c r="C436">
         <v>2009</v>
@@ -10215,10 +10422,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>891</v>
+        <v>960</v>
       </c>
       <c r="B437" t="s">
-        <v>910</v>
+        <v>979</v>
       </c>
       <c r="C437">
         <v>2010</v>
@@ -10232,10 +10439,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>891</v>
+        <v>960</v>
       </c>
       <c r="B438" t="s">
-        <v>910</v>
+        <v>979</v>
       </c>
       <c r="C438">
         <v>2011</v>
@@ -10249,10 +10456,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>891</v>
+        <v>960</v>
       </c>
       <c r="B439" t="s">
-        <v>910</v>
+        <v>979</v>
       </c>
       <c r="C439">
         <v>2012</v>
@@ -10266,10 +10473,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>891</v>
+        <v>960</v>
       </c>
       <c r="B440" t="s">
-        <v>910</v>
+        <v>979</v>
       </c>
       <c r="C440">
         <v>2013</v>
@@ -10283,10 +10490,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>891</v>
+        <v>960</v>
       </c>
       <c r="B441" t="s">
-        <v>910</v>
+        <v>979</v>
       </c>
       <c r="C441">
         <v>2014</v>
@@ -10300,10 +10507,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>891</v>
+        <v>960</v>
       </c>
       <c r="B442" t="s">
-        <v>910</v>
+        <v>979</v>
       </c>
       <c r="C442">
         <v>2015</v>
@@ -10317,10 +10524,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>891</v>
+        <v>960</v>
       </c>
       <c r="B443" t="s">
-        <v>910</v>
+        <v>979</v>
       </c>
       <c r="C443">
         <v>2016</v>
@@ -10334,10 +10541,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>891</v>
+        <v>960</v>
       </c>
       <c r="B444" t="s">
-        <v>910</v>
+        <v>979</v>
       </c>
       <c r="C444">
         <v>2017</v>
@@ -10351,10 +10558,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>891</v>
+        <v>960</v>
       </c>
       <c r="B445" t="s">
-        <v>910</v>
+        <v>979</v>
       </c>
       <c r="C445">
         <v>2018</v>
@@ -10368,10 +10575,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>891</v>
+        <v>960</v>
       </c>
       <c r="B446" t="s">
-        <v>910</v>
+        <v>979</v>
       </c>
       <c r="C446">
         <v>2019</v>
@@ -10385,10 +10592,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>891</v>
+        <v>960</v>
       </c>
       <c r="B447" t="s">
-        <v>910</v>
+        <v>979</v>
       </c>
       <c r="C447">
         <v>2020</v>
@@ -10402,10 +10609,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>891</v>
+        <v>960</v>
       </c>
       <c r="B448" t="s">
-        <v>910</v>
+        <v>979</v>
       </c>
       <c r="C448">
         <v>2021</v>
@@ -10419,10 +10626,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>891</v>
+        <v>960</v>
       </c>
       <c r="B449" t="s">
-        <v>910</v>
+        <v>979</v>
       </c>
       <c r="C449">
         <v>2022</v>
@@ -10436,10 +10643,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>891</v>
+        <v>960</v>
       </c>
       <c r="B450" t="s">
-        <v>910</v>
+        <v>979</v>
       </c>
       <c r="C450">
         <v>2023</v>
@@ -10453,10 +10660,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>891</v>
+        <v>960</v>
       </c>
       <c r="B451" t="s">
-        <v>910</v>
+        <v>979</v>
       </c>
       <c r="C451">
         <v>2024</v>

--- a/input_data/prices_WID/infl_xrates_wid_wb.xlsx
+++ b/input_data/prices_WID/infl_xrates_wid_wb.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21288" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22733" uniqueCount="1149">
   <si>
     <t>countrycode</t>
   </si>
@@ -3046,6 +3046,213 @@
   </si>
   <si>
     <t>cpi_2023</t>
+  </si>
+  <si>
+    <t>countrycode</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>defl_2023</t>
+  </si>
+  <si>
+    <t>xppp_eur</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>cpi_2023</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>BOL</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>GTM</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>PRY</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>countrycode</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>MX</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>UY</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>defl_xxxx</t>
+  </si>
+  <si>
+    <t>xppp_eur</t>
   </si>
   <si>
     <t>countrycode</t>
@@ -3301,27 +3508,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1039</v>
+        <v>1108</v>
       </c>
       <c r="B1" t="s">
-        <v>1058</v>
+        <v>1127</v>
       </c>
       <c r="C1" t="s">
-        <v>1077</v>
+        <v>1146</v>
       </c>
       <c r="D1" t="s">
-        <v>1078</v>
+        <v>1147</v>
       </c>
       <c r="E1" t="s">
-        <v>1079</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1040</v>
+        <v>1109</v>
       </c>
       <c r="B2" t="s">
-        <v>1059</v>
+        <v>1128</v>
       </c>
       <c r="C2">
         <v>2000</v>
@@ -3335,10 +3542,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1040</v>
+        <v>1109</v>
       </c>
       <c r="B3" t="s">
-        <v>1059</v>
+        <v>1128</v>
       </c>
       <c r="C3">
         <v>2001</v>
@@ -3352,10 +3559,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1040</v>
+        <v>1109</v>
       </c>
       <c r="B4" t="s">
-        <v>1059</v>
+        <v>1128</v>
       </c>
       <c r="C4">
         <v>2002</v>
@@ -3369,10 +3576,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1040</v>
+        <v>1109</v>
       </c>
       <c r="B5" t="s">
-        <v>1059</v>
+        <v>1128</v>
       </c>
       <c r="C5">
         <v>2003</v>
@@ -3386,10 +3593,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1040</v>
+        <v>1109</v>
       </c>
       <c r="B6" t="s">
-        <v>1059</v>
+        <v>1128</v>
       </c>
       <c r="C6">
         <v>2004</v>
@@ -3403,10 +3610,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1040</v>
+        <v>1109</v>
       </c>
       <c r="B7" t="s">
-        <v>1059</v>
+        <v>1128</v>
       </c>
       <c r="C7">
         <v>2005</v>
@@ -3420,10 +3627,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1040</v>
+        <v>1109</v>
       </c>
       <c r="B8" t="s">
-        <v>1059</v>
+        <v>1128</v>
       </c>
       <c r="C8">
         <v>2006</v>
@@ -3437,10 +3644,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1040</v>
+        <v>1109</v>
       </c>
       <c r="B9" t="s">
-        <v>1059</v>
+        <v>1128</v>
       </c>
       <c r="C9">
         <v>2007</v>
@@ -3454,10 +3661,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1040</v>
+        <v>1109</v>
       </c>
       <c r="B10" t="s">
-        <v>1059</v>
+        <v>1128</v>
       </c>
       <c r="C10">
         <v>2008</v>
@@ -3471,10 +3678,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1040</v>
+        <v>1109</v>
       </c>
       <c r="B11" t="s">
-        <v>1059</v>
+        <v>1128</v>
       </c>
       <c r="C11">
         <v>2009</v>
@@ -3488,10 +3695,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1040</v>
+        <v>1109</v>
       </c>
       <c r="B12" t="s">
-        <v>1059</v>
+        <v>1128</v>
       </c>
       <c r="C12">
         <v>2010</v>
@@ -3505,10 +3712,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1040</v>
+        <v>1109</v>
       </c>
       <c r="B13" t="s">
-        <v>1059</v>
+        <v>1128</v>
       </c>
       <c r="C13">
         <v>2011</v>
@@ -3522,10 +3729,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1040</v>
+        <v>1109</v>
       </c>
       <c r="B14" t="s">
-        <v>1059</v>
+        <v>1128</v>
       </c>
       <c r="C14">
         <v>2012</v>
@@ -3539,10 +3746,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1040</v>
+        <v>1109</v>
       </c>
       <c r="B15" t="s">
-        <v>1059</v>
+        <v>1128</v>
       </c>
       <c r="C15">
         <v>2013</v>
@@ -3556,10 +3763,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1040</v>
+        <v>1109</v>
       </c>
       <c r="B16" t="s">
-        <v>1059</v>
+        <v>1128</v>
       </c>
       <c r="C16">
         <v>2014</v>
@@ -3573,10 +3780,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1040</v>
+        <v>1109</v>
       </c>
       <c r="B17" t="s">
-        <v>1059</v>
+        <v>1128</v>
       </c>
       <c r="C17">
         <v>2015</v>
@@ -3590,10 +3797,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1040</v>
+        <v>1109</v>
       </c>
       <c r="B18" t="s">
-        <v>1059</v>
+        <v>1128</v>
       </c>
       <c r="C18">
         <v>2016</v>
@@ -3607,10 +3814,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1040</v>
+        <v>1109</v>
       </c>
       <c r="B19" t="s">
-        <v>1059</v>
+        <v>1128</v>
       </c>
       <c r="C19">
         <v>2017</v>
@@ -3624,10 +3831,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1040</v>
+        <v>1109</v>
       </c>
       <c r="B20" t="s">
-        <v>1059</v>
+        <v>1128</v>
       </c>
       <c r="C20">
         <v>2018</v>
@@ -3641,10 +3848,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1040</v>
+        <v>1109</v>
       </c>
       <c r="B21" t="s">
-        <v>1059</v>
+        <v>1128</v>
       </c>
       <c r="C21">
         <v>2019</v>
@@ -3658,10 +3865,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1040</v>
+        <v>1109</v>
       </c>
       <c r="B22" t="s">
-        <v>1059</v>
+        <v>1128</v>
       </c>
       <c r="C22">
         <v>2020</v>
@@ -3675,10 +3882,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1040</v>
+        <v>1109</v>
       </c>
       <c r="B23" t="s">
-        <v>1059</v>
+        <v>1128</v>
       </c>
       <c r="C23">
         <v>2021</v>
@@ -3692,10 +3899,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1040</v>
+        <v>1109</v>
       </c>
       <c r="B24" t="s">
-        <v>1059</v>
+        <v>1128</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -3709,10 +3916,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1040</v>
+        <v>1109</v>
       </c>
       <c r="B25" t="s">
-        <v>1059</v>
+        <v>1128</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -3726,10 +3933,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1040</v>
+        <v>1109</v>
       </c>
       <c r="B26" t="s">
-        <v>1059</v>
+        <v>1128</v>
       </c>
       <c r="C26">
         <v>2024</v>
@@ -3743,10 +3950,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1041</v>
+        <v>1110</v>
       </c>
       <c r="B27" t="s">
-        <v>1060</v>
+        <v>1129</v>
       </c>
       <c r="C27">
         <v>2000</v>
@@ -3760,10 +3967,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1041</v>
+        <v>1110</v>
       </c>
       <c r="B28" t="s">
-        <v>1060</v>
+        <v>1129</v>
       </c>
       <c r="C28">
         <v>2001</v>
@@ -3777,10 +3984,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1041</v>
+        <v>1110</v>
       </c>
       <c r="B29" t="s">
-        <v>1060</v>
+        <v>1129</v>
       </c>
       <c r="C29">
         <v>2002</v>
@@ -3794,10 +4001,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1041</v>
+        <v>1110</v>
       </c>
       <c r="B30" t="s">
-        <v>1060</v>
+        <v>1129</v>
       </c>
       <c r="C30">
         <v>2003</v>
@@ -3811,10 +4018,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1041</v>
+        <v>1110</v>
       </c>
       <c r="B31" t="s">
-        <v>1060</v>
+        <v>1129</v>
       </c>
       <c r="C31">
         <v>2004</v>
@@ -3828,10 +4035,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1041</v>
+        <v>1110</v>
       </c>
       <c r="B32" t="s">
-        <v>1060</v>
+        <v>1129</v>
       </c>
       <c r="C32">
         <v>2005</v>
@@ -3845,10 +4052,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>1041</v>
+        <v>1110</v>
       </c>
       <c r="B33" t="s">
-        <v>1060</v>
+        <v>1129</v>
       </c>
       <c r="C33">
         <v>2006</v>
@@ -3862,10 +4069,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>1041</v>
+        <v>1110</v>
       </c>
       <c r="B34" t="s">
-        <v>1060</v>
+        <v>1129</v>
       </c>
       <c r="C34">
         <v>2007</v>
@@ -3879,10 +4086,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>1041</v>
+        <v>1110</v>
       </c>
       <c r="B35" t="s">
-        <v>1060</v>
+        <v>1129</v>
       </c>
       <c r="C35">
         <v>2008</v>
@@ -3896,10 +4103,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1041</v>
+        <v>1110</v>
       </c>
       <c r="B36" t="s">
-        <v>1060</v>
+        <v>1129</v>
       </c>
       <c r="C36">
         <v>2009</v>
@@ -3913,10 +4120,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>1041</v>
+        <v>1110</v>
       </c>
       <c r="B37" t="s">
-        <v>1060</v>
+        <v>1129</v>
       </c>
       <c r="C37">
         <v>2010</v>
@@ -3930,10 +4137,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>1041</v>
+        <v>1110</v>
       </c>
       <c r="B38" t="s">
-        <v>1060</v>
+        <v>1129</v>
       </c>
       <c r="C38">
         <v>2011</v>
@@ -3947,10 +4154,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>1041</v>
+        <v>1110</v>
       </c>
       <c r="B39" t="s">
-        <v>1060</v>
+        <v>1129</v>
       </c>
       <c r="C39">
         <v>2012</v>
@@ -3964,10 +4171,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>1041</v>
+        <v>1110</v>
       </c>
       <c r="B40" t="s">
-        <v>1060</v>
+        <v>1129</v>
       </c>
       <c r="C40">
         <v>2013</v>
@@ -3981,10 +4188,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1041</v>
+        <v>1110</v>
       </c>
       <c r="B41" t="s">
-        <v>1060</v>
+        <v>1129</v>
       </c>
       <c r="C41">
         <v>2014</v>
@@ -3998,10 +4205,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>1041</v>
+        <v>1110</v>
       </c>
       <c r="B42" t="s">
-        <v>1060</v>
+        <v>1129</v>
       </c>
       <c r="C42">
         <v>2015</v>
@@ -4015,10 +4222,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>1041</v>
+        <v>1110</v>
       </c>
       <c r="B43" t="s">
-        <v>1060</v>
+        <v>1129</v>
       </c>
       <c r="C43">
         <v>2016</v>
@@ -4032,10 +4239,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1041</v>
+        <v>1110</v>
       </c>
       <c r="B44" t="s">
-        <v>1060</v>
+        <v>1129</v>
       </c>
       <c r="C44">
         <v>2017</v>
@@ -4049,10 +4256,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1041</v>
+        <v>1110</v>
       </c>
       <c r="B45" t="s">
-        <v>1060</v>
+        <v>1129</v>
       </c>
       <c r="C45">
         <v>2018</v>
@@ -4066,10 +4273,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1041</v>
+        <v>1110</v>
       </c>
       <c r="B46" t="s">
-        <v>1060</v>
+        <v>1129</v>
       </c>
       <c r="C46">
         <v>2019</v>
@@ -4083,10 +4290,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1041</v>
+        <v>1110</v>
       </c>
       <c r="B47" t="s">
-        <v>1060</v>
+        <v>1129</v>
       </c>
       <c r="C47">
         <v>2020</v>
@@ -4100,10 +4307,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1041</v>
+        <v>1110</v>
       </c>
       <c r="B48" t="s">
-        <v>1060</v>
+        <v>1129</v>
       </c>
       <c r="C48">
         <v>2021</v>
@@ -4117,10 +4324,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1041</v>
+        <v>1110</v>
       </c>
       <c r="B49" t="s">
-        <v>1060</v>
+        <v>1129</v>
       </c>
       <c r="C49">
         <v>2022</v>
@@ -4134,10 +4341,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1041</v>
+        <v>1110</v>
       </c>
       <c r="B50" t="s">
-        <v>1060</v>
+        <v>1129</v>
       </c>
       <c r="C50">
         <v>2023</v>
@@ -4151,10 +4358,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1041</v>
+        <v>1110</v>
       </c>
       <c r="B51" t="s">
-        <v>1060</v>
+        <v>1129</v>
       </c>
       <c r="C51">
         <v>2024</v>
@@ -4168,10 +4375,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>1042</v>
+        <v>1111</v>
       </c>
       <c r="B52" t="s">
-        <v>1061</v>
+        <v>1130</v>
       </c>
       <c r="C52">
         <v>2000</v>
@@ -4185,10 +4392,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1042</v>
+        <v>1111</v>
       </c>
       <c r="B53" t="s">
-        <v>1061</v>
+        <v>1130</v>
       </c>
       <c r="C53">
         <v>2001</v>
@@ -4202,10 +4409,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1042</v>
+        <v>1111</v>
       </c>
       <c r="B54" t="s">
-        <v>1061</v>
+        <v>1130</v>
       </c>
       <c r="C54">
         <v>2002</v>
@@ -4219,10 +4426,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1042</v>
+        <v>1111</v>
       </c>
       <c r="B55" t="s">
-        <v>1061</v>
+        <v>1130</v>
       </c>
       <c r="C55">
         <v>2003</v>
@@ -4236,10 +4443,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1042</v>
+        <v>1111</v>
       </c>
       <c r="B56" t="s">
-        <v>1061</v>
+        <v>1130</v>
       </c>
       <c r="C56">
         <v>2004</v>
@@ -4253,10 +4460,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1042</v>
+        <v>1111</v>
       </c>
       <c r="B57" t="s">
-        <v>1061</v>
+        <v>1130</v>
       </c>
       <c r="C57">
         <v>2005</v>
@@ -4270,10 +4477,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>1042</v>
+        <v>1111</v>
       </c>
       <c r="B58" t="s">
-        <v>1061</v>
+        <v>1130</v>
       </c>
       <c r="C58">
         <v>2006</v>
@@ -4287,10 +4494,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>1042</v>
+        <v>1111</v>
       </c>
       <c r="B59" t="s">
-        <v>1061</v>
+        <v>1130</v>
       </c>
       <c r="C59">
         <v>2007</v>
@@ -4304,10 +4511,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1042</v>
+        <v>1111</v>
       </c>
       <c r="B60" t="s">
-        <v>1061</v>
+        <v>1130</v>
       </c>
       <c r="C60">
         <v>2008</v>
@@ -4321,10 +4528,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>1042</v>
+        <v>1111</v>
       </c>
       <c r="B61" t="s">
-        <v>1061</v>
+        <v>1130</v>
       </c>
       <c r="C61">
         <v>2009</v>
@@ -4338,10 +4545,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>1042</v>
+        <v>1111</v>
       </c>
       <c r="B62" t="s">
-        <v>1061</v>
+        <v>1130</v>
       </c>
       <c r="C62">
         <v>2010</v>
@@ -4355,10 +4562,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1042</v>
+        <v>1111</v>
       </c>
       <c r="B63" t="s">
-        <v>1061</v>
+        <v>1130</v>
       </c>
       <c r="C63">
         <v>2011</v>
@@ -4372,10 +4579,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1042</v>
+        <v>1111</v>
       </c>
       <c r="B64" t="s">
-        <v>1061</v>
+        <v>1130</v>
       </c>
       <c r="C64">
         <v>2012</v>
@@ -4389,10 +4596,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1042</v>
+        <v>1111</v>
       </c>
       <c r="B65" t="s">
-        <v>1061</v>
+        <v>1130</v>
       </c>
       <c r="C65">
         <v>2013</v>
@@ -4406,10 +4613,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1042</v>
+        <v>1111</v>
       </c>
       <c r="B66" t="s">
-        <v>1061</v>
+        <v>1130</v>
       </c>
       <c r="C66">
         <v>2014</v>
@@ -4423,10 +4630,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1042</v>
+        <v>1111</v>
       </c>
       <c r="B67" t="s">
-        <v>1061</v>
+        <v>1130</v>
       </c>
       <c r="C67">
         <v>2015</v>
@@ -4440,10 +4647,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>1042</v>
+        <v>1111</v>
       </c>
       <c r="B68" t="s">
-        <v>1061</v>
+        <v>1130</v>
       </c>
       <c r="C68">
         <v>2016</v>
@@ -4457,10 +4664,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>1042</v>
+        <v>1111</v>
       </c>
       <c r="B69" t="s">
-        <v>1061</v>
+        <v>1130</v>
       </c>
       <c r="C69">
         <v>2017</v>
@@ -4474,10 +4681,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>1042</v>
+        <v>1111</v>
       </c>
       <c r="B70" t="s">
-        <v>1061</v>
+        <v>1130</v>
       </c>
       <c r="C70">
         <v>2018</v>
@@ -4491,10 +4698,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>1042</v>
+        <v>1111</v>
       </c>
       <c r="B71" t="s">
-        <v>1061</v>
+        <v>1130</v>
       </c>
       <c r="C71">
         <v>2019</v>
@@ -4508,10 +4715,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1042</v>
+        <v>1111</v>
       </c>
       <c r="B72" t="s">
-        <v>1061</v>
+        <v>1130</v>
       </c>
       <c r="C72">
         <v>2020</v>
@@ -4525,10 +4732,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1042</v>
+        <v>1111</v>
       </c>
       <c r="B73" t="s">
-        <v>1061</v>
+        <v>1130</v>
       </c>
       <c r="C73">
         <v>2021</v>
@@ -4542,10 +4749,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1042</v>
+        <v>1111</v>
       </c>
       <c r="B74" t="s">
-        <v>1061</v>
+        <v>1130</v>
       </c>
       <c r="C74">
         <v>2022</v>
@@ -4559,10 +4766,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>1042</v>
+        <v>1111</v>
       </c>
       <c r="B75" t="s">
-        <v>1061</v>
+        <v>1130</v>
       </c>
       <c r="C75">
         <v>2023</v>
@@ -4576,10 +4783,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>1042</v>
+        <v>1111</v>
       </c>
       <c r="B76" t="s">
-        <v>1061</v>
+        <v>1130</v>
       </c>
       <c r="C76">
         <v>2024</v>
@@ -4593,10 +4800,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1043</v>
+        <v>1112</v>
       </c>
       <c r="B77" t="s">
-        <v>1062</v>
+        <v>1131</v>
       </c>
       <c r="C77">
         <v>2000</v>
@@ -4610,10 +4817,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>1043</v>
+        <v>1112</v>
       </c>
       <c r="B78" t="s">
-        <v>1062</v>
+        <v>1131</v>
       </c>
       <c r="C78">
         <v>2001</v>
@@ -4627,10 +4834,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>1043</v>
+        <v>1112</v>
       </c>
       <c r="B79" t="s">
-        <v>1062</v>
+        <v>1131</v>
       </c>
       <c r="C79">
         <v>2002</v>
@@ -4644,10 +4851,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>1043</v>
+        <v>1112</v>
       </c>
       <c r="B80" t="s">
-        <v>1062</v>
+        <v>1131</v>
       </c>
       <c r="C80">
         <v>2003</v>
@@ -4661,10 +4868,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>1043</v>
+        <v>1112</v>
       </c>
       <c r="B81" t="s">
-        <v>1062</v>
+        <v>1131</v>
       </c>
       <c r="C81">
         <v>2004</v>
@@ -4678,10 +4885,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1043</v>
+        <v>1112</v>
       </c>
       <c r="B82" t="s">
-        <v>1062</v>
+        <v>1131</v>
       </c>
       <c r="C82">
         <v>2005</v>
@@ -4695,10 +4902,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>1043</v>
+        <v>1112</v>
       </c>
       <c r="B83" t="s">
-        <v>1062</v>
+        <v>1131</v>
       </c>
       <c r="C83">
         <v>2006</v>
@@ -4712,10 +4919,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>1043</v>
+        <v>1112</v>
       </c>
       <c r="B84" t="s">
-        <v>1062</v>
+        <v>1131</v>
       </c>
       <c r="C84">
         <v>2007</v>
@@ -4729,10 +4936,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>1043</v>
+        <v>1112</v>
       </c>
       <c r="B85" t="s">
-        <v>1062</v>
+        <v>1131</v>
       </c>
       <c r="C85">
         <v>2008</v>
@@ -4746,10 +4953,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>1043</v>
+        <v>1112</v>
       </c>
       <c r="B86" t="s">
-        <v>1062</v>
+        <v>1131</v>
       </c>
       <c r="C86">
         <v>2009</v>
@@ -4763,10 +4970,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>1043</v>
+        <v>1112</v>
       </c>
       <c r="B87" t="s">
-        <v>1062</v>
+        <v>1131</v>
       </c>
       <c r="C87">
         <v>2010</v>
@@ -4780,10 +4987,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>1043</v>
+        <v>1112</v>
       </c>
       <c r="B88" t="s">
-        <v>1062</v>
+        <v>1131</v>
       </c>
       <c r="C88">
         <v>2011</v>
@@ -4797,10 +5004,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>1043</v>
+        <v>1112</v>
       </c>
       <c r="B89" t="s">
-        <v>1062</v>
+        <v>1131</v>
       </c>
       <c r="C89">
         <v>2012</v>
@@ -4814,10 +5021,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>1043</v>
+        <v>1112</v>
       </c>
       <c r="B90" t="s">
-        <v>1062</v>
+        <v>1131</v>
       </c>
       <c r="C90">
         <v>2013</v>
@@ -4831,10 +5038,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>1043</v>
+        <v>1112</v>
       </c>
       <c r="B91" t="s">
-        <v>1062</v>
+        <v>1131</v>
       </c>
       <c r="C91">
         <v>2014</v>
@@ -4848,10 +5055,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>1043</v>
+        <v>1112</v>
       </c>
       <c r="B92" t="s">
-        <v>1062</v>
+        <v>1131</v>
       </c>
       <c r="C92">
         <v>2015</v>
@@ -4865,10 +5072,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>1043</v>
+        <v>1112</v>
       </c>
       <c r="B93" t="s">
-        <v>1062</v>
+        <v>1131</v>
       </c>
       <c r="C93">
         <v>2016</v>
@@ -4882,10 +5089,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>1043</v>
+        <v>1112</v>
       </c>
       <c r="B94" t="s">
-        <v>1062</v>
+        <v>1131</v>
       </c>
       <c r="C94">
         <v>2017</v>
@@ -4899,10 +5106,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>1043</v>
+        <v>1112</v>
       </c>
       <c r="B95" t="s">
-        <v>1062</v>
+        <v>1131</v>
       </c>
       <c r="C95">
         <v>2018</v>
@@ -4916,10 +5123,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>1043</v>
+        <v>1112</v>
       </c>
       <c r="B96" t="s">
-        <v>1062</v>
+        <v>1131</v>
       </c>
       <c r="C96">
         <v>2019</v>
@@ -4933,10 +5140,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>1043</v>
+        <v>1112</v>
       </c>
       <c r="B97" t="s">
-        <v>1062</v>
+        <v>1131</v>
       </c>
       <c r="C97">
         <v>2020</v>
@@ -4950,10 +5157,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>1043</v>
+        <v>1112</v>
       </c>
       <c r="B98" t="s">
-        <v>1062</v>
+        <v>1131</v>
       </c>
       <c r="C98">
         <v>2021</v>
@@ -4967,10 +5174,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>1043</v>
+        <v>1112</v>
       </c>
       <c r="B99" t="s">
-        <v>1062</v>
+        <v>1131</v>
       </c>
       <c r="C99">
         <v>2022</v>
@@ -4984,10 +5191,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>1043</v>
+        <v>1112</v>
       </c>
       <c r="B100" t="s">
-        <v>1062</v>
+        <v>1131</v>
       </c>
       <c r="C100">
         <v>2023</v>
@@ -5001,10 +5208,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>1043</v>
+        <v>1112</v>
       </c>
       <c r="B101" t="s">
-        <v>1062</v>
+        <v>1131</v>
       </c>
       <c r="C101">
         <v>2024</v>
@@ -5018,10 +5225,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>1044</v>
+        <v>1113</v>
       </c>
       <c r="B102" t="s">
-        <v>1063</v>
+        <v>1132</v>
       </c>
       <c r="C102">
         <v>2000</v>
@@ -5035,10 +5242,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>1044</v>
+        <v>1113</v>
       </c>
       <c r="B103" t="s">
-        <v>1063</v>
+        <v>1132</v>
       </c>
       <c r="C103">
         <v>2001</v>
@@ -5052,10 +5259,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>1044</v>
+        <v>1113</v>
       </c>
       <c r="B104" t="s">
-        <v>1063</v>
+        <v>1132</v>
       </c>
       <c r="C104">
         <v>2002</v>
@@ -5069,10 +5276,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>1044</v>
+        <v>1113</v>
       </c>
       <c r="B105" t="s">
-        <v>1063</v>
+        <v>1132</v>
       </c>
       <c r="C105">
         <v>2003</v>
@@ -5086,10 +5293,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>1044</v>
+        <v>1113</v>
       </c>
       <c r="B106" t="s">
-        <v>1063</v>
+        <v>1132</v>
       </c>
       <c r="C106">
         <v>2004</v>
@@ -5103,10 +5310,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>1044</v>
+        <v>1113</v>
       </c>
       <c r="B107" t="s">
-        <v>1063</v>
+        <v>1132</v>
       </c>
       <c r="C107">
         <v>2005</v>
@@ -5120,10 +5327,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>1044</v>
+        <v>1113</v>
       </c>
       <c r="B108" t="s">
-        <v>1063</v>
+        <v>1132</v>
       </c>
       <c r="C108">
         <v>2006</v>
@@ -5137,10 +5344,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>1044</v>
+        <v>1113</v>
       </c>
       <c r="B109" t="s">
-        <v>1063</v>
+        <v>1132</v>
       </c>
       <c r="C109">
         <v>2007</v>
@@ -5154,10 +5361,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>1044</v>
+        <v>1113</v>
       </c>
       <c r="B110" t="s">
-        <v>1063</v>
+        <v>1132</v>
       </c>
       <c r="C110">
         <v>2008</v>
@@ -5171,10 +5378,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>1044</v>
+        <v>1113</v>
       </c>
       <c r="B111" t="s">
-        <v>1063</v>
+        <v>1132</v>
       </c>
       <c r="C111">
         <v>2009</v>
@@ -5188,10 +5395,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>1044</v>
+        <v>1113</v>
       </c>
       <c r="B112" t="s">
-        <v>1063</v>
+        <v>1132</v>
       </c>
       <c r="C112">
         <v>2010</v>
@@ -5205,10 +5412,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>1044</v>
+        <v>1113</v>
       </c>
       <c r="B113" t="s">
-        <v>1063</v>
+        <v>1132</v>
       </c>
       <c r="C113">
         <v>2011</v>
@@ -5222,10 +5429,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>1044</v>
+        <v>1113</v>
       </c>
       <c r="B114" t="s">
-        <v>1063</v>
+        <v>1132</v>
       </c>
       <c r="C114">
         <v>2012</v>
@@ -5239,10 +5446,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>1044</v>
+        <v>1113</v>
       </c>
       <c r="B115" t="s">
-        <v>1063</v>
+        <v>1132</v>
       </c>
       <c r="C115">
         <v>2013</v>
@@ -5256,10 +5463,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>1044</v>
+        <v>1113</v>
       </c>
       <c r="B116" t="s">
-        <v>1063</v>
+        <v>1132</v>
       </c>
       <c r="C116">
         <v>2014</v>
@@ -5273,10 +5480,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>1044</v>
+        <v>1113</v>
       </c>
       <c r="B117" t="s">
-        <v>1063</v>
+        <v>1132</v>
       </c>
       <c r="C117">
         <v>2015</v>
@@ -5290,10 +5497,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>1044</v>
+        <v>1113</v>
       </c>
       <c r="B118" t="s">
-        <v>1063</v>
+        <v>1132</v>
       </c>
       <c r="C118">
         <v>2016</v>
@@ -5307,10 +5514,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>1044</v>
+        <v>1113</v>
       </c>
       <c r="B119" t="s">
-        <v>1063</v>
+        <v>1132</v>
       </c>
       <c r="C119">
         <v>2017</v>
@@ -5324,10 +5531,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>1044</v>
+        <v>1113</v>
       </c>
       <c r="B120" t="s">
-        <v>1063</v>
+        <v>1132</v>
       </c>
       <c r="C120">
         <v>2018</v>
@@ -5341,10 +5548,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>1044</v>
+        <v>1113</v>
       </c>
       <c r="B121" t="s">
-        <v>1063</v>
+        <v>1132</v>
       </c>
       <c r="C121">
         <v>2019</v>
@@ -5358,10 +5565,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>1044</v>
+        <v>1113</v>
       </c>
       <c r="B122" t="s">
-        <v>1063</v>
+        <v>1132</v>
       </c>
       <c r="C122">
         <v>2020</v>
@@ -5375,10 +5582,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>1044</v>
+        <v>1113</v>
       </c>
       <c r="B123" t="s">
-        <v>1063</v>
+        <v>1132</v>
       </c>
       <c r="C123">
         <v>2021</v>
@@ -5392,10 +5599,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>1044</v>
+        <v>1113</v>
       </c>
       <c r="B124" t="s">
-        <v>1063</v>
+        <v>1132</v>
       </c>
       <c r="C124">
         <v>2022</v>
@@ -5409,10 +5616,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>1044</v>
+        <v>1113</v>
       </c>
       <c r="B125" t="s">
-        <v>1063</v>
+        <v>1132</v>
       </c>
       <c r="C125">
         <v>2023</v>
@@ -5426,10 +5633,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>1044</v>
+        <v>1113</v>
       </c>
       <c r="B126" t="s">
-        <v>1063</v>
+        <v>1132</v>
       </c>
       <c r="C126">
         <v>2024</v>
@@ -5443,10 +5650,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>1045</v>
+        <v>1114</v>
       </c>
       <c r="B127" t="s">
-        <v>1064</v>
+        <v>1133</v>
       </c>
       <c r="C127">
         <v>2000</v>
@@ -5460,10 +5667,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>1045</v>
+        <v>1114</v>
       </c>
       <c r="B128" t="s">
-        <v>1064</v>
+        <v>1133</v>
       </c>
       <c r="C128">
         <v>2001</v>
@@ -5477,10 +5684,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>1045</v>
+        <v>1114</v>
       </c>
       <c r="B129" t="s">
-        <v>1064</v>
+        <v>1133</v>
       </c>
       <c r="C129">
         <v>2002</v>
@@ -5494,10 +5701,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>1045</v>
+        <v>1114</v>
       </c>
       <c r="B130" t="s">
-        <v>1064</v>
+        <v>1133</v>
       </c>
       <c r="C130">
         <v>2003</v>
@@ -5511,10 +5718,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>1045</v>
+        <v>1114</v>
       </c>
       <c r="B131" t="s">
-        <v>1064</v>
+        <v>1133</v>
       </c>
       <c r="C131">
         <v>2004</v>
@@ -5528,10 +5735,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>1045</v>
+        <v>1114</v>
       </c>
       <c r="B132" t="s">
-        <v>1064</v>
+        <v>1133</v>
       </c>
       <c r="C132">
         <v>2005</v>
@@ -5545,10 +5752,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>1045</v>
+        <v>1114</v>
       </c>
       <c r="B133" t="s">
-        <v>1064</v>
+        <v>1133</v>
       </c>
       <c r="C133">
         <v>2006</v>
@@ -5562,10 +5769,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>1045</v>
+        <v>1114</v>
       </c>
       <c r="B134" t="s">
-        <v>1064</v>
+        <v>1133</v>
       </c>
       <c r="C134">
         <v>2007</v>
@@ -5579,10 +5786,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>1045</v>
+        <v>1114</v>
       </c>
       <c r="B135" t="s">
-        <v>1064</v>
+        <v>1133</v>
       </c>
       <c r="C135">
         <v>2008</v>
@@ -5596,10 +5803,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>1045</v>
+        <v>1114</v>
       </c>
       <c r="B136" t="s">
-        <v>1064</v>
+        <v>1133</v>
       </c>
       <c r="C136">
         <v>2009</v>
@@ -5613,10 +5820,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>1045</v>
+        <v>1114</v>
       </c>
       <c r="B137" t="s">
-        <v>1064</v>
+        <v>1133</v>
       </c>
       <c r="C137">
         <v>2010</v>
@@ -5630,10 +5837,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>1045</v>
+        <v>1114</v>
       </c>
       <c r="B138" t="s">
-        <v>1064</v>
+        <v>1133</v>
       </c>
       <c r="C138">
         <v>2011</v>
@@ -5647,10 +5854,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>1045</v>
+        <v>1114</v>
       </c>
       <c r="B139" t="s">
-        <v>1064</v>
+        <v>1133</v>
       </c>
       <c r="C139">
         <v>2012</v>
@@ -5664,10 +5871,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>1045</v>
+        <v>1114</v>
       </c>
       <c r="B140" t="s">
-        <v>1064</v>
+        <v>1133</v>
       </c>
       <c r="C140">
         <v>2013</v>
@@ -5681,10 +5888,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>1045</v>
+        <v>1114</v>
       </c>
       <c r="B141" t="s">
-        <v>1064</v>
+        <v>1133</v>
       </c>
       <c r="C141">
         <v>2014</v>
@@ -5698,10 +5905,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>1045</v>
+        <v>1114</v>
       </c>
       <c r="B142" t="s">
-        <v>1064</v>
+        <v>1133</v>
       </c>
       <c r="C142">
         <v>2015</v>
@@ -5715,10 +5922,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>1045</v>
+        <v>1114</v>
       </c>
       <c r="B143" t="s">
-        <v>1064</v>
+        <v>1133</v>
       </c>
       <c r="C143">
         <v>2016</v>
@@ -5732,10 +5939,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>1045</v>
+        <v>1114</v>
       </c>
       <c r="B144" t="s">
-        <v>1064</v>
+        <v>1133</v>
       </c>
       <c r="C144">
         <v>2017</v>
@@ -5749,10 +5956,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>1045</v>
+        <v>1114</v>
       </c>
       <c r="B145" t="s">
-        <v>1064</v>
+        <v>1133</v>
       </c>
       <c r="C145">
         <v>2018</v>
@@ -5766,10 +5973,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>1045</v>
+        <v>1114</v>
       </c>
       <c r="B146" t="s">
-        <v>1064</v>
+        <v>1133</v>
       </c>
       <c r="C146">
         <v>2019</v>
@@ -5783,10 +5990,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>1045</v>
+        <v>1114</v>
       </c>
       <c r="B147" t="s">
-        <v>1064</v>
+        <v>1133</v>
       </c>
       <c r="C147">
         <v>2020</v>
@@ -5800,10 +6007,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>1045</v>
+        <v>1114</v>
       </c>
       <c r="B148" t="s">
-        <v>1064</v>
+        <v>1133</v>
       </c>
       <c r="C148">
         <v>2021</v>
@@ -5817,10 +6024,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>1045</v>
+        <v>1114</v>
       </c>
       <c r="B149" t="s">
-        <v>1064</v>
+        <v>1133</v>
       </c>
       <c r="C149">
         <v>2022</v>
@@ -5834,10 +6041,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>1045</v>
+        <v>1114</v>
       </c>
       <c r="B150" t="s">
-        <v>1064</v>
+        <v>1133</v>
       </c>
       <c r="C150">
         <v>2023</v>
@@ -5851,10 +6058,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>1045</v>
+        <v>1114</v>
       </c>
       <c r="B151" t="s">
-        <v>1064</v>
+        <v>1133</v>
       </c>
       <c r="C151">
         <v>2024</v>
@@ -5868,10 +6075,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>1046</v>
+        <v>1115</v>
       </c>
       <c r="B152" t="s">
-        <v>1065</v>
+        <v>1134</v>
       </c>
       <c r="C152">
         <v>2000</v>
@@ -5885,10 +6092,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>1046</v>
+        <v>1115</v>
       </c>
       <c r="B153" t="s">
-        <v>1065</v>
+        <v>1134</v>
       </c>
       <c r="C153">
         <v>2001</v>
@@ -5902,10 +6109,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>1046</v>
+        <v>1115</v>
       </c>
       <c r="B154" t="s">
-        <v>1065</v>
+        <v>1134</v>
       </c>
       <c r="C154">
         <v>2002</v>
@@ -5919,10 +6126,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>1046</v>
+        <v>1115</v>
       </c>
       <c r="B155" t="s">
-        <v>1065</v>
+        <v>1134</v>
       </c>
       <c r="C155">
         <v>2003</v>
@@ -5936,10 +6143,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>1046</v>
+        <v>1115</v>
       </c>
       <c r="B156" t="s">
-        <v>1065</v>
+        <v>1134</v>
       </c>
       <c r="C156">
         <v>2004</v>
@@ -5953,10 +6160,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>1046</v>
+        <v>1115</v>
       </c>
       <c r="B157" t="s">
-        <v>1065</v>
+        <v>1134</v>
       </c>
       <c r="C157">
         <v>2005</v>
@@ -5970,10 +6177,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>1046</v>
+        <v>1115</v>
       </c>
       <c r="B158" t="s">
-        <v>1065</v>
+        <v>1134</v>
       </c>
       <c r="C158">
         <v>2006</v>
@@ -5987,10 +6194,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>1046</v>
+        <v>1115</v>
       </c>
       <c r="B159" t="s">
-        <v>1065</v>
+        <v>1134</v>
       </c>
       <c r="C159">
         <v>2007</v>
@@ -6004,10 +6211,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>1046</v>
+        <v>1115</v>
       </c>
       <c r="B160" t="s">
-        <v>1065</v>
+        <v>1134</v>
       </c>
       <c r="C160">
         <v>2008</v>
@@ -6021,10 +6228,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>1046</v>
+        <v>1115</v>
       </c>
       <c r="B161" t="s">
-        <v>1065</v>
+        <v>1134</v>
       </c>
       <c r="C161">
         <v>2009</v>
@@ -6038,10 +6245,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>1046</v>
+        <v>1115</v>
       </c>
       <c r="B162" t="s">
-        <v>1065</v>
+        <v>1134</v>
       </c>
       <c r="C162">
         <v>2010</v>
@@ -6055,10 +6262,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>1046</v>
+        <v>1115</v>
       </c>
       <c r="B163" t="s">
-        <v>1065</v>
+        <v>1134</v>
       </c>
       <c r="C163">
         <v>2011</v>
@@ -6072,10 +6279,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>1046</v>
+        <v>1115</v>
       </c>
       <c r="B164" t="s">
-        <v>1065</v>
+        <v>1134</v>
       </c>
       <c r="C164">
         <v>2012</v>
@@ -6089,10 +6296,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>1046</v>
+        <v>1115</v>
       </c>
       <c r="B165" t="s">
-        <v>1065</v>
+        <v>1134</v>
       </c>
       <c r="C165">
         <v>2013</v>
@@ -6106,10 +6313,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>1046</v>
+        <v>1115</v>
       </c>
       <c r="B166" t="s">
-        <v>1065</v>
+        <v>1134</v>
       </c>
       <c r="C166">
         <v>2014</v>
@@ -6123,10 +6330,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>1046</v>
+        <v>1115</v>
       </c>
       <c r="B167" t="s">
-        <v>1065</v>
+        <v>1134</v>
       </c>
       <c r="C167">
         <v>2015</v>
@@ -6140,10 +6347,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>1046</v>
+        <v>1115</v>
       </c>
       <c r="B168" t="s">
-        <v>1065</v>
+        <v>1134</v>
       </c>
       <c r="C168">
         <v>2016</v>
@@ -6157,10 +6364,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>1046</v>
+        <v>1115</v>
       </c>
       <c r="B169" t="s">
-        <v>1065</v>
+        <v>1134</v>
       </c>
       <c r="C169">
         <v>2017</v>
@@ -6174,10 +6381,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>1046</v>
+        <v>1115</v>
       </c>
       <c r="B170" t="s">
-        <v>1065</v>
+        <v>1134</v>
       </c>
       <c r="C170">
         <v>2018</v>
@@ -6191,10 +6398,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>1046</v>
+        <v>1115</v>
       </c>
       <c r="B171" t="s">
-        <v>1065</v>
+        <v>1134</v>
       </c>
       <c r="C171">
         <v>2019</v>
@@ -6208,10 +6415,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>1046</v>
+        <v>1115</v>
       </c>
       <c r="B172" t="s">
-        <v>1065</v>
+        <v>1134</v>
       </c>
       <c r="C172">
         <v>2020</v>
@@ -6225,10 +6432,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>1046</v>
+        <v>1115</v>
       </c>
       <c r="B173" t="s">
-        <v>1065</v>
+        <v>1134</v>
       </c>
       <c r="C173">
         <v>2021</v>
@@ -6242,10 +6449,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>1046</v>
+        <v>1115</v>
       </c>
       <c r="B174" t="s">
-        <v>1065</v>
+        <v>1134</v>
       </c>
       <c r="C174">
         <v>2022</v>
@@ -6259,10 +6466,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>1046</v>
+        <v>1115</v>
       </c>
       <c r="B175" t="s">
-        <v>1065</v>
+        <v>1134</v>
       </c>
       <c r="C175">
         <v>2023</v>
@@ -6276,10 +6483,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>1046</v>
+        <v>1115</v>
       </c>
       <c r="B176" t="s">
-        <v>1065</v>
+        <v>1134</v>
       </c>
       <c r="C176">
         <v>2024</v>
@@ -6293,10 +6500,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>1047</v>
+        <v>1116</v>
       </c>
       <c r="B177" t="s">
-        <v>1066</v>
+        <v>1135</v>
       </c>
       <c r="C177">
         <v>2000</v>
@@ -6310,10 +6517,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>1047</v>
+        <v>1116</v>
       </c>
       <c r="B178" t="s">
-        <v>1066</v>
+        <v>1135</v>
       </c>
       <c r="C178">
         <v>2001</v>
@@ -6327,10 +6534,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>1047</v>
+        <v>1116</v>
       </c>
       <c r="B179" t="s">
-        <v>1066</v>
+        <v>1135</v>
       </c>
       <c r="C179">
         <v>2002</v>
@@ -6344,10 +6551,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>1047</v>
+        <v>1116</v>
       </c>
       <c r="B180" t="s">
-        <v>1066</v>
+        <v>1135</v>
       </c>
       <c r="C180">
         <v>2003</v>
@@ -6361,10 +6568,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>1047</v>
+        <v>1116</v>
       </c>
       <c r="B181" t="s">
-        <v>1066</v>
+        <v>1135</v>
       </c>
       <c r="C181">
         <v>2004</v>
@@ -6378,10 +6585,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>1047</v>
+        <v>1116</v>
       </c>
       <c r="B182" t="s">
-        <v>1066</v>
+        <v>1135</v>
       </c>
       <c r="C182">
         <v>2005</v>
@@ -6395,10 +6602,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>1047</v>
+        <v>1116</v>
       </c>
       <c r="B183" t="s">
-        <v>1066</v>
+        <v>1135</v>
       </c>
       <c r="C183">
         <v>2006</v>
@@ -6412,10 +6619,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>1047</v>
+        <v>1116</v>
       </c>
       <c r="B184" t="s">
-        <v>1066</v>
+        <v>1135</v>
       </c>
       <c r="C184">
         <v>2007</v>
@@ -6429,10 +6636,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>1047</v>
+        <v>1116</v>
       </c>
       <c r="B185" t="s">
-        <v>1066</v>
+        <v>1135</v>
       </c>
       <c r="C185">
         <v>2008</v>
@@ -6446,10 +6653,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>1047</v>
+        <v>1116</v>
       </c>
       <c r="B186" t="s">
-        <v>1066</v>
+        <v>1135</v>
       </c>
       <c r="C186">
         <v>2009</v>
@@ -6463,10 +6670,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>1047</v>
+        <v>1116</v>
       </c>
       <c r="B187" t="s">
-        <v>1066</v>
+        <v>1135</v>
       </c>
       <c r="C187">
         <v>2010</v>
@@ -6480,10 +6687,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>1047</v>
+        <v>1116</v>
       </c>
       <c r="B188" t="s">
-        <v>1066</v>
+        <v>1135</v>
       </c>
       <c r="C188">
         <v>2011</v>
@@ -6497,10 +6704,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>1047</v>
+        <v>1116</v>
       </c>
       <c r="B189" t="s">
-        <v>1066</v>
+        <v>1135</v>
       </c>
       <c r="C189">
         <v>2012</v>
@@ -6514,10 +6721,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>1047</v>
+        <v>1116</v>
       </c>
       <c r="B190" t="s">
-        <v>1066</v>
+        <v>1135</v>
       </c>
       <c r="C190">
         <v>2013</v>
@@ -6531,10 +6738,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>1047</v>
+        <v>1116</v>
       </c>
       <c r="B191" t="s">
-        <v>1066</v>
+        <v>1135</v>
       </c>
       <c r="C191">
         <v>2014</v>
@@ -6548,10 +6755,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>1047</v>
+        <v>1116</v>
       </c>
       <c r="B192" t="s">
-        <v>1066</v>
+        <v>1135</v>
       </c>
       <c r="C192">
         <v>2015</v>
@@ -6565,10 +6772,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>1047</v>
+        <v>1116</v>
       </c>
       <c r="B193" t="s">
-        <v>1066</v>
+        <v>1135</v>
       </c>
       <c r="C193">
         <v>2016</v>
@@ -6582,10 +6789,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>1047</v>
+        <v>1116</v>
       </c>
       <c r="B194" t="s">
-        <v>1066</v>
+        <v>1135</v>
       </c>
       <c r="C194">
         <v>2017</v>
@@ -6599,10 +6806,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>1047</v>
+        <v>1116</v>
       </c>
       <c r="B195" t="s">
-        <v>1066</v>
+        <v>1135</v>
       </c>
       <c r="C195">
         <v>2018</v>
@@ -6616,10 +6823,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>1047</v>
+        <v>1116</v>
       </c>
       <c r="B196" t="s">
-        <v>1066</v>
+        <v>1135</v>
       </c>
       <c r="C196">
         <v>2019</v>
@@ -6633,10 +6840,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>1047</v>
+        <v>1116</v>
       </c>
       <c r="B197" t="s">
-        <v>1066</v>
+        <v>1135</v>
       </c>
       <c r="C197">
         <v>2020</v>
@@ -6650,10 +6857,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>1047</v>
+        <v>1116</v>
       </c>
       <c r="B198" t="s">
-        <v>1066</v>
+        <v>1135</v>
       </c>
       <c r="C198">
         <v>2021</v>
@@ -6667,10 +6874,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>1047</v>
+        <v>1116</v>
       </c>
       <c r="B199" t="s">
-        <v>1066</v>
+        <v>1135</v>
       </c>
       <c r="C199">
         <v>2022</v>
@@ -6684,10 +6891,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>1047</v>
+        <v>1116</v>
       </c>
       <c r="B200" t="s">
-        <v>1066</v>
+        <v>1135</v>
       </c>
       <c r="C200">
         <v>2023</v>
@@ -6701,10 +6908,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>1047</v>
+        <v>1116</v>
       </c>
       <c r="B201" t="s">
-        <v>1066</v>
+        <v>1135</v>
       </c>
       <c r="C201">
         <v>2024</v>
@@ -6718,10 +6925,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>1048</v>
+        <v>1117</v>
       </c>
       <c r="B202" t="s">
-        <v>1067</v>
+        <v>1136</v>
       </c>
       <c r="C202">
         <v>2000</v>
@@ -6735,10 +6942,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>1048</v>
+        <v>1117</v>
       </c>
       <c r="B203" t="s">
-        <v>1067</v>
+        <v>1136</v>
       </c>
       <c r="C203">
         <v>2001</v>
@@ -6752,10 +6959,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>1048</v>
+        <v>1117</v>
       </c>
       <c r="B204" t="s">
-        <v>1067</v>
+        <v>1136</v>
       </c>
       <c r="C204">
         <v>2002</v>
@@ -6769,10 +6976,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>1048</v>
+        <v>1117</v>
       </c>
       <c r="B205" t="s">
-        <v>1067</v>
+        <v>1136</v>
       </c>
       <c r="C205">
         <v>2003</v>
@@ -6786,10 +6993,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>1048</v>
+        <v>1117</v>
       </c>
       <c r="B206" t="s">
-        <v>1067</v>
+        <v>1136</v>
       </c>
       <c r="C206">
         <v>2004</v>
@@ -6803,10 +7010,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>1048</v>
+        <v>1117</v>
       </c>
       <c r="B207" t="s">
-        <v>1067</v>
+        <v>1136</v>
       </c>
       <c r="C207">
         <v>2005</v>
@@ -6820,10 +7027,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>1048</v>
+        <v>1117</v>
       </c>
       <c r="B208" t="s">
-        <v>1067</v>
+        <v>1136</v>
       </c>
       <c r="C208">
         <v>2006</v>
@@ -6837,10 +7044,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>1048</v>
+        <v>1117</v>
       </c>
       <c r="B209" t="s">
-        <v>1067</v>
+        <v>1136</v>
       </c>
       <c r="C209">
         <v>2007</v>
@@ -6854,10 +7061,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>1048</v>
+        <v>1117</v>
       </c>
       <c r="B210" t="s">
-        <v>1067</v>
+        <v>1136</v>
       </c>
       <c r="C210">
         <v>2008</v>
@@ -6871,10 +7078,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>1048</v>
+        <v>1117</v>
       </c>
       <c r="B211" t="s">
-        <v>1067</v>
+        <v>1136</v>
       </c>
       <c r="C211">
         <v>2009</v>
@@ -6888,10 +7095,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>1048</v>
+        <v>1117</v>
       </c>
       <c r="B212" t="s">
-        <v>1067</v>
+        <v>1136</v>
       </c>
       <c r="C212">
         <v>2010</v>
@@ -6905,10 +7112,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>1048</v>
+        <v>1117</v>
       </c>
       <c r="B213" t="s">
-        <v>1067</v>
+        <v>1136</v>
       </c>
       <c r="C213">
         <v>2011</v>
@@ -6922,10 +7129,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>1048</v>
+        <v>1117</v>
       </c>
       <c r="B214" t="s">
-        <v>1067</v>
+        <v>1136</v>
       </c>
       <c r="C214">
         <v>2012</v>
@@ -6939,10 +7146,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>1048</v>
+        <v>1117</v>
       </c>
       <c r="B215" t="s">
-        <v>1067</v>
+        <v>1136</v>
       </c>
       <c r="C215">
         <v>2013</v>
@@ -6956,10 +7163,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>1048</v>
+        <v>1117</v>
       </c>
       <c r="B216" t="s">
-        <v>1067</v>
+        <v>1136</v>
       </c>
       <c r="C216">
         <v>2014</v>
@@ -6973,10 +7180,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>1048</v>
+        <v>1117</v>
       </c>
       <c r="B217" t="s">
-        <v>1067</v>
+        <v>1136</v>
       </c>
       <c r="C217">
         <v>2015</v>
@@ -6990,10 +7197,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>1048</v>
+        <v>1117</v>
       </c>
       <c r="B218" t="s">
-        <v>1067</v>
+        <v>1136</v>
       </c>
       <c r="C218">
         <v>2016</v>
@@ -7007,10 +7214,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>1048</v>
+        <v>1117</v>
       </c>
       <c r="B219" t="s">
-        <v>1067</v>
+        <v>1136</v>
       </c>
       <c r="C219">
         <v>2017</v>
@@ -7024,10 +7231,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>1048</v>
+        <v>1117</v>
       </c>
       <c r="B220" t="s">
-        <v>1067</v>
+        <v>1136</v>
       </c>
       <c r="C220">
         <v>2018</v>
@@ -7041,10 +7248,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>1048</v>
+        <v>1117</v>
       </c>
       <c r="B221" t="s">
-        <v>1067</v>
+        <v>1136</v>
       </c>
       <c r="C221">
         <v>2019</v>
@@ -7058,10 +7265,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>1048</v>
+        <v>1117</v>
       </c>
       <c r="B222" t="s">
-        <v>1067</v>
+        <v>1136</v>
       </c>
       <c r="C222">
         <v>2020</v>
@@ -7075,10 +7282,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>1048</v>
+        <v>1117</v>
       </c>
       <c r="B223" t="s">
-        <v>1067</v>
+        <v>1136</v>
       </c>
       <c r="C223">
         <v>2021</v>
@@ -7092,10 +7299,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>1048</v>
+        <v>1117</v>
       </c>
       <c r="B224" t="s">
-        <v>1067</v>
+        <v>1136</v>
       </c>
       <c r="C224">
         <v>2022</v>
@@ -7109,10 +7316,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>1048</v>
+        <v>1117</v>
       </c>
       <c r="B225" t="s">
-        <v>1067</v>
+        <v>1136</v>
       </c>
       <c r="C225">
         <v>2023</v>
@@ -7126,10 +7333,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>1048</v>
+        <v>1117</v>
       </c>
       <c r="B226" t="s">
-        <v>1067</v>
+        <v>1136</v>
       </c>
       <c r="C226">
         <v>2024</v>
@@ -7143,10 +7350,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>1049</v>
+        <v>1118</v>
       </c>
       <c r="B227" t="s">
-        <v>1068</v>
+        <v>1137</v>
       </c>
       <c r="C227">
         <v>2000</v>
@@ -7160,10 +7367,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>1049</v>
+        <v>1118</v>
       </c>
       <c r="B228" t="s">
-        <v>1068</v>
+        <v>1137</v>
       </c>
       <c r="C228">
         <v>2001</v>
@@ -7177,10 +7384,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>1049</v>
+        <v>1118</v>
       </c>
       <c r="B229" t="s">
-        <v>1068</v>
+        <v>1137</v>
       </c>
       <c r="C229">
         <v>2002</v>
@@ -7194,10 +7401,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>1049</v>
+        <v>1118</v>
       </c>
       <c r="B230" t="s">
-        <v>1068</v>
+        <v>1137</v>
       </c>
       <c r="C230">
         <v>2003</v>
@@ -7211,10 +7418,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>1049</v>
+        <v>1118</v>
       </c>
       <c r="B231" t="s">
-        <v>1068</v>
+        <v>1137</v>
       </c>
       <c r="C231">
         <v>2004</v>
@@ -7228,10 +7435,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>1049</v>
+        <v>1118</v>
       </c>
       <c r="B232" t="s">
-        <v>1068</v>
+        <v>1137</v>
       </c>
       <c r="C232">
         <v>2005</v>
@@ -7245,10 +7452,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>1049</v>
+        <v>1118</v>
       </c>
       <c r="B233" t="s">
-        <v>1068</v>
+        <v>1137</v>
       </c>
       <c r="C233">
         <v>2006</v>
@@ -7262,10 +7469,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>1049</v>
+        <v>1118</v>
       </c>
       <c r="B234" t="s">
-        <v>1068</v>
+        <v>1137</v>
       </c>
       <c r="C234">
         <v>2007</v>
@@ -7279,10 +7486,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>1049</v>
+        <v>1118</v>
       </c>
       <c r="B235" t="s">
-        <v>1068</v>
+        <v>1137</v>
       </c>
       <c r="C235">
         <v>2008</v>
@@ -7296,10 +7503,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>1049</v>
+        <v>1118</v>
       </c>
       <c r="B236" t="s">
-        <v>1068</v>
+        <v>1137</v>
       </c>
       <c r="C236">
         <v>2009</v>
@@ -7313,10 +7520,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>1049</v>
+        <v>1118</v>
       </c>
       <c r="B237" t="s">
-        <v>1068</v>
+        <v>1137</v>
       </c>
       <c r="C237">
         <v>2010</v>
@@ -7330,10 +7537,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>1049</v>
+        <v>1118</v>
       </c>
       <c r="B238" t="s">
-        <v>1068</v>
+        <v>1137</v>
       </c>
       <c r="C238">
         <v>2011</v>
@@ -7347,10 +7554,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>1049</v>
+        <v>1118</v>
       </c>
       <c r="B239" t="s">
-        <v>1068</v>
+        <v>1137</v>
       </c>
       <c r="C239">
         <v>2012</v>
@@ -7364,10 +7571,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>1049</v>
+        <v>1118</v>
       </c>
       <c r="B240" t="s">
-        <v>1068</v>
+        <v>1137</v>
       </c>
       <c r="C240">
         <v>2013</v>
@@ -7381,10 +7588,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>1049</v>
+        <v>1118</v>
       </c>
       <c r="B241" t="s">
-        <v>1068</v>
+        <v>1137</v>
       </c>
       <c r="C241">
         <v>2014</v>
@@ -7398,10 +7605,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>1049</v>
+        <v>1118</v>
       </c>
       <c r="B242" t="s">
-        <v>1068</v>
+        <v>1137</v>
       </c>
       <c r="C242">
         <v>2015</v>
@@ -7415,10 +7622,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>1049</v>
+        <v>1118</v>
       </c>
       <c r="B243" t="s">
-        <v>1068</v>
+        <v>1137</v>
       </c>
       <c r="C243">
         <v>2016</v>
@@ -7432,10 +7639,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>1049</v>
+        <v>1118</v>
       </c>
       <c r="B244" t="s">
-        <v>1068</v>
+        <v>1137</v>
       </c>
       <c r="C244">
         <v>2017</v>
@@ -7449,10 +7656,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>1049</v>
+        <v>1118</v>
       </c>
       <c r="B245" t="s">
-        <v>1068</v>
+        <v>1137</v>
       </c>
       <c r="C245">
         <v>2018</v>
@@ -7466,10 +7673,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>1049</v>
+        <v>1118</v>
       </c>
       <c r="B246" t="s">
-        <v>1068</v>
+        <v>1137</v>
       </c>
       <c r="C246">
         <v>2019</v>
@@ -7483,10 +7690,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>1049</v>
+        <v>1118</v>
       </c>
       <c r="B247" t="s">
-        <v>1068</v>
+        <v>1137</v>
       </c>
       <c r="C247">
         <v>2020</v>
@@ -7500,10 +7707,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>1049</v>
+        <v>1118</v>
       </c>
       <c r="B248" t="s">
-        <v>1068</v>
+        <v>1137</v>
       </c>
       <c r="C248">
         <v>2021</v>
@@ -7517,10 +7724,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>1049</v>
+        <v>1118</v>
       </c>
       <c r="B249" t="s">
-        <v>1068</v>
+        <v>1137</v>
       </c>
       <c r="C249">
         <v>2022</v>
@@ -7534,10 +7741,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>1049</v>
+        <v>1118</v>
       </c>
       <c r="B250" t="s">
-        <v>1068</v>
+        <v>1137</v>
       </c>
       <c r="C250">
         <v>2023</v>
@@ -7551,10 +7758,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>1049</v>
+        <v>1118</v>
       </c>
       <c r="B251" t="s">
-        <v>1068</v>
+        <v>1137</v>
       </c>
       <c r="C251">
         <v>2024</v>
@@ -7568,10 +7775,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>1050</v>
+        <v>1119</v>
       </c>
       <c r="B252" t="s">
-        <v>1069</v>
+        <v>1138</v>
       </c>
       <c r="C252">
         <v>2000</v>
@@ -7585,10 +7792,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>1050</v>
+        <v>1119</v>
       </c>
       <c r="B253" t="s">
-        <v>1069</v>
+        <v>1138</v>
       </c>
       <c r="C253">
         <v>2001</v>
@@ -7602,10 +7809,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>1050</v>
+        <v>1119</v>
       </c>
       <c r="B254" t="s">
-        <v>1069</v>
+        <v>1138</v>
       </c>
       <c r="C254">
         <v>2002</v>
@@ -7619,10 +7826,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>1050</v>
+        <v>1119</v>
       </c>
       <c r="B255" t="s">
-        <v>1069</v>
+        <v>1138</v>
       </c>
       <c r="C255">
         <v>2003</v>
@@ -7636,10 +7843,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>1050</v>
+        <v>1119</v>
       </c>
       <c r="B256" t="s">
-        <v>1069</v>
+        <v>1138</v>
       </c>
       <c r="C256">
         <v>2004</v>
@@ -7653,10 +7860,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>1050</v>
+        <v>1119</v>
       </c>
       <c r="B257" t="s">
-        <v>1069</v>
+        <v>1138</v>
       </c>
       <c r="C257">
         <v>2005</v>
@@ -7670,10 +7877,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>1050</v>
+        <v>1119</v>
       </c>
       <c r="B258" t="s">
-        <v>1069</v>
+        <v>1138</v>
       </c>
       <c r="C258">
         <v>2006</v>
@@ -7687,10 +7894,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>1050</v>
+        <v>1119</v>
       </c>
       <c r="B259" t="s">
-        <v>1069</v>
+        <v>1138</v>
       </c>
       <c r="C259">
         <v>2007</v>
@@ -7704,10 +7911,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>1050</v>
+        <v>1119</v>
       </c>
       <c r="B260" t="s">
-        <v>1069</v>
+        <v>1138</v>
       </c>
       <c r="C260">
         <v>2008</v>
@@ -7721,10 +7928,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>1050</v>
+        <v>1119</v>
       </c>
       <c r="B261" t="s">
-        <v>1069</v>
+        <v>1138</v>
       </c>
       <c r="C261">
         <v>2009</v>
@@ -7738,10 +7945,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>1050</v>
+        <v>1119</v>
       </c>
       <c r="B262" t="s">
-        <v>1069</v>
+        <v>1138</v>
       </c>
       <c r="C262">
         <v>2010</v>
@@ -7755,10 +7962,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>1050</v>
+        <v>1119</v>
       </c>
       <c r="B263" t="s">
-        <v>1069</v>
+        <v>1138</v>
       </c>
       <c r="C263">
         <v>2011</v>
@@ -7772,10 +7979,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>1050</v>
+        <v>1119</v>
       </c>
       <c r="B264" t="s">
-        <v>1069</v>
+        <v>1138</v>
       </c>
       <c r="C264">
         <v>2012</v>
@@ -7789,10 +7996,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>1050</v>
+        <v>1119</v>
       </c>
       <c r="B265" t="s">
-        <v>1069</v>
+        <v>1138</v>
       </c>
       <c r="C265">
         <v>2013</v>
@@ -7806,10 +8013,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>1050</v>
+        <v>1119</v>
       </c>
       <c r="B266" t="s">
-        <v>1069</v>
+        <v>1138</v>
       </c>
       <c r="C266">
         <v>2014</v>
@@ -7823,10 +8030,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>1050</v>
+        <v>1119</v>
       </c>
       <c r="B267" t="s">
-        <v>1069</v>
+        <v>1138</v>
       </c>
       <c r="C267">
         <v>2015</v>
@@ -7840,10 +8047,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>1050</v>
+        <v>1119</v>
       </c>
       <c r="B268" t="s">
-        <v>1069</v>
+        <v>1138</v>
       </c>
       <c r="C268">
         <v>2016</v>
@@ -7857,10 +8064,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>1050</v>
+        <v>1119</v>
       </c>
       <c r="B269" t="s">
-        <v>1069</v>
+        <v>1138</v>
       </c>
       <c r="C269">
         <v>2017</v>
@@ -7874,10 +8081,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>1050</v>
+        <v>1119</v>
       </c>
       <c r="B270" t="s">
-        <v>1069</v>
+        <v>1138</v>
       </c>
       <c r="C270">
         <v>2018</v>
@@ -7891,10 +8098,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>1050</v>
+        <v>1119</v>
       </c>
       <c r="B271" t="s">
-        <v>1069</v>
+        <v>1138</v>
       </c>
       <c r="C271">
         <v>2019</v>
@@ -7908,10 +8115,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>1050</v>
+        <v>1119</v>
       </c>
       <c r="B272" t="s">
-        <v>1069</v>
+        <v>1138</v>
       </c>
       <c r="C272">
         <v>2020</v>
@@ -7925,10 +8132,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>1050</v>
+        <v>1119</v>
       </c>
       <c r="B273" t="s">
-        <v>1069</v>
+        <v>1138</v>
       </c>
       <c r="C273">
         <v>2021</v>
@@ -7942,10 +8149,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>1050</v>
+        <v>1119</v>
       </c>
       <c r="B274" t="s">
-        <v>1069</v>
+        <v>1138</v>
       </c>
       <c r="C274">
         <v>2022</v>
@@ -7959,10 +8166,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>1050</v>
+        <v>1119</v>
       </c>
       <c r="B275" t="s">
-        <v>1069</v>
+        <v>1138</v>
       </c>
       <c r="C275">
         <v>2023</v>
@@ -7976,10 +8183,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>1050</v>
+        <v>1119</v>
       </c>
       <c r="B276" t="s">
-        <v>1069</v>
+        <v>1138</v>
       </c>
       <c r="C276">
         <v>2024</v>
@@ -7993,10 +8200,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="B277" t="s">
-        <v>1070</v>
+        <v>1139</v>
       </c>
       <c r="C277">
         <v>2000</v>
@@ -8010,10 +8217,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="B278" t="s">
-        <v>1070</v>
+        <v>1139</v>
       </c>
       <c r="C278">
         <v>2001</v>
@@ -8027,10 +8234,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="B279" t="s">
-        <v>1070</v>
+        <v>1139</v>
       </c>
       <c r="C279">
         <v>2002</v>
@@ -8044,10 +8251,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="B280" t="s">
-        <v>1070</v>
+        <v>1139</v>
       </c>
       <c r="C280">
         <v>2003</v>
@@ -8061,10 +8268,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="B281" t="s">
-        <v>1070</v>
+        <v>1139</v>
       </c>
       <c r="C281">
         <v>2004</v>
@@ -8078,10 +8285,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="B282" t="s">
-        <v>1070</v>
+        <v>1139</v>
       </c>
       <c r="C282">
         <v>2005</v>
@@ -8095,10 +8302,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="B283" t="s">
-        <v>1070</v>
+        <v>1139</v>
       </c>
       <c r="C283">
         <v>2006</v>
@@ -8112,10 +8319,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="B284" t="s">
-        <v>1070</v>
+        <v>1139</v>
       </c>
       <c r="C284">
         <v>2007</v>
@@ -8129,10 +8336,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="B285" t="s">
-        <v>1070</v>
+        <v>1139</v>
       </c>
       <c r="C285">
         <v>2008</v>
@@ -8146,10 +8353,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="B286" t="s">
-        <v>1070</v>
+        <v>1139</v>
       </c>
       <c r="C286">
         <v>2009</v>
@@ -8163,10 +8370,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="B287" t="s">
-        <v>1070</v>
+        <v>1139</v>
       </c>
       <c r="C287">
         <v>2010</v>
@@ -8180,10 +8387,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="B288" t="s">
-        <v>1070</v>
+        <v>1139</v>
       </c>
       <c r="C288">
         <v>2011</v>
@@ -8197,10 +8404,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="B289" t="s">
-        <v>1070</v>
+        <v>1139</v>
       </c>
       <c r="C289">
         <v>2012</v>
@@ -8214,10 +8421,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="B290" t="s">
-        <v>1070</v>
+        <v>1139</v>
       </c>
       <c r="C290">
         <v>2013</v>
@@ -8231,10 +8438,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="B291" t="s">
-        <v>1070</v>
+        <v>1139</v>
       </c>
       <c r="C291">
         <v>2014</v>
@@ -8248,10 +8455,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="B292" t="s">
-        <v>1070</v>
+        <v>1139</v>
       </c>
       <c r="C292">
         <v>2015</v>
@@ -8265,10 +8472,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="B293" t="s">
-        <v>1070</v>
+        <v>1139</v>
       </c>
       <c r="C293">
         <v>2016</v>
@@ -8282,10 +8489,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="B294" t="s">
-        <v>1070</v>
+        <v>1139</v>
       </c>
       <c r="C294">
         <v>2017</v>
@@ -8299,10 +8506,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="B295" t="s">
-        <v>1070</v>
+        <v>1139</v>
       </c>
       <c r="C295">
         <v>2018</v>
@@ -8316,10 +8523,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="B296" t="s">
-        <v>1070</v>
+        <v>1139</v>
       </c>
       <c r="C296">
         <v>2019</v>
@@ -8333,10 +8540,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="B297" t="s">
-        <v>1070</v>
+        <v>1139</v>
       </c>
       <c r="C297">
         <v>2020</v>
@@ -8350,10 +8557,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="B298" t="s">
-        <v>1070</v>
+        <v>1139</v>
       </c>
       <c r="C298">
         <v>2021</v>
@@ -8367,10 +8574,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="B299" t="s">
-        <v>1070</v>
+        <v>1139</v>
       </c>
       <c r="C299">
         <v>2022</v>
@@ -8384,10 +8591,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="B300" t="s">
-        <v>1070</v>
+        <v>1139</v>
       </c>
       <c r="C300">
         <v>2023</v>
@@ -8401,10 +8608,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>1051</v>
+        <v>1120</v>
       </c>
       <c r="B301" t="s">
-        <v>1070</v>
+        <v>1139</v>
       </c>
       <c r="C301">
         <v>2024</v>
@@ -8418,10 +8625,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>1052</v>
+        <v>1121</v>
       </c>
       <c r="B302" t="s">
-        <v>1071</v>
+        <v>1140</v>
       </c>
       <c r="C302">
         <v>2000</v>
@@ -8435,10 +8642,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>1052</v>
+        <v>1121</v>
       </c>
       <c r="B303" t="s">
-        <v>1071</v>
+        <v>1140</v>
       </c>
       <c r="C303">
         <v>2001</v>
@@ -8452,10 +8659,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>1052</v>
+        <v>1121</v>
       </c>
       <c r="B304" t="s">
-        <v>1071</v>
+        <v>1140</v>
       </c>
       <c r="C304">
         <v>2002</v>
@@ -8469,10 +8676,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>1052</v>
+        <v>1121</v>
       </c>
       <c r="B305" t="s">
-        <v>1071</v>
+        <v>1140</v>
       </c>
       <c r="C305">
         <v>2003</v>
@@ -8486,10 +8693,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>1052</v>
+        <v>1121</v>
       </c>
       <c r="B306" t="s">
-        <v>1071</v>
+        <v>1140</v>
       </c>
       <c r="C306">
         <v>2004</v>
@@ -8503,10 +8710,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>1052</v>
+        <v>1121</v>
       </c>
       <c r="B307" t="s">
-        <v>1071</v>
+        <v>1140</v>
       </c>
       <c r="C307">
         <v>2005</v>
@@ -8520,10 +8727,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>1052</v>
+        <v>1121</v>
       </c>
       <c r="B308" t="s">
-        <v>1071</v>
+        <v>1140</v>
       </c>
       <c r="C308">
         <v>2006</v>
@@ -8537,10 +8744,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>1052</v>
+        <v>1121</v>
       </c>
       <c r="B309" t="s">
-        <v>1071</v>
+        <v>1140</v>
       </c>
       <c r="C309">
         <v>2007</v>
@@ -8554,10 +8761,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>1052</v>
+        <v>1121</v>
       </c>
       <c r="B310" t="s">
-        <v>1071</v>
+        <v>1140</v>
       </c>
       <c r="C310">
         <v>2008</v>
@@ -8571,10 +8778,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>1052</v>
+        <v>1121</v>
       </c>
       <c r="B311" t="s">
-        <v>1071</v>
+        <v>1140</v>
       </c>
       <c r="C311">
         <v>2009</v>
@@ -8588,10 +8795,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>1052</v>
+        <v>1121</v>
       </c>
       <c r="B312" t="s">
-        <v>1071</v>
+        <v>1140</v>
       </c>
       <c r="C312">
         <v>2010</v>
@@ -8605,10 +8812,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>1052</v>
+        <v>1121</v>
       </c>
       <c r="B313" t="s">
-        <v>1071</v>
+        <v>1140</v>
       </c>
       <c r="C313">
         <v>2011</v>
@@ -8622,10 +8829,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>1052</v>
+        <v>1121</v>
       </c>
       <c r="B314" t="s">
-        <v>1071</v>
+        <v>1140</v>
       </c>
       <c r="C314">
         <v>2012</v>
@@ -8639,10 +8846,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>1052</v>
+        <v>1121</v>
       </c>
       <c r="B315" t="s">
-        <v>1071</v>
+        <v>1140</v>
       </c>
       <c r="C315">
         <v>2013</v>
@@ -8656,10 +8863,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>1052</v>
+        <v>1121</v>
       </c>
       <c r="B316" t="s">
-        <v>1071</v>
+        <v>1140</v>
       </c>
       <c r="C316">
         <v>2014</v>
@@ -8673,10 +8880,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>1052</v>
+        <v>1121</v>
       </c>
       <c r="B317" t="s">
-        <v>1071</v>
+        <v>1140</v>
       </c>
       <c r="C317">
         <v>2015</v>
@@ -8690,10 +8897,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>1052</v>
+        <v>1121</v>
       </c>
       <c r="B318" t="s">
-        <v>1071</v>
+        <v>1140</v>
       </c>
       <c r="C318">
         <v>2016</v>
@@ -8707,10 +8914,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>1052</v>
+        <v>1121</v>
       </c>
       <c r="B319" t="s">
-        <v>1071</v>
+        <v>1140</v>
       </c>
       <c r="C319">
         <v>2017</v>
@@ -8724,10 +8931,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>1052</v>
+        <v>1121</v>
       </c>
       <c r="B320" t="s">
-        <v>1071</v>
+        <v>1140</v>
       </c>
       <c r="C320">
         <v>2018</v>
@@ -8741,10 +8948,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>1052</v>
+        <v>1121</v>
       </c>
       <c r="B321" t="s">
-        <v>1071</v>
+        <v>1140</v>
       </c>
       <c r="C321">
         <v>2019</v>
@@ -8758,10 +8965,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>1052</v>
+        <v>1121</v>
       </c>
       <c r="B322" t="s">
-        <v>1071</v>
+        <v>1140</v>
       </c>
       <c r="C322">
         <v>2020</v>
@@ -8775,10 +8982,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>1052</v>
+        <v>1121</v>
       </c>
       <c r="B323" t="s">
-        <v>1071</v>
+        <v>1140</v>
       </c>
       <c r="C323">
         <v>2021</v>
@@ -8792,10 +8999,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>1052</v>
+        <v>1121</v>
       </c>
       <c r="B324" t="s">
-        <v>1071</v>
+        <v>1140</v>
       </c>
       <c r="C324">
         <v>2022</v>
@@ -8809,10 +9016,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>1052</v>
+        <v>1121</v>
       </c>
       <c r="B325" t="s">
-        <v>1071</v>
+        <v>1140</v>
       </c>
       <c r="C325">
         <v>2023</v>
@@ -8826,10 +9033,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>1052</v>
+        <v>1121</v>
       </c>
       <c r="B326" t="s">
-        <v>1071</v>
+        <v>1140</v>
       </c>
       <c r="C326">
         <v>2024</v>
@@ -8843,10 +9050,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>1053</v>
+        <v>1122</v>
       </c>
       <c r="B327" t="s">
-        <v>1072</v>
+        <v>1141</v>
       </c>
       <c r="C327">
         <v>2000</v>
@@ -8860,10 +9067,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>1053</v>
+        <v>1122</v>
       </c>
       <c r="B328" t="s">
-        <v>1072</v>
+        <v>1141</v>
       </c>
       <c r="C328">
         <v>2001</v>
@@ -8877,10 +9084,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>1053</v>
+        <v>1122</v>
       </c>
       <c r="B329" t="s">
-        <v>1072</v>
+        <v>1141</v>
       </c>
       <c r="C329">
         <v>2002</v>
@@ -8894,10 +9101,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>1053</v>
+        <v>1122</v>
       </c>
       <c r="B330" t="s">
-        <v>1072</v>
+        <v>1141</v>
       </c>
       <c r="C330">
         <v>2003</v>
@@ -8911,10 +9118,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>1053</v>
+        <v>1122</v>
       </c>
       <c r="B331" t="s">
-        <v>1072</v>
+        <v>1141</v>
       </c>
       <c r="C331">
         <v>2004</v>
@@ -8928,10 +9135,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>1053</v>
+        <v>1122</v>
       </c>
       <c r="B332" t="s">
-        <v>1072</v>
+        <v>1141</v>
       </c>
       <c r="C332">
         <v>2005</v>
@@ -8945,10 +9152,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>1053</v>
+        <v>1122</v>
       </c>
       <c r="B333" t="s">
-        <v>1072</v>
+        <v>1141</v>
       </c>
       <c r="C333">
         <v>2006</v>
@@ -8962,10 +9169,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>1053</v>
+        <v>1122</v>
       </c>
       <c r="B334" t="s">
-        <v>1072</v>
+        <v>1141</v>
       </c>
       <c r="C334">
         <v>2007</v>
@@ -8979,10 +9186,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>1053</v>
+        <v>1122</v>
       </c>
       <c r="B335" t="s">
-        <v>1072</v>
+        <v>1141</v>
       </c>
       <c r="C335">
         <v>2008</v>
@@ -8996,10 +9203,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>1053</v>
+        <v>1122</v>
       </c>
       <c r="B336" t="s">
-        <v>1072</v>
+        <v>1141</v>
       </c>
       <c r="C336">
         <v>2009</v>
@@ -9013,10 +9220,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>1053</v>
+        <v>1122</v>
       </c>
       <c r="B337" t="s">
-        <v>1072</v>
+        <v>1141</v>
       </c>
       <c r="C337">
         <v>2010</v>
@@ -9030,10 +9237,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>1053</v>
+        <v>1122</v>
       </c>
       <c r="B338" t="s">
-        <v>1072</v>
+        <v>1141</v>
       </c>
       <c r="C338">
         <v>2011</v>
@@ -9047,10 +9254,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>1053</v>
+        <v>1122</v>
       </c>
       <c r="B339" t="s">
-        <v>1072</v>
+        <v>1141</v>
       </c>
       <c r="C339">
         <v>2012</v>
@@ -9064,10 +9271,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>1053</v>
+        <v>1122</v>
       </c>
       <c r="B340" t="s">
-        <v>1072</v>
+        <v>1141</v>
       </c>
       <c r="C340">
         <v>2013</v>
@@ -9081,10 +9288,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>1053</v>
+        <v>1122</v>
       </c>
       <c r="B341" t="s">
-        <v>1072</v>
+        <v>1141</v>
       </c>
       <c r="C341">
         <v>2014</v>
@@ -9098,10 +9305,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>1053</v>
+        <v>1122</v>
       </c>
       <c r="B342" t="s">
-        <v>1072</v>
+        <v>1141</v>
       </c>
       <c r="C342">
         <v>2015</v>
@@ -9115,10 +9322,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>1053</v>
+        <v>1122</v>
       </c>
       <c r="B343" t="s">
-        <v>1072</v>
+        <v>1141</v>
       </c>
       <c r="C343">
         <v>2016</v>
@@ -9132,10 +9339,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>1053</v>
+        <v>1122</v>
       </c>
       <c r="B344" t="s">
-        <v>1072</v>
+        <v>1141</v>
       </c>
       <c r="C344">
         <v>2017</v>
@@ -9149,10 +9356,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>1053</v>
+        <v>1122</v>
       </c>
       <c r="B345" t="s">
-        <v>1072</v>
+        <v>1141</v>
       </c>
       <c r="C345">
         <v>2018</v>
@@ -9166,10 +9373,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>1053</v>
+        <v>1122</v>
       </c>
       <c r="B346" t="s">
-        <v>1072</v>
+        <v>1141</v>
       </c>
       <c r="C346">
         <v>2019</v>
@@ -9183,10 +9390,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>1053</v>
+        <v>1122</v>
       </c>
       <c r="B347" t="s">
-        <v>1072</v>
+        <v>1141</v>
       </c>
       <c r="C347">
         <v>2020</v>
@@ -9200,10 +9407,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>1053</v>
+        <v>1122</v>
       </c>
       <c r="B348" t="s">
-        <v>1072</v>
+        <v>1141</v>
       </c>
       <c r="C348">
         <v>2021</v>
@@ -9217,10 +9424,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>1053</v>
+        <v>1122</v>
       </c>
       <c r="B349" t="s">
-        <v>1072</v>
+        <v>1141</v>
       </c>
       <c r="C349">
         <v>2022</v>
@@ -9234,10 +9441,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>1053</v>
+        <v>1122</v>
       </c>
       <c r="B350" t="s">
-        <v>1072</v>
+        <v>1141</v>
       </c>
       <c r="C350">
         <v>2023</v>
@@ -9251,10 +9458,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>1053</v>
+        <v>1122</v>
       </c>
       <c r="B351" t="s">
-        <v>1072</v>
+        <v>1141</v>
       </c>
       <c r="C351">
         <v>2024</v>
@@ -9268,10 +9475,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>1054</v>
+        <v>1123</v>
       </c>
       <c r="B352" t="s">
-        <v>1073</v>
+        <v>1142</v>
       </c>
       <c r="C352">
         <v>2000</v>
@@ -9285,10 +9492,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>1054</v>
+        <v>1123</v>
       </c>
       <c r="B353" t="s">
-        <v>1073</v>
+        <v>1142</v>
       </c>
       <c r="C353">
         <v>2001</v>
@@ -9302,10 +9509,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>1054</v>
+        <v>1123</v>
       </c>
       <c r="B354" t="s">
-        <v>1073</v>
+        <v>1142</v>
       </c>
       <c r="C354">
         <v>2002</v>
@@ -9319,10 +9526,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>1054</v>
+        <v>1123</v>
       </c>
       <c r="B355" t="s">
-        <v>1073</v>
+        <v>1142</v>
       </c>
       <c r="C355">
         <v>2003</v>
@@ -9336,10 +9543,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>1054</v>
+        <v>1123</v>
       </c>
       <c r="B356" t="s">
-        <v>1073</v>
+        <v>1142</v>
       </c>
       <c r="C356">
         <v>2004</v>
@@ -9353,10 +9560,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>1054</v>
+        <v>1123</v>
       </c>
       <c r="B357" t="s">
-        <v>1073</v>
+        <v>1142</v>
       </c>
       <c r="C357">
         <v>2005</v>
@@ -9370,10 +9577,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>1054</v>
+        <v>1123</v>
       </c>
       <c r="B358" t="s">
-        <v>1073</v>
+        <v>1142</v>
       </c>
       <c r="C358">
         <v>2006</v>
@@ -9387,10 +9594,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>1054</v>
+        <v>1123</v>
       </c>
       <c r="B359" t="s">
-        <v>1073</v>
+        <v>1142</v>
       </c>
       <c r="C359">
         <v>2007</v>
@@ -9404,10 +9611,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>1054</v>
+        <v>1123</v>
       </c>
       <c r="B360" t="s">
-        <v>1073</v>
+        <v>1142</v>
       </c>
       <c r="C360">
         <v>2008</v>
@@ -9421,10 +9628,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>1054</v>
+        <v>1123</v>
       </c>
       <c r="B361" t="s">
-        <v>1073</v>
+        <v>1142</v>
       </c>
       <c r="C361">
         <v>2009</v>
@@ -9438,10 +9645,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>1054</v>
+        <v>1123</v>
       </c>
       <c r="B362" t="s">
-        <v>1073</v>
+        <v>1142</v>
       </c>
       <c r="C362">
         <v>2010</v>
@@ -9455,10 +9662,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>1054</v>
+        <v>1123</v>
       </c>
       <c r="B363" t="s">
-        <v>1073</v>
+        <v>1142</v>
       </c>
       <c r="C363">
         <v>2011</v>
@@ -9472,10 +9679,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>1054</v>
+        <v>1123</v>
       </c>
       <c r="B364" t="s">
-        <v>1073</v>
+        <v>1142</v>
       </c>
       <c r="C364">
         <v>2012</v>
@@ -9489,10 +9696,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>1054</v>
+        <v>1123</v>
       </c>
       <c r="B365" t="s">
-        <v>1073</v>
+        <v>1142</v>
       </c>
       <c r="C365">
         <v>2013</v>
@@ -9506,10 +9713,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>1054</v>
+        <v>1123</v>
       </c>
       <c r="B366" t="s">
-        <v>1073</v>
+        <v>1142</v>
       </c>
       <c r="C366">
         <v>2014</v>
@@ -9523,10 +9730,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>1054</v>
+        <v>1123</v>
       </c>
       <c r="B367" t="s">
-        <v>1073</v>
+        <v>1142</v>
       </c>
       <c r="C367">
         <v>2015</v>
@@ -9540,10 +9747,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>1054</v>
+        <v>1123</v>
       </c>
       <c r="B368" t="s">
-        <v>1073</v>
+        <v>1142</v>
       </c>
       <c r="C368">
         <v>2016</v>
@@ -9557,10 +9764,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>1054</v>
+        <v>1123</v>
       </c>
       <c r="B369" t="s">
-        <v>1073</v>
+        <v>1142</v>
       </c>
       <c r="C369">
         <v>2017</v>
@@ -9574,10 +9781,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>1054</v>
+        <v>1123</v>
       </c>
       <c r="B370" t="s">
-        <v>1073</v>
+        <v>1142</v>
       </c>
       <c r="C370">
         <v>2018</v>
@@ -9591,10 +9798,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>1054</v>
+        <v>1123</v>
       </c>
       <c r="B371" t="s">
-        <v>1073</v>
+        <v>1142</v>
       </c>
       <c r="C371">
         <v>2019</v>
@@ -9608,10 +9815,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>1054</v>
+        <v>1123</v>
       </c>
       <c r="B372" t="s">
-        <v>1073</v>
+        <v>1142</v>
       </c>
       <c r="C372">
         <v>2020</v>
@@ -9625,10 +9832,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>1054</v>
+        <v>1123</v>
       </c>
       <c r="B373" t="s">
-        <v>1073</v>
+        <v>1142</v>
       </c>
       <c r="C373">
         <v>2021</v>
@@ -9642,10 +9849,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>1054</v>
+        <v>1123</v>
       </c>
       <c r="B374" t="s">
-        <v>1073</v>
+        <v>1142</v>
       </c>
       <c r="C374">
         <v>2022</v>
@@ -9659,10 +9866,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>1054</v>
+        <v>1123</v>
       </c>
       <c r="B375" t="s">
-        <v>1073</v>
+        <v>1142</v>
       </c>
       <c r="C375">
         <v>2023</v>
@@ -9676,10 +9883,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>1054</v>
+        <v>1123</v>
       </c>
       <c r="B376" t="s">
-        <v>1073</v>
+        <v>1142</v>
       </c>
       <c r="C376">
         <v>2024</v>
@@ -9693,10 +9900,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>1055</v>
+        <v>1124</v>
       </c>
       <c r="B377" t="s">
-        <v>1074</v>
+        <v>1143</v>
       </c>
       <c r="C377">
         <v>2000</v>
@@ -9710,10 +9917,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>1055</v>
+        <v>1124</v>
       </c>
       <c r="B378" t="s">
-        <v>1074</v>
+        <v>1143</v>
       </c>
       <c r="C378">
         <v>2001</v>
@@ -9727,10 +9934,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>1055</v>
+        <v>1124</v>
       </c>
       <c r="B379" t="s">
-        <v>1074</v>
+        <v>1143</v>
       </c>
       <c r="C379">
         <v>2002</v>
@@ -9744,10 +9951,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>1055</v>
+        <v>1124</v>
       </c>
       <c r="B380" t="s">
-        <v>1074</v>
+        <v>1143</v>
       </c>
       <c r="C380">
         <v>2003</v>
@@ -9761,10 +9968,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>1055</v>
+        <v>1124</v>
       </c>
       <c r="B381" t="s">
-        <v>1074</v>
+        <v>1143</v>
       </c>
       <c r="C381">
         <v>2004</v>
@@ -9778,10 +9985,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>1055</v>
+        <v>1124</v>
       </c>
       <c r="B382" t="s">
-        <v>1074</v>
+        <v>1143</v>
       </c>
       <c r="C382">
         <v>2005</v>
@@ -9795,10 +10002,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>1055</v>
+        <v>1124</v>
       </c>
       <c r="B383" t="s">
-        <v>1074</v>
+        <v>1143</v>
       </c>
       <c r="C383">
         <v>2006</v>
@@ -9812,10 +10019,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>1055</v>
+        <v>1124</v>
       </c>
       <c r="B384" t="s">
-        <v>1074</v>
+        <v>1143</v>
       </c>
       <c r="C384">
         <v>2007</v>
@@ -9829,10 +10036,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>1055</v>
+        <v>1124</v>
       </c>
       <c r="B385" t="s">
-        <v>1074</v>
+        <v>1143</v>
       </c>
       <c r="C385">
         <v>2008</v>
@@ -9846,10 +10053,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>1055</v>
+        <v>1124</v>
       </c>
       <c r="B386" t="s">
-        <v>1074</v>
+        <v>1143</v>
       </c>
       <c r="C386">
         <v>2009</v>
@@ -9863,10 +10070,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>1055</v>
+        <v>1124</v>
       </c>
       <c r="B387" t="s">
-        <v>1074</v>
+        <v>1143</v>
       </c>
       <c r="C387">
         <v>2010</v>
@@ -9880,10 +10087,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>1055</v>
+        <v>1124</v>
       </c>
       <c r="B388" t="s">
-        <v>1074</v>
+        <v>1143</v>
       </c>
       <c r="C388">
         <v>2011</v>
@@ -9897,10 +10104,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>1055</v>
+        <v>1124</v>
       </c>
       <c r="B389" t="s">
-        <v>1074</v>
+        <v>1143</v>
       </c>
       <c r="C389">
         <v>2012</v>
@@ -9914,10 +10121,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>1055</v>
+        <v>1124</v>
       </c>
       <c r="B390" t="s">
-        <v>1074</v>
+        <v>1143</v>
       </c>
       <c r="C390">
         <v>2013</v>
@@ -9931,10 +10138,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>1055</v>
+        <v>1124</v>
       </c>
       <c r="B391" t="s">
-        <v>1074</v>
+        <v>1143</v>
       </c>
       <c r="C391">
         <v>2014</v>
@@ -9948,10 +10155,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>1055</v>
+        <v>1124</v>
       </c>
       <c r="B392" t="s">
-        <v>1074</v>
+        <v>1143</v>
       </c>
       <c r="C392">
         <v>2015</v>
@@ -9965,10 +10172,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>1055</v>
+        <v>1124</v>
       </c>
       <c r="B393" t="s">
-        <v>1074</v>
+        <v>1143</v>
       </c>
       <c r="C393">
         <v>2016</v>
@@ -9982,10 +10189,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>1055</v>
+        <v>1124</v>
       </c>
       <c r="B394" t="s">
-        <v>1074</v>
+        <v>1143</v>
       </c>
       <c r="C394">
         <v>2017</v>
@@ -9999,10 +10206,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>1055</v>
+        <v>1124</v>
       </c>
       <c r="B395" t="s">
-        <v>1074</v>
+        <v>1143</v>
       </c>
       <c r="C395">
         <v>2018</v>
@@ -10016,10 +10223,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>1055</v>
+        <v>1124</v>
       </c>
       <c r="B396" t="s">
-        <v>1074</v>
+        <v>1143</v>
       </c>
       <c r="C396">
         <v>2019</v>
@@ -10033,10 +10240,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>1055</v>
+        <v>1124</v>
       </c>
       <c r="B397" t="s">
-        <v>1074</v>
+        <v>1143</v>
       </c>
       <c r="C397">
         <v>2020</v>
@@ -10050,10 +10257,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>1055</v>
+        <v>1124</v>
       </c>
       <c r="B398" t="s">
-        <v>1074</v>
+        <v>1143</v>
       </c>
       <c r="C398">
         <v>2021</v>
@@ -10067,10 +10274,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>1055</v>
+        <v>1124</v>
       </c>
       <c r="B399" t="s">
-        <v>1074</v>
+        <v>1143</v>
       </c>
       <c r="C399">
         <v>2022</v>
@@ -10084,10 +10291,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>1055</v>
+        <v>1124</v>
       </c>
       <c r="B400" t="s">
-        <v>1074</v>
+        <v>1143</v>
       </c>
       <c r="C400">
         <v>2023</v>
@@ -10101,10 +10308,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>1055</v>
+        <v>1124</v>
       </c>
       <c r="B401" t="s">
-        <v>1074</v>
+        <v>1143</v>
       </c>
       <c r="C401">
         <v>2024</v>
@@ -10118,10 +10325,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>1056</v>
+        <v>1125</v>
       </c>
       <c r="B402" t="s">
-        <v>1075</v>
+        <v>1144</v>
       </c>
       <c r="C402">
         <v>2000</v>
@@ -10135,10 +10342,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>1056</v>
+        <v>1125</v>
       </c>
       <c r="B403" t="s">
-        <v>1075</v>
+        <v>1144</v>
       </c>
       <c r="C403">
         <v>2001</v>
@@ -10152,10 +10359,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>1056</v>
+        <v>1125</v>
       </c>
       <c r="B404" t="s">
-        <v>1075</v>
+        <v>1144</v>
       </c>
       <c r="C404">
         <v>2002</v>
@@ -10169,10 +10376,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>1056</v>
+        <v>1125</v>
       </c>
       <c r="B405" t="s">
-        <v>1075</v>
+        <v>1144</v>
       </c>
       <c r="C405">
         <v>2003</v>
@@ -10186,10 +10393,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>1056</v>
+        <v>1125</v>
       </c>
       <c r="B406" t="s">
-        <v>1075</v>
+        <v>1144</v>
       </c>
       <c r="C406">
         <v>2004</v>
@@ -10203,10 +10410,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>1056</v>
+        <v>1125</v>
       </c>
       <c r="B407" t="s">
-        <v>1075</v>
+        <v>1144</v>
       </c>
       <c r="C407">
         <v>2005</v>
@@ -10220,10 +10427,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>1056</v>
+        <v>1125</v>
       </c>
       <c r="B408" t="s">
-        <v>1075</v>
+        <v>1144</v>
       </c>
       <c r="C408">
         <v>2006</v>
@@ -10237,10 +10444,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>1056</v>
+        <v>1125</v>
       </c>
       <c r="B409" t="s">
-        <v>1075</v>
+        <v>1144</v>
       </c>
       <c r="C409">
         <v>2007</v>
@@ -10254,10 +10461,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>1056</v>
+        <v>1125</v>
       </c>
       <c r="B410" t="s">
-        <v>1075</v>
+        <v>1144</v>
       </c>
       <c r="C410">
         <v>2008</v>
@@ -10271,10 +10478,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>1056</v>
+        <v>1125</v>
       </c>
       <c r="B411" t="s">
-        <v>1075</v>
+        <v>1144</v>
       </c>
       <c r="C411">
         <v>2009</v>
@@ -10288,10 +10495,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>1056</v>
+        <v>1125</v>
       </c>
       <c r="B412" t="s">
-        <v>1075</v>
+        <v>1144</v>
       </c>
       <c r="C412">
         <v>2010</v>
@@ -10305,10 +10512,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>1056</v>
+        <v>1125</v>
       </c>
       <c r="B413" t="s">
-        <v>1075</v>
+        <v>1144</v>
       </c>
       <c r="C413">
         <v>2011</v>
@@ -10322,10 +10529,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>1056</v>
+        <v>1125</v>
       </c>
       <c r="B414" t="s">
-        <v>1075</v>
+        <v>1144</v>
       </c>
       <c r="C414">
         <v>2012</v>
@@ -10339,10 +10546,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>1056</v>
+        <v>1125</v>
       </c>
       <c r="B415" t="s">
-        <v>1075</v>
+        <v>1144</v>
       </c>
       <c r="C415">
         <v>2013</v>
@@ -10356,10 +10563,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>1056</v>
+        <v>1125</v>
       </c>
       <c r="B416" t="s">
-        <v>1075</v>
+        <v>1144</v>
       </c>
       <c r="C416">
         <v>2014</v>
@@ -10373,10 +10580,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>1056</v>
+        <v>1125</v>
       </c>
       <c r="B417" t="s">
-        <v>1075</v>
+        <v>1144</v>
       </c>
       <c r="C417">
         <v>2015</v>
@@ -10390,10 +10597,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>1056</v>
+        <v>1125</v>
       </c>
       <c r="B418" t="s">
-        <v>1075</v>
+        <v>1144</v>
       </c>
       <c r="C418">
         <v>2016</v>
@@ -10407,10 +10614,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>1056</v>
+        <v>1125</v>
       </c>
       <c r="B419" t="s">
-        <v>1075</v>
+        <v>1144</v>
       </c>
       <c r="C419">
         <v>2017</v>
@@ -10424,10 +10631,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>1056</v>
+        <v>1125</v>
       </c>
       <c r="B420" t="s">
-        <v>1075</v>
+        <v>1144</v>
       </c>
       <c r="C420">
         <v>2018</v>
@@ -10441,10 +10648,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>1056</v>
+        <v>1125</v>
       </c>
       <c r="B421" t="s">
-        <v>1075</v>
+        <v>1144</v>
       </c>
       <c r="C421">
         <v>2019</v>
@@ -10458,10 +10665,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>1056</v>
+        <v>1125</v>
       </c>
       <c r="B422" t="s">
-        <v>1075</v>
+        <v>1144</v>
       </c>
       <c r="C422">
         <v>2020</v>
@@ -10475,10 +10682,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>1056</v>
+        <v>1125</v>
       </c>
       <c r="B423" t="s">
-        <v>1075</v>
+        <v>1144</v>
       </c>
       <c r="C423">
         <v>2021</v>
@@ -10492,10 +10699,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>1056</v>
+        <v>1125</v>
       </c>
       <c r="B424" t="s">
-        <v>1075</v>
+        <v>1144</v>
       </c>
       <c r="C424">
         <v>2022</v>
@@ -10509,10 +10716,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>1056</v>
+        <v>1125</v>
       </c>
       <c r="B425" t="s">
-        <v>1075</v>
+        <v>1144</v>
       </c>
       <c r="C425">
         <v>2023</v>
@@ -10526,10 +10733,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>1056</v>
+        <v>1125</v>
       </c>
       <c r="B426" t="s">
-        <v>1075</v>
+        <v>1144</v>
       </c>
       <c r="C426">
         <v>2024</v>
@@ -10543,10 +10750,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>1057</v>
+        <v>1126</v>
       </c>
       <c r="B427" t="s">
-        <v>1076</v>
+        <v>1145</v>
       </c>
       <c r="C427">
         <v>2000</v>
@@ -10560,10 +10767,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>1057</v>
+        <v>1126</v>
       </c>
       <c r="B428" t="s">
-        <v>1076</v>
+        <v>1145</v>
       </c>
       <c r="C428">
         <v>2001</v>
@@ -10577,10 +10784,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>1057</v>
+        <v>1126</v>
       </c>
       <c r="B429" t="s">
-        <v>1076</v>
+        <v>1145</v>
       </c>
       <c r="C429">
         <v>2002</v>
@@ -10594,10 +10801,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>1057</v>
+        <v>1126</v>
       </c>
       <c r="B430" t="s">
-        <v>1076</v>
+        <v>1145</v>
       </c>
       <c r="C430">
         <v>2003</v>
@@ -10611,10 +10818,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>1057</v>
+        <v>1126</v>
       </c>
       <c r="B431" t="s">
-        <v>1076</v>
+        <v>1145</v>
       </c>
       <c r="C431">
         <v>2004</v>
@@ -10628,10 +10835,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>1057</v>
+        <v>1126</v>
       </c>
       <c r="B432" t="s">
-        <v>1076</v>
+        <v>1145</v>
       </c>
       <c r="C432">
         <v>2005</v>
@@ -10645,10 +10852,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>1057</v>
+        <v>1126</v>
       </c>
       <c r="B433" t="s">
-        <v>1076</v>
+        <v>1145</v>
       </c>
       <c r="C433">
         <v>2006</v>
@@ -10662,10 +10869,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>1057</v>
+        <v>1126</v>
       </c>
       <c r="B434" t="s">
-        <v>1076</v>
+        <v>1145</v>
       </c>
       <c r="C434">
         <v>2007</v>
@@ -10679,10 +10886,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>1057</v>
+        <v>1126</v>
       </c>
       <c r="B435" t="s">
-        <v>1076</v>
+        <v>1145</v>
       </c>
       <c r="C435">
         <v>2008</v>
@@ -10696,10 +10903,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>1057</v>
+        <v>1126</v>
       </c>
       <c r="B436" t="s">
-        <v>1076</v>
+        <v>1145</v>
       </c>
       <c r="C436">
         <v>2009</v>
@@ -10713,10 +10920,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>1057</v>
+        <v>1126</v>
       </c>
       <c r="B437" t="s">
-        <v>1076</v>
+        <v>1145</v>
       </c>
       <c r="C437">
         <v>2010</v>
@@ -10730,10 +10937,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>1057</v>
+        <v>1126</v>
       </c>
       <c r="B438" t="s">
-        <v>1076</v>
+        <v>1145</v>
       </c>
       <c r="C438">
         <v>2011</v>
@@ -10747,10 +10954,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>1057</v>
+        <v>1126</v>
       </c>
       <c r="B439" t="s">
-        <v>1076</v>
+        <v>1145</v>
       </c>
       <c r="C439">
         <v>2012</v>
@@ -10764,10 +10971,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>1057</v>
+        <v>1126</v>
       </c>
       <c r="B440" t="s">
-        <v>1076</v>
+        <v>1145</v>
       </c>
       <c r="C440">
         <v>2013</v>
@@ -10781,10 +10988,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>1057</v>
+        <v>1126</v>
       </c>
       <c r="B441" t="s">
-        <v>1076</v>
+        <v>1145</v>
       </c>
       <c r="C441">
         <v>2014</v>
@@ -10798,10 +11005,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>1057</v>
+        <v>1126</v>
       </c>
       <c r="B442" t="s">
-        <v>1076</v>
+        <v>1145</v>
       </c>
       <c r="C442">
         <v>2015</v>
@@ -10815,10 +11022,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>1057</v>
+        <v>1126</v>
       </c>
       <c r="B443" t="s">
-        <v>1076</v>
+        <v>1145</v>
       </c>
       <c r="C443">
         <v>2016</v>
@@ -10832,10 +11039,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>1057</v>
+        <v>1126</v>
       </c>
       <c r="B444" t="s">
-        <v>1076</v>
+        <v>1145</v>
       </c>
       <c r="C444">
         <v>2017</v>
@@ -10849,10 +11056,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>1057</v>
+        <v>1126</v>
       </c>
       <c r="B445" t="s">
-        <v>1076</v>
+        <v>1145</v>
       </c>
       <c r="C445">
         <v>2018</v>
@@ -10866,10 +11073,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>1057</v>
+        <v>1126</v>
       </c>
       <c r="B446" t="s">
-        <v>1076</v>
+        <v>1145</v>
       </c>
       <c r="C446">
         <v>2019</v>
@@ -10883,10 +11090,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>1057</v>
+        <v>1126</v>
       </c>
       <c r="B447" t="s">
-        <v>1076</v>
+        <v>1145</v>
       </c>
       <c r="C447">
         <v>2020</v>
@@ -10900,10 +11107,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>1057</v>
+        <v>1126</v>
       </c>
       <c r="B448" t="s">
-        <v>1076</v>
+        <v>1145</v>
       </c>
       <c r="C448">
         <v>2021</v>
@@ -10917,10 +11124,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>1057</v>
+        <v>1126</v>
       </c>
       <c r="B449" t="s">
-        <v>1076</v>
+        <v>1145</v>
       </c>
       <c r="C449">
         <v>2022</v>
@@ -10934,10 +11141,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>1057</v>
+        <v>1126</v>
       </c>
       <c r="B450" t="s">
-        <v>1076</v>
+        <v>1145</v>
       </c>
       <c r="C450">
         <v>2023</v>
@@ -10951,10 +11158,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>1057</v>
+        <v>1126</v>
       </c>
       <c r="B451" t="s">
-        <v>1076</v>
+        <v>1145</v>
       </c>
       <c r="C451">
         <v>2024</v>
